--- a/Spreadsheet-ACI.xlsx
+++ b/Spreadsheet-ACI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\tyscott\iac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470457EC-6C7B-4A93-9DEA-5382D2199354}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37201BD4-4CE5-46E3-BDF3-314DA3C12D1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="803" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="803" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sites" sheetId="15" r:id="rId1"/>
@@ -35,12 +35,23 @@
     <definedName name="spine_type">formulas!$E$2:$E$5</definedName>
     <definedName name="switch_role">formulas!$A$2:$A$3</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2079" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="780">
   <si>
     <t>Type</t>
   </si>
@@ -468,9 +479,6 @@
     <t>Inband_VLAN</t>
   </si>
   <si>
-    <t>inband_mgmt</t>
-  </si>
-  <si>
     <t>APIC Inband Management IP's</t>
   </si>
   <si>
@@ -838,9 +846,6 @@
   </si>
   <si>
     <t>add_vrf</t>
-  </si>
-  <si>
-    <t>APIC</t>
   </si>
   <si>
     <t>common</t>
@@ -3117,6 +3122,12 @@
   </si>
   <si>
     <t>Subnet</t>
+  </si>
+  <si>
+    <t>Port_Type</t>
+  </si>
+  <si>
+    <t>inb_subnet</t>
   </si>
 </sst>
 </file>
@@ -4289,7 +4300,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A20" sqref="A20:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4314,7 +4325,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="5" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="67" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B1" s="67"/>
       <c r="C1" s="67"/>
@@ -4333,7 +4344,7 @@
     <row r="2" spans="1:14" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
       <c r="B2" s="66" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
@@ -4353,16 +4364,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E3" s="51" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F3" s="51" t="s">
         <v>32</v>
@@ -4386,25 +4397,25 @@
     </row>
     <row r="4" spans="1:14" s="3" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="52" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B4" s="52" t="s">
+        <v>678</v>
+      </c>
+      <c r="C4" s="53" t="s">
         <v>680</v>
       </c>
-      <c r="C4" s="53" t="s">
-        <v>682</v>
-      </c>
       <c r="D4" s="64" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E4" s="54">
         <v>65501</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H4" s="33">
         <v>5555555</v>
@@ -4422,25 +4433,25 @@
     </row>
     <row r="5" spans="1:14" s="3" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="55" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B5" s="55" t="s">
+        <v>679</v>
+      </c>
+      <c r="C5" s="56" t="s">
         <v>681</v>
       </c>
-      <c r="C5" s="56" t="s">
-        <v>683</v>
-      </c>
       <c r="D5" s="65" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E5" s="57">
         <v>65502</v>
       </c>
       <c r="F5" s="44" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="G5" s="44" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="H5" s="44">
         <v>5555555</v>
@@ -4618,7 +4629,7 @@
     </row>
     <row r="17" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="67" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B17" s="67"/>
       <c r="C17" s="67"/>
@@ -4637,7 +4648,7 @@
     <row r="18" spans="1:14" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="68" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C18" s="66"/>
       <c r="D18" s="66"/>
@@ -4657,57 +4668,57 @@
         <v>0</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C19" s="51" t="s">
+        <v>724</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>725</v>
+      </c>
+      <c r="E19" s="51" t="s">
         <v>726</v>
       </c>
-      <c r="D19" s="51" t="s">
+      <c r="F19" s="51" t="s">
         <v>727</v>
       </c>
-      <c r="E19" s="51" t="s">
+      <c r="G19" s="51" t="s">
         <v>728</v>
       </c>
-      <c r="F19" s="51" t="s">
+      <c r="H19" s="51" t="s">
         <v>729</v>
       </c>
-      <c r="G19" s="51" t="s">
+      <c r="I19" s="51" t="s">
         <v>730</v>
       </c>
-      <c r="H19" s="51" t="s">
+      <c r="J19" s="51" t="s">
         <v>731</v>
       </c>
-      <c r="I19" s="51" t="s">
+      <c r="K19" s="51" t="s">
         <v>732</v>
       </c>
-      <c r="J19" s="51" t="s">
+      <c r="L19" s="51" t="s">
         <v>733</v>
       </c>
-      <c r="K19" s="51" t="s">
+      <c r="M19" s="51" t="s">
         <v>734</v>
       </c>
-      <c r="L19" s="51" t="s">
+      <c r="N19" s="51" t="s">
         <v>735</v>
-      </c>
-      <c r="M19" s="51" t="s">
-        <v>736</v>
-      </c>
-      <c r="N19" s="51" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
@@ -4840,8 +4851,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:T61"/>
   <sheetViews>
-    <sheetView zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4849,7 +4860,7 @@
     <col min="1" max="1" width="9.42578125" style="4" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="4" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="4" customWidth="1"/>
     <col min="5" max="5" width="26.5703125" style="4" customWidth="1"/>
     <col min="6" max="6" width="12.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" style="4" customWidth="1"/>
@@ -4872,7 +4883,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="81" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B1" s="81"/>
       <c r="C1" s="81"/>
@@ -4895,7 +4906,7 @@
     <row r="2" spans="1:20" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="68" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
@@ -4921,97 +4932,97 @@
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="G3" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>779</v>
-      </c>
-      <c r="I3" s="7" t="s">
+      <c r="K3" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="M3" s="32" t="s">
         <v>308</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>747</v>
-      </c>
-      <c r="L3" s="7" t="s">
+      <c r="N3" s="32" t="s">
         <v>309</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="O3" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="N3" s="32" t="s">
+      <c r="P3" s="32" t="s">
         <v>311</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="Q3" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="R3" s="43" t="s">
         <v>312</v>
-      </c>
-      <c r="P3" s="32" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="R3" s="43" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="E4" s="33" t="s">
         <v>315</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>684</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>316</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>317</v>
-      </c>
       <c r="F4" s="33" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H4" s="33"/>
       <c r="I4" s="33"/>
       <c r="J4" s="33"/>
       <c r="K4" s="33"/>
       <c r="L4" s="33" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M4" s="33" t="s">
         <v>102</v>
       </c>
       <c r="N4" s="33" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="O4" s="36" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="P4" s="33" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q4" s="35">
         <v>56</v>
@@ -5020,44 +5031,44 @@
     </row>
     <row r="5" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>682</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="E5" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>684</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>321</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>317</v>
-      </c>
       <c r="F5" s="21" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
       <c r="K5" s="21"/>
       <c r="L5" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M5" s="21" t="s">
         <v>102</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="O5" s="44" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q5" s="18">
         <v>995</v>
@@ -5066,42 +5077,44 @@
     </row>
     <row r="6" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="E6" s="33" t="s">
         <v>315</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>323</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>317</v>
-      </c>
       <c r="F6" s="33" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
       <c r="J6" s="33"/>
       <c r="K6" s="33"/>
       <c r="L6" s="33" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M6" s="33" t="s">
         <v>102</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="O6" s="36" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q6" s="35">
         <v>996</v>
@@ -5110,42 +5123,44 @@
     </row>
     <row r="7" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>682</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>325</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>317</v>
-      </c>
       <c r="F7" s="21" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
       <c r="K7" s="21"/>
       <c r="L7" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M7" s="21" t="s">
         <v>102</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="O7" s="44" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="P7" s="21" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q7" s="18">
         <v>999</v>
@@ -5154,40 +5169,42 @@
     </row>
     <row r="8" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="E8" s="33" t="s">
         <v>315</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>317</v>
-      </c>
       <c r="F8" s="33" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M8" s="33" t="s">
         <v>102</v>
       </c>
       <c r="N8" s="33" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="O8" s="36"/>
       <c r="P8" s="33" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q8" s="35">
         <v>1</v>
@@ -5196,42 +5213,44 @@
     </row>
     <row r="9" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>682</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>329</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>317</v>
-      </c>
       <c r="F9" s="21" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
       <c r="L9" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M9" s="21" t="s">
         <v>102</v>
       </c>
       <c r="N9" s="21" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="O9" s="44" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="P9" s="21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q9" s="18">
         <v>64</v>
@@ -5240,42 +5259,44 @@
     </row>
     <row r="10" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="E10" s="33" t="s">
         <v>315</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>331</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>317</v>
-      </c>
       <c r="F10" s="33" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
       <c r="J10" s="33"/>
       <c r="K10" s="33"/>
       <c r="L10" s="33" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M10" s="33" t="s">
         <v>102</v>
       </c>
       <c r="N10" s="33" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="O10" s="36" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="P10" s="33" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q10" s="35">
         <v>80</v>
@@ -5284,40 +5305,42 @@
     </row>
     <row r="11" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>682</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>317</v>
-      </c>
       <c r="F11" s="21" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
       <c r="L11" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M11" s="21" t="s">
         <v>102</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="O11" s="44"/>
       <c r="P11" s="21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q11" s="18">
         <v>87</v>
@@ -5326,42 +5349,44 @@
     </row>
     <row r="12" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>332</v>
+      </c>
+      <c r="E12" s="33" t="s">
         <v>315</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>334</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>317</v>
-      </c>
       <c r="F12" s="33" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H12" s="33"/>
       <c r="I12" s="33"/>
       <c r="J12" s="33"/>
       <c r="K12" s="33"/>
       <c r="L12" s="33" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M12" s="33" t="s">
         <v>102</v>
       </c>
       <c r="N12" s="33" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O12" s="36" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="P12" s="33" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q12" s="35">
         <v>90</v>
@@ -5370,42 +5395,44 @@
     </row>
     <row r="13" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>682</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="E13" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>336</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>317</v>
-      </c>
       <c r="F13" s="21" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
       <c r="L13" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M13" s="21" t="s">
         <v>102</v>
       </c>
       <c r="N13" s="21" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="O13" s="44" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="P13" s="21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q13" s="18">
         <v>91</v>
@@ -5414,42 +5441,44 @@
     </row>
     <row r="14" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="E14" s="33" t="s">
         <v>315</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>338</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>317</v>
-      </c>
       <c r="F14" s="33" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H14" s="33"/>
       <c r="I14" s="33"/>
       <c r="J14" s="33"/>
       <c r="K14" s="33"/>
       <c r="L14" s="33" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M14" s="33" t="s">
         <v>102</v>
       </c>
       <c r="N14" s="33" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="O14" s="36" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="P14" s="33" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q14" s="35">
         <v>110</v>
@@ -5458,40 +5487,42 @@
     </row>
     <row r="15" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>682</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="E15" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>340</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>317</v>
-      </c>
       <c r="F15" s="21" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
       <c r="L15" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M15" s="21" t="s">
         <v>102</v>
       </c>
       <c r="N15" s="21" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="O15" s="44"/>
       <c r="P15" s="21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q15" s="18">
         <v>136</v>
@@ -5500,44 +5531,44 @@
     </row>
     <row r="16" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="E16" s="33" t="s">
         <v>315</v>
       </c>
-      <c r="B16" s="33" t="s">
-        <v>266</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>341</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>317</v>
-      </c>
       <c r="F16" s="33" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H16" s="33"/>
       <c r="I16" s="33"/>
       <c r="J16" s="33"/>
       <c r="K16" s="33"/>
       <c r="L16" s="33" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M16" s="33" t="s">
         <v>102</v>
       </c>
       <c r="N16" s="33" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="O16" s="36" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="P16" s="33" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q16" s="35">
         <v>168</v>
@@ -5546,44 +5577,44 @@
     </row>
     <row r="17" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>682</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="E17" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>317</v>
-      </c>
       <c r="F17" s="21" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
       <c r="L17" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M17" s="21" t="s">
         <v>102</v>
       </c>
       <c r="N17" s="21" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="O17" s="44" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="P17" s="21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q17" s="18">
         <v>169</v>
@@ -5592,44 +5623,44 @@
     </row>
     <row r="18" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="E18" s="33" t="s">
         <v>315</v>
       </c>
-      <c r="B18" s="33" t="s">
-        <v>266</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>345</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>317</v>
-      </c>
       <c r="F18" s="33" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H18" s="33"/>
       <c r="I18" s="33"/>
       <c r="J18" s="33"/>
       <c r="K18" s="33"/>
       <c r="L18" s="33" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M18" s="33" t="s">
         <v>102</v>
       </c>
       <c r="N18" s="33" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="O18" s="36" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="P18" s="33" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q18" s="35">
         <v>691</v>
@@ -5638,44 +5669,44 @@
     </row>
     <row r="19" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>682</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="E19" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="B19" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>347</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>317</v>
-      </c>
       <c r="F19" s="21" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
       <c r="L19" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M19" s="21" t="s">
         <v>102</v>
       </c>
       <c r="N19" s="21" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="O19" s="44" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="P19" s="21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q19" s="18">
         <v>811</v>
@@ -5684,44 +5715,44 @@
     </row>
     <row r="20" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>347</v>
+      </c>
+      <c r="E20" s="33" t="s">
         <v>315</v>
       </c>
-      <c r="B20" s="33" t="s">
-        <v>266</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>349</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>317</v>
-      </c>
       <c r="F20" s="33" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H20" s="33"/>
       <c r="I20" s="33"/>
       <c r="J20" s="33"/>
       <c r="K20" s="33"/>
       <c r="L20" s="33" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M20" s="33" t="s">
         <v>102</v>
       </c>
       <c r="N20" s="33" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="O20" s="36" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="P20" s="33" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q20" s="35">
         <v>812</v>
@@ -5730,44 +5761,44 @@
     </row>
     <row r="21" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>682</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="E21" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="B21" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>351</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>317</v>
-      </c>
       <c r="F21" s="21" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
       <c r="L21" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M21" s="21" t="s">
         <v>102</v>
       </c>
       <c r="N21" s="21" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O21" s="44" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P21" s="21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q21" s="18">
         <v>997</v>
@@ -5776,44 +5807,44 @@
     </row>
     <row r="22" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="E22" s="33" t="s">
         <v>315</v>
       </c>
-      <c r="B22" s="33" t="s">
-        <v>266</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>353</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>317</v>
-      </c>
       <c r="F22" s="33" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H22" s="33"/>
       <c r="I22" s="33"/>
       <c r="J22" s="33"/>
       <c r="K22" s="33"/>
       <c r="L22" s="33" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M22" s="33" t="s">
         <v>102</v>
       </c>
       <c r="N22" s="33" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="O22" s="36" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P22" s="33" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q22" s="35">
         <v>998</v>
@@ -5822,44 +5853,44 @@
     </row>
     <row r="23" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>682</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="E23" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="B23" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>354</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>317</v>
-      </c>
       <c r="F23" s="21" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
       <c r="L23" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M23" s="21" t="s">
         <v>102</v>
       </c>
       <c r="N23" s="21" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="O23" s="44" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="P23" s="21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q23" s="18">
         <v>3001</v>
@@ -5868,42 +5899,42 @@
     </row>
     <row r="24" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="E24" s="33" t="s">
         <v>315</v>
       </c>
-      <c r="B24" s="33" t="s">
-        <v>266</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>356</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>317</v>
-      </c>
       <c r="F24" s="33" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H24" s="33"/>
       <c r="I24" s="33"/>
       <c r="J24" s="33"/>
       <c r="K24" s="33"/>
       <c r="L24" s="33" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M24" s="33" t="s">
         <v>102</v>
       </c>
       <c r="N24" s="33" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="O24" s="36"/>
       <c r="P24" s="33" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q24" s="35">
         <v>3003</v>
@@ -5912,44 +5943,44 @@
     </row>
     <row r="25" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>682</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="E25" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="B25" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>357</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>317</v>
-      </c>
       <c r="F25" s="21" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
       <c r="K25" s="21"/>
       <c r="L25" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M25" s="21" t="s">
         <v>102</v>
       </c>
       <c r="N25" s="21" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="O25" s="44" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="P25" s="21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q25" s="18">
         <v>3004</v>
@@ -5958,42 +5989,42 @@
     </row>
     <row r="26" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="E26" s="33" t="s">
         <v>315</v>
       </c>
-      <c r="B26" s="33" t="s">
-        <v>266</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>359</v>
-      </c>
-      <c r="E26" s="33" t="s">
-        <v>317</v>
-      </c>
       <c r="F26" s="33" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G26" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H26" s="33"/>
       <c r="I26" s="33"/>
       <c r="J26" s="33"/>
       <c r="K26" s="33"/>
       <c r="L26" s="33" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M26" s="33" t="s">
         <v>102</v>
       </c>
       <c r="N26" s="33" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="O26" s="36"/>
       <c r="P26" s="33" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q26" s="35">
         <v>3006</v>
@@ -6002,42 +6033,42 @@
     </row>
     <row r="27" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>682</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="E27" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="B27" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>360</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>317</v>
-      </c>
       <c r="F27" s="21" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
       <c r="K27" s="21"/>
       <c r="L27" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M27" s="21" t="s">
         <v>102</v>
       </c>
       <c r="N27" s="21" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="O27" s="44"/>
       <c r="P27" s="21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q27" s="18">
         <v>3007</v>
@@ -6046,42 +6077,42 @@
     </row>
     <row r="28" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>359</v>
+      </c>
+      <c r="E28" s="33" t="s">
         <v>315</v>
       </c>
-      <c r="B28" s="33" t="s">
-        <v>266</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>361</v>
-      </c>
-      <c r="E28" s="33" t="s">
-        <v>317</v>
-      </c>
       <c r="F28" s="33" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
       <c r="J28" s="33"/>
       <c r="K28" s="33"/>
       <c r="L28" s="33" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M28" s="33" t="s">
         <v>102</v>
       </c>
       <c r="N28" s="33" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="O28" s="36"/>
       <c r="P28" s="33" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q28" s="35">
         <v>3011</v>
@@ -6090,42 +6121,42 @@
     </row>
     <row r="29" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>682</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="E29" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="B29" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>362</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>317</v>
-      </c>
       <c r="F29" s="21" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
       <c r="K29" s="21"/>
       <c r="L29" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M29" s="21" t="s">
         <v>102</v>
       </c>
       <c r="N29" s="21" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="O29" s="44"/>
       <c r="P29" s="21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q29" s="18">
         <v>3019</v>
@@ -6134,44 +6165,44 @@
     </row>
     <row r="30" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="E30" s="33" t="s">
         <v>315</v>
       </c>
-      <c r="B30" s="33" t="s">
-        <v>266</v>
-      </c>
-      <c r="C30" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="D30" s="33" t="s">
-        <v>363</v>
-      </c>
-      <c r="E30" s="33" t="s">
-        <v>317</v>
-      </c>
       <c r="F30" s="33" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
       <c r="J30" s="33"/>
       <c r="K30" s="33"/>
       <c r="L30" s="33" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M30" s="33" t="s">
         <v>102</v>
       </c>
       <c r="N30" s="33" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O30" s="36" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="P30" s="33" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q30" s="35">
         <v>3103</v>
@@ -6180,44 +6211,44 @@
     </row>
     <row r="31" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>682</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="E31" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="B31" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>317</v>
-      </c>
       <c r="F31" s="21" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
       <c r="K31" s="21"/>
       <c r="L31" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M31" s="21" t="s">
         <v>102</v>
       </c>
       <c r="N31" s="21" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="O31" s="44" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="P31" s="21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q31" s="18">
         <v>3910</v>
@@ -6226,44 +6257,44 @@
     </row>
     <row r="32" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>365</v>
+      </c>
+      <c r="E32" s="33" t="s">
         <v>315</v>
       </c>
-      <c r="B32" s="33" t="s">
-        <v>266</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="D32" s="33" t="s">
-        <v>367</v>
-      </c>
-      <c r="E32" s="33" t="s">
-        <v>317</v>
-      </c>
       <c r="F32" s="33" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G32" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H32" s="33"/>
       <c r="I32" s="33"/>
       <c r="J32" s="33"/>
       <c r="K32" s="33"/>
       <c r="L32" s="33" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M32" s="33" t="s">
         <v>102</v>
       </c>
       <c r="N32" s="33" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="O32" s="36" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="P32" s="33" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q32" s="35">
         <v>3960</v>
@@ -6272,44 +6303,44 @@
     </row>
     <row r="33" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>682</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="E33" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="B33" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>369</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>317</v>
-      </c>
       <c r="F33" s="21" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
       <c r="K33" s="21"/>
       <c r="L33" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M33" s="21" t="s">
         <v>102</v>
       </c>
       <c r="N33" s="21" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="O33" s="44" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="P33" s="21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q33" s="18">
         <v>3961</v>
@@ -6318,44 +6349,44 @@
     </row>
     <row r="34" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>369</v>
+      </c>
+      <c r="E34" s="33" t="s">
         <v>315</v>
       </c>
-      <c r="B34" s="33" t="s">
-        <v>266</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="D34" s="33" t="s">
-        <v>371</v>
-      </c>
-      <c r="E34" s="33" t="s">
-        <v>317</v>
-      </c>
       <c r="F34" s="33" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G34" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H34" s="33"/>
       <c r="I34" s="33"/>
       <c r="J34" s="33"/>
       <c r="K34" s="33"/>
       <c r="L34" s="33" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M34" s="33" t="s">
         <v>102</v>
       </c>
       <c r="N34" s="33" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="O34" s="36" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="P34" s="33" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q34" s="35">
         <v>3962</v>
@@ -6364,44 +6395,44 @@
     </row>
     <row r="35" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>682</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="E35" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="B35" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>317</v>
-      </c>
       <c r="F35" s="21" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
       <c r="J35" s="21"/>
       <c r="K35" s="21"/>
       <c r="L35" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M35" s="21" t="s">
         <v>102</v>
       </c>
       <c r="N35" s="21" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="O35" s="44" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="P35" s="21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q35" s="18">
         <v>3963</v>
@@ -6410,44 +6441,44 @@
     </row>
     <row r="36" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="E36" s="33" t="s">
         <v>315</v>
       </c>
-      <c r="B36" s="33" t="s">
-        <v>266</v>
-      </c>
-      <c r="C36" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="D36" s="33" t="s">
-        <v>375</v>
-      </c>
-      <c r="E36" s="33" t="s">
-        <v>317</v>
-      </c>
       <c r="F36" s="33" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G36" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H36" s="33"/>
       <c r="I36" s="33"/>
       <c r="J36" s="33"/>
       <c r="K36" s="33"/>
       <c r="L36" s="33" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M36" s="33" t="s">
         <v>102</v>
       </c>
       <c r="N36" s="33" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="O36" s="36" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="P36" s="33" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q36" s="35">
         <v>3964</v>
@@ -6456,44 +6487,44 @@
     </row>
     <row r="37" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>682</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="E37" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="B37" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>377</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>317</v>
-      </c>
       <c r="F37" s="21" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
       <c r="L37" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M37" s="21" t="s">
         <v>102</v>
       </c>
       <c r="N37" s="21" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="O37" s="44" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="P37" s="21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q37" s="18">
         <v>3965</v>
@@ -6502,44 +6533,44 @@
     </row>
     <row r="38" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>377</v>
+      </c>
+      <c r="E38" s="33" t="s">
         <v>315</v>
       </c>
-      <c r="B38" s="33" t="s">
-        <v>266</v>
-      </c>
-      <c r="C38" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="D38" s="33" t="s">
-        <v>379</v>
-      </c>
-      <c r="E38" s="33" t="s">
-        <v>317</v>
-      </c>
       <c r="F38" s="33" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G38" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H38" s="33"/>
       <c r="I38" s="33"/>
       <c r="J38" s="33"/>
       <c r="K38" s="33"/>
       <c r="L38" s="33" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M38" s="33" t="s">
         <v>102</v>
       </c>
       <c r="N38" s="33" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="O38" s="36" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="P38" s="33" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q38" s="35">
         <v>3966</v>
@@ -6548,44 +6579,44 @@
     </row>
     <row r="39" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>682</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="E39" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="B39" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>381</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>317</v>
-      </c>
       <c r="F39" s="21" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
       <c r="L39" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M39" s="21" t="s">
         <v>102</v>
       </c>
       <c r="N39" s="21" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="O39" s="44" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="P39" s="21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q39" s="18">
         <v>3967</v>
@@ -6594,44 +6625,44 @@
     </row>
     <row r="40" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="33" t="s">
-        <v>315</v>
-      </c>
-      <c r="B40" s="33" t="s">
-        <v>266</v>
+        <v>313</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>682</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D40" s="33" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E40" s="33" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F40" s="33" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G40" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H40" s="33"/>
       <c r="I40" s="33"/>
       <c r="J40" s="33"/>
       <c r="K40" s="33"/>
       <c r="L40" s="33" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="M40" s="33" t="s">
         <v>102</v>
       </c>
       <c r="N40" s="33" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="O40" s="36" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P40" s="33" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q40" s="35">
         <v>201</v>
@@ -6640,44 +6671,44 @@
     </row>
     <row r="41" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="21" t="s">
-        <v>315</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>266</v>
+        <v>313</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>682</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
       <c r="J41" s="21"/>
       <c r="K41" s="21"/>
       <c r="L41" s="21" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="M41" s="21" t="s">
         <v>102</v>
       </c>
       <c r="N41" s="21" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="O41" s="44" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="P41" s="21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q41" s="18">
         <v>202</v>
@@ -6686,44 +6717,44 @@
     </row>
     <row r="42" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="33" t="s">
-        <v>315</v>
-      </c>
-      <c r="B42" s="33" t="s">
-        <v>266</v>
+        <v>313</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>682</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D42" s="33" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E42" s="33" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F42" s="33" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G42" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H42" s="33"/>
       <c r="I42" s="33"/>
       <c r="J42" s="33"/>
       <c r="K42" s="33"/>
       <c r="L42" s="33" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M42" s="33" t="s">
         <v>102</v>
       </c>
       <c r="N42" s="33" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="O42" s="36" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="P42" s="33" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q42" s="35">
         <v>203</v>
@@ -6732,42 +6763,42 @@
     </row>
     <row r="43" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="21" t="s">
-        <v>315</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>266</v>
+        <v>313</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>682</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E43" s="21"/>
       <c r="F43" s="21" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G43" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H43" s="21"/>
       <c r="I43" s="21"/>
       <c r="J43" s="21"/>
       <c r="K43" s="21"/>
       <c r="L43" s="21" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M43" s="21" t="s">
         <v>102</v>
       </c>
       <c r="N43" s="21" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="O43" s="44" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="P43" s="21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q43" s="18">
         <v>204</v>
@@ -6776,42 +6807,42 @@
     </row>
     <row r="44" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="33" t="s">
-        <v>315</v>
-      </c>
-      <c r="B44" s="33" t="s">
-        <v>266</v>
+        <v>313</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>682</v>
       </c>
       <c r="C44" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D44" s="33" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E44" s="33"/>
       <c r="F44" s="33" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G44" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H44" s="33"/>
       <c r="I44" s="33"/>
       <c r="J44" s="33"/>
       <c r="K44" s="33"/>
       <c r="L44" s="33" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M44" s="33" t="s">
         <v>102</v>
       </c>
       <c r="N44" s="33" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="O44" s="36" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="P44" s="33" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q44" s="35">
         <v>205</v>
@@ -6820,42 +6851,42 @@
     </row>
     <row r="45" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="21" t="s">
-        <v>315</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>266</v>
+        <v>313</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>682</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E45" s="21"/>
       <c r="F45" s="21" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G45" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
       <c r="L45" s="21" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M45" s="21" t="s">
         <v>102</v>
       </c>
       <c r="N45" s="21" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="O45" s="44" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="P45" s="21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q45" s="18">
         <v>206</v>
@@ -6864,42 +6895,42 @@
     </row>
     <row r="46" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="33" t="s">
-        <v>315</v>
-      </c>
-      <c r="B46" s="33" t="s">
-        <v>266</v>
+        <v>313</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>682</v>
       </c>
       <c r="C46" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D46" s="33" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E46" s="33"/>
       <c r="F46" s="33" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G46" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H46" s="33"/>
       <c r="I46" s="33"/>
       <c r="J46" s="33"/>
       <c r="K46" s="33"/>
       <c r="L46" s="33" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M46" s="33" t="s">
         <v>102</v>
       </c>
       <c r="N46" s="33" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="O46" s="36" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="P46" s="33" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q46" s="35">
         <v>207</v>
@@ -7220,14 +7251,14 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Please Select from the drop down" sqref="C47:C58" xr:uid="{62A2CBCC-8030-489E-B252-C008736F1692}">
       <formula1>"add_app,add_epg,add_both"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Please Select from the drop down" sqref="B16:B61" xr:uid="{00000000-0002-0000-0800-000004000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Please Select from the drop down" sqref="B47:B61" xr:uid="{00000000-0002-0000-0800-000004000000}">
       <formula1>"APIC,MSO"</formula1>
     </dataValidation>
     <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" errorTitle="VLAN" error="VLAN should be between 1 and 4094" sqref="Q4:R58" xr:uid="{00000000-0002-0000-0800-000005000000}">
       <formula1>1</formula1>
       <formula2>4094</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B15" xr:uid="{C6F15339-3B65-406E-908A-B74B6E69151A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B46" xr:uid="{C6F15339-3B65-406E-908A-B74B6E69151A}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,Grp_A,Grp_B,Grp_C,Grp_D,Grp_E,Grp_F"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7240,8 +7271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AG65"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:T2"/>
+    <sheetView topLeftCell="D4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22:AG22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7284,7 +7315,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="87" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B1" s="71"/>
       <c r="C1" s="71"/>
@@ -7309,7 +7340,7 @@
     <row r="2" spans="1:33" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="68" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
@@ -7334,55 +7365,55 @@
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>405</v>
+      </c>
+      <c r="E3" s="45" t="s">
         <v>406</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="F3" s="45" t="s">
         <v>407</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="G3" s="45" t="s">
         <v>408</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="H3" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="I3" s="45" t="s">
         <v>410</v>
       </c>
-      <c r="H3" s="45" t="s">
+      <c r="J3" s="45" t="s">
         <v>411</v>
       </c>
-      <c r="I3" s="45" t="s">
+      <c r="K3" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="J3" s="45" t="s">
+      <c r="L3" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="M3" s="45" t="s">
         <v>414</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="M3" s="45" t="s">
+      <c r="O3" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="P3" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="Q3" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="R3" s="45" t="s">
         <v>419</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="S3" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="R3" s="45" t="s">
-        <v>421</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="T3" s="7"/>
     </row>
@@ -7391,81 +7422,81 @@
         <v>0</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>422</v>
+      </c>
+      <c r="D4" s="45" t="s">
         <v>423</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="E4" s="45" t="s">
         <v>424</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="F4" s="45" t="s">
         <v>425</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="G4" s="45" t="s">
         <v>426</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="H4" s="45" t="s">
         <v>427</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="I4" s="45" t="s">
         <v>428</v>
       </c>
-      <c r="H4" s="45" t="s">
+      <c r="J4" s="45" t="s">
         <v>429</v>
       </c>
-      <c r="I4" s="45" t="s">
+      <c r="K4" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="J4" s="45" t="s">
+      <c r="L4" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="45" t="s">
         <v>432</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="N4" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="M4" s="45" t="s">
+      <c r="O4" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="Q4" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="R4" s="45" t="s">
         <v>437</v>
       </c>
-      <c r="Q4" s="45" t="s">
+      <c r="S4" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="R4" s="45" t="s">
-        <v>439</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>440</v>
       </c>
       <c r="T4" s="7"/>
     </row>
     <row r="5" spans="1:33" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C5" s="33"/>
       <c r="D5" s="33"/>
       <c r="E5" s="15" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I5" s="33" t="s">
         <v>102</v>
@@ -7493,7 +7524,7 @@
         <v>105</v>
       </c>
       <c r="R5" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="S5" s="33" t="s">
         <v>102</v>
@@ -7502,24 +7533,24 @@
     </row>
     <row r="6" spans="1:33" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="17" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
@@ -7537,31 +7568,31 @@
         <v>105</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="S6" s="21"/>
       <c r="T6" s="21"/>
     </row>
     <row r="7" spans="1:33" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="15" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="I7" s="33" t="s">
         <v>102</v>
@@ -7589,7 +7620,7 @@
         <v>105</v>
       </c>
       <c r="R7" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="S7" s="33" t="s">
         <v>102</v>
@@ -7620,7 +7651,7 @@
     </row>
     <row r="10" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="81" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B10" s="71"/>
       <c r="C10" s="71"/>
@@ -7658,7 +7689,7 @@
     <row r="11" spans="1:33" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
       <c r="B11" s="68" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C11" s="68"/>
       <c r="D11" s="68"/>
@@ -7696,7 +7727,7 @@
       <c r="A12" s="84"/>
       <c r="B12" s="86"/>
       <c r="C12" s="88" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D12" s="89"/>
       <c r="E12" s="89"/>
@@ -7717,19 +7748,19 @@
       <c r="T12" s="89"/>
       <c r="U12" s="90"/>
       <c r="V12" s="84" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="W12" s="85"/>
       <c r="X12" s="85"/>
       <c r="Y12" s="85"/>
       <c r="Z12" s="86"/>
       <c r="AA12" s="84" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="AB12" s="85"/>
       <c r="AC12" s="86"/>
       <c r="AD12" s="84" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AE12" s="85"/>
       <c r="AF12" s="85"/>
@@ -7739,97 +7770,97 @@
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="H13" s="7" t="s">
-        <v>672</v>
-      </c>
-      <c r="I13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="N13" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="O13" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="R13" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="Q13" s="7" t="s">
+      <c r="S13" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="U13" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="R13" s="7" t="s">
+      <c r="V13" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="S13" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="T13" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="U13" s="7" t="s">
+      <c r="W13" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="V13" s="7" t="s">
+      <c r="X13" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="W13" s="7" t="s">
+      <c r="Y13" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="X13" s="7" t="s">
+      <c r="Z13" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="Y13" s="7" t="s">
+      <c r="AA13" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="Z13" s="7" t="s">
+      <c r="AB13" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="AA13" s="7" t="s">
+      <c r="AC13" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="AB13" s="7" t="s">
+      <c r="AD13" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="AE13" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="AC13" s="7" t="s">
+      <c r="AF13" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="AD13" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="AE13" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="AF13" s="7" t="s">
-        <v>476</v>
-      </c>
       <c r="AG13" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="14" spans="1:33" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7837,114 +7868,114 @@
         <v>0</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>422</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="C14" s="45" t="s">
-        <v>424</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>425</v>
-      </c>
       <c r="E14" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>673</v>
-      </c>
-      <c r="I14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="N14" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="O14" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="R14" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="Q14" s="7" t="s">
+      <c r="S14" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="U14" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="R14" s="7" t="s">
+      <c r="V14" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="S14" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="T14" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="U14" s="7" t="s">
+      <c r="W14" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="V14" s="7" t="s">
+      <c r="X14" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="W14" s="7" t="s">
+      <c r="Y14" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="X14" s="7" t="s">
+      <c r="Z14" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="Y14" s="7" t="s">
+      <c r="AA14" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="Z14" s="7" t="s">
+      <c r="AB14" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="AA14" s="7" t="s">
+      <c r="AC14" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="AB14" s="7" t="s">
+      <c r="AD14" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="AE14" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="AC14" s="7" t="s">
+      <c r="AF14" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="AD14" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="AE14" s="7" t="s">
+      <c r="AG14" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="AF14" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="AG14" s="7" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="15" spans="1:33" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G15" s="33" t="s">
         <v>12</v>
@@ -7953,19 +7984,19 @@
         <v>12</v>
       </c>
       <c r="I15" s="33" t="s">
+        <v>503</v>
+      </c>
+      <c r="J15" s="33" t="s">
+        <v>504</v>
+      </c>
+      <c r="K15" s="33" t="s">
+        <v>504</v>
+      </c>
+      <c r="L15" s="33" t="s">
+        <v>504</v>
+      </c>
+      <c r="M15" s="33" t="s">
         <v>505</v>
-      </c>
-      <c r="J15" s="33" t="s">
-        <v>506</v>
-      </c>
-      <c r="K15" s="33" t="s">
-        <v>506</v>
-      </c>
-      <c r="L15" s="33" t="s">
-        <v>506</v>
-      </c>
-      <c r="M15" s="33" t="s">
-        <v>507</v>
       </c>
       <c r="N15" s="33" t="s">
         <v>12</v>
@@ -8022,16 +8053,16 @@
     </row>
     <row r="16" spans="1:33" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G16" s="21" t="s">
         <v>12</v>
@@ -8040,19 +8071,19 @@
         <v>12</v>
       </c>
       <c r="I16" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="L16" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="M16" s="21" t="s">
         <v>505</v>
-      </c>
-      <c r="J16" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="K16" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="L16" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="M16" s="21" t="s">
-        <v>507</v>
       </c>
       <c r="N16" s="21" t="s">
         <v>12</v>
@@ -8109,16 +8140,16 @@
     </row>
     <row r="17" spans="1:33" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G17" s="33" t="s">
         <v>14</v>
@@ -8127,19 +8158,19 @@
         <v>12</v>
       </c>
       <c r="I17" s="33" t="s">
+        <v>503</v>
+      </c>
+      <c r="J17" s="33" t="s">
+        <v>504</v>
+      </c>
+      <c r="K17" s="33" t="s">
+        <v>504</v>
+      </c>
+      <c r="L17" s="33" t="s">
+        <v>504</v>
+      </c>
+      <c r="M17" s="33" t="s">
         <v>505</v>
-      </c>
-      <c r="J17" s="33" t="s">
-        <v>506</v>
-      </c>
-      <c r="K17" s="33" t="s">
-        <v>506</v>
-      </c>
-      <c r="L17" s="33" t="s">
-        <v>506</v>
-      </c>
-      <c r="M17" s="33" t="s">
-        <v>507</v>
       </c>
       <c r="N17" s="33" t="s">
         <v>12</v>
@@ -8196,16 +8227,16 @@
     </row>
     <row r="18" spans="1:33" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G18" s="21" t="s">
         <v>12</v>
@@ -8214,19 +8245,19 @@
         <v>12</v>
       </c>
       <c r="I18" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="L18" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="M18" s="21" t="s">
         <v>505</v>
-      </c>
-      <c r="J18" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="K18" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="L18" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="M18" s="21" t="s">
-        <v>507</v>
       </c>
       <c r="N18" s="21" t="s">
         <v>12</v>
@@ -8283,16 +8314,16 @@
     </row>
     <row r="19" spans="1:33" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="33" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="33" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G19" s="33" t="s">
         <v>12</v>
@@ -8301,19 +8332,19 @@
         <v>12</v>
       </c>
       <c r="I19" s="33" t="s">
+        <v>503</v>
+      </c>
+      <c r="J19" s="33" t="s">
+        <v>504</v>
+      </c>
+      <c r="K19" s="33" t="s">
+        <v>504</v>
+      </c>
+      <c r="L19" s="33" t="s">
+        <v>504</v>
+      </c>
+      <c r="M19" s="33" t="s">
         <v>505</v>
-      </c>
-      <c r="J19" s="33" t="s">
-        <v>506</v>
-      </c>
-      <c r="K19" s="33" t="s">
-        <v>506</v>
-      </c>
-      <c r="L19" s="33" t="s">
-        <v>506</v>
-      </c>
-      <c r="M19" s="33" t="s">
-        <v>507</v>
       </c>
       <c r="N19" s="33" t="s">
         <v>12</v>
@@ -8370,16 +8401,16 @@
     </row>
     <row r="20" spans="1:33" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G20" s="21" t="s">
         <v>14</v>
@@ -8388,19 +8419,19 @@
         <v>12</v>
       </c>
       <c r="I20" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="K20" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="M20" s="21" t="s">
         <v>505</v>
-      </c>
-      <c r="J20" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="K20" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="L20" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="M20" s="21" t="s">
-        <v>507</v>
       </c>
       <c r="N20" s="21" t="s">
         <v>12</v>
@@ -8457,16 +8488,16 @@
     </row>
     <row r="21" spans="1:33" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="33" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="33" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G21" s="33" t="s">
         <v>12</v>
@@ -8475,19 +8506,19 @@
         <v>12</v>
       </c>
       <c r="I21" s="33" t="s">
+        <v>503</v>
+      </c>
+      <c r="J21" s="33" t="s">
+        <v>511</v>
+      </c>
+      <c r="K21" s="33" t="s">
+        <v>504</v>
+      </c>
+      <c r="L21" s="33" t="s">
+        <v>504</v>
+      </c>
+      <c r="M21" s="33" t="s">
         <v>505</v>
-      </c>
-      <c r="J21" s="33" t="s">
-        <v>513</v>
-      </c>
-      <c r="K21" s="33" t="s">
-        <v>506</v>
-      </c>
-      <c r="L21" s="33" t="s">
-        <v>506</v>
-      </c>
-      <c r="M21" s="33" t="s">
-        <v>507</v>
       </c>
       <c r="N21" s="33" t="s">
         <v>12</v>
@@ -8544,16 +8575,16 @@
     </row>
     <row r="22" spans="1:33" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G22" s="21" t="s">
         <v>12</v>
@@ -8562,19 +8593,19 @@
         <v>12</v>
       </c>
       <c r="I22" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="L22" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="M22" s="21" t="s">
         <v>505</v>
-      </c>
-      <c r="J22" s="21" t="s">
-        <v>513</v>
-      </c>
-      <c r="K22" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="L22" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="M22" s="21" t="s">
-        <v>507</v>
       </c>
       <c r="N22" s="21" t="s">
         <v>12</v>
@@ -8631,16 +8662,16 @@
     </row>
     <row r="23" spans="1:33" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="33" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G23" s="33" t="s">
         <v>14</v>
@@ -8649,19 +8680,19 @@
         <v>12</v>
       </c>
       <c r="I23" s="33" t="s">
+        <v>503</v>
+      </c>
+      <c r="J23" s="33" t="s">
+        <v>511</v>
+      </c>
+      <c r="K23" s="33" t="s">
+        <v>504</v>
+      </c>
+      <c r="L23" s="33" t="s">
+        <v>504</v>
+      </c>
+      <c r="M23" s="33" t="s">
         <v>505</v>
-      </c>
-      <c r="J23" s="33" t="s">
-        <v>513</v>
-      </c>
-      <c r="K23" s="33" t="s">
-        <v>506</v>
-      </c>
-      <c r="L23" s="33" t="s">
-        <v>506</v>
-      </c>
-      <c r="M23" s="33" t="s">
-        <v>507</v>
       </c>
       <c r="N23" s="33" t="s">
         <v>12</v>
@@ -8718,16 +8749,16 @@
     </row>
     <row r="24" spans="1:33" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G24" s="21" t="s">
         <v>12</v>
@@ -8736,19 +8767,19 @@
         <v>12</v>
       </c>
       <c r="I24" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="K24" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="L24" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="M24" s="21" t="s">
         <v>505</v>
-      </c>
-      <c r="J24" s="21" t="s">
-        <v>513</v>
-      </c>
-      <c r="K24" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="L24" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="M24" s="21" t="s">
-        <v>507</v>
       </c>
       <c r="N24" s="21" t="s">
         <v>12</v>
@@ -8805,16 +8836,16 @@
     </row>
     <row r="25" spans="1:33" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="F25" s="33" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G25" s="33" t="s">
         <v>12</v>
@@ -8823,19 +8854,19 @@
         <v>12</v>
       </c>
       <c r="I25" s="33" t="s">
+        <v>503</v>
+      </c>
+      <c r="J25" s="33" t="s">
+        <v>511</v>
+      </c>
+      <c r="K25" s="33" t="s">
+        <v>504</v>
+      </c>
+      <c r="L25" s="33" t="s">
+        <v>504</v>
+      </c>
+      <c r="M25" s="33" t="s">
         <v>505</v>
-      </c>
-      <c r="J25" s="33" t="s">
-        <v>513</v>
-      </c>
-      <c r="K25" s="33" t="s">
-        <v>506</v>
-      </c>
-      <c r="L25" s="33" t="s">
-        <v>506</v>
-      </c>
-      <c r="M25" s="33" t="s">
-        <v>507</v>
       </c>
       <c r="N25" s="33" t="s">
         <v>12</v>
@@ -8892,16 +8923,16 @@
     </row>
     <row r="26" spans="1:33" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G26" s="21" t="s">
         <v>14</v>
@@ -8910,19 +8941,19 @@
         <v>12</v>
       </c>
       <c r="I26" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="J26" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="K26" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="L26" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="M26" s="21" t="s">
         <v>505</v>
-      </c>
-      <c r="J26" s="21" t="s">
-        <v>513</v>
-      </c>
-      <c r="K26" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="L26" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="M26" s="21" t="s">
-        <v>507</v>
       </c>
       <c r="N26" s="21" t="s">
         <v>12</v>
@@ -9049,7 +9080,7 @@
     </row>
     <row r="30" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="81" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B30" s="71"/>
       <c r="C30" s="71"/>
@@ -9074,7 +9105,7 @@
     <row r="31" spans="1:33" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10"/>
       <c r="B31" s="68" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C31" s="68"/>
       <c r="D31" s="68"/>
@@ -9099,30 +9130,30 @@
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E32" s="91" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F32" s="92"/>
       <c r="G32" s="93"/>
       <c r="H32" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="J32" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="J32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>520</v>
       </c>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
@@ -9138,37 +9169,37 @@
         <v>0</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>425</v>
-      </c>
       <c r="E33" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="H33" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="I33" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="J33" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="I33" s="7" t="s">
+      <c r="K33" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>525</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>527</v>
       </c>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
@@ -9181,10 +9212,10 @@
     </row>
     <row r="34" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="33" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C34" s="33" t="s">
         <v>12</v>
@@ -9203,7 +9234,7 @@
         <v>12</v>
       </c>
       <c r="I34" s="33" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="J34" s="33" t="s">
         <v>12</v>
@@ -9221,10 +9252,10 @@
     </row>
     <row r="35" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="21" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C35" s="21" t="s">
         <v>12</v>
@@ -9243,7 +9274,7 @@
         <v>12</v>
       </c>
       <c r="I35" s="21" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="J35" s="21" t="s">
         <v>12</v>
@@ -9393,7 +9424,7 @@
     </row>
     <row r="43" spans="1:20" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="81" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B43" s="71"/>
       <c r="C43" s="71"/>
@@ -9418,7 +9449,7 @@
     <row r="44" spans="1:20" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="10"/>
       <c r="B44" s="68" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C44" s="68"/>
       <c r="D44" s="68"/>
@@ -9443,16 +9474,16 @@
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
@@ -9474,19 +9505,19 @@
         <v>0</v>
       </c>
       <c r="B46" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>425</v>
-      </c>
       <c r="E46" s="7" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
@@ -9505,7 +9536,7 @@
     </row>
     <row r="47" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="33" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B47" s="33" t="s">
         <v>102</v>
@@ -9513,7 +9544,7 @@
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
       <c r="E47" s="33" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F47" s="33" t="s">
         <v>102</v>
@@ -9557,7 +9588,7 @@
     </row>
     <row r="50" spans="1:32" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="81" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B50" s="71"/>
       <c r="C50" s="71"/>
@@ -9594,7 +9625,7 @@
     <row r="51" spans="1:32" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="10"/>
       <c r="B51" s="68" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C51" s="68"/>
       <c r="D51" s="68"/>
@@ -9631,88 +9662,88 @@
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E52" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="H52" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="F52" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="G52" s="7" t="s">
+      <c r="I52" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="H52" s="7" t="s">
+      <c r="J52" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="I52" s="7" t="s">
+      <c r="K52" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="J52" s="7" t="s">
+      <c r="L52" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="K52" s="7" t="s">
+      <c r="M52" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="L52" s="7" t="s">
+      <c r="N52" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="M52" s="7" t="s">
+      <c r="O52" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="P52" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="N52" s="7" t="s">
+      <c r="Q52" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="O52" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="P52" s="7" t="s">
+      <c r="R52" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="Q52" s="7" t="s">
+      <c r="S52" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="R52" s="7" t="s">
+      <c r="T52" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="S52" s="7" t="s">
+      <c r="U52" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="T52" s="7" t="s">
+      <c r="V52" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="U52" s="7" t="s">
+      <c r="W52" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="V52" s="7" t="s">
+      <c r="X52" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y52" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="W52" s="7" t="s">
+      <c r="Z52" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="X52" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="Y52" s="7" t="s">
+      <c r="AA52" s="49" t="s">
         <v>554</v>
       </c>
-      <c r="Z52" s="7" t="s">
+      <c r="AB52" s="50" t="s">
         <v>555</v>
       </c>
-      <c r="AA52" s="49" t="s">
+      <c r="AC52" s="50" t="s">
         <v>556</v>
       </c>
-      <c r="AB52" s="50" t="s">
+      <c r="AD52" s="50" t="s">
         <v>557</v>
-      </c>
-      <c r="AC52" s="50" t="s">
-        <v>558</v>
-      </c>
-      <c r="AD52" s="50" t="s">
-        <v>559</v>
       </c>
       <c r="AE52" s="7"/>
       <c r="AF52" s="7"/>
@@ -9722,106 +9753,106 @@
         <v>0</v>
       </c>
       <c r="B53" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D53" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="E53" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="M53" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="N53" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="O53" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="Q53" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="R53" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="D53" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="I53" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="J53" s="7" t="s">
-        <v>565</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="M53" s="7" t="s">
-        <v>568</v>
-      </c>
-      <c r="N53" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="O53" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="P53" s="7" t="s">
+      <c r="S53" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="Q53" s="7" t="s">
+      <c r="T53" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="R53" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="S53" s="7" t="s">
+      <c r="U53" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="T53" s="7" t="s">
+      <c r="V53" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="W53" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="U53" s="7" t="s">
+      <c r="X53" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y53" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="V53" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="W53" s="7" t="s">
+      <c r="Z53" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="AA53" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="X53" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="Y53" s="7" t="s">
+      <c r="AB53" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="Z53" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="AA53" s="7" t="s">
+      <c r="AC53" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="AB53" s="7" t="s">
+      <c r="AD53" s="7" t="s">
         <v>578</v>
-      </c>
-      <c r="AC53" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="AD53" s="7" t="s">
-        <v>580</v>
       </c>
       <c r="AE53" s="7"/>
       <c r="AF53" s="7"/>
     </row>
     <row r="54" spans="1:32" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="33" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
       <c r="E54" s="33" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F54" s="35"/>
       <c r="G54" s="35"/>
@@ -9835,25 +9866,25 @@
         <v>12</v>
       </c>
       <c r="O54" s="33" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="P54" s="33"/>
       <c r="Q54" s="33"/>
       <c r="R54" s="33" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="S54" s="33"/>
       <c r="T54" s="33" t="s">
         <v>87</v>
       </c>
       <c r="U54" s="33" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="V54" s="33" t="s">
+        <v>581</v>
+      </c>
+      <c r="W54" s="33" t="s">
         <v>583</v>
-      </c>
-      <c r="W54" s="33" t="s">
-        <v>585</v>
       </c>
       <c r="X54" s="33" t="s">
         <v>102</v>
@@ -9873,15 +9904,15 @@
     </row>
     <row r="55" spans="1:32" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="21" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C55" s="21"/>
       <c r="D55" s="21"/>
       <c r="E55" s="21" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F55" s="18"/>
       <c r="G55" s="18"/>
@@ -9895,25 +9926,25 @@
         <v>12</v>
       </c>
       <c r="O55" s="21" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="P55" s="21"/>
       <c r="Q55" s="21"/>
       <c r="R55" s="21" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="S55" s="21"/>
       <c r="T55" s="21" t="s">
         <v>87</v>
       </c>
       <c r="U55" s="21" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="V55" s="21" t="s">
+        <v>581</v>
+      </c>
+      <c r="W55" s="21" t="s">
         <v>583</v>
-      </c>
-      <c r="W55" s="21" t="s">
-        <v>585</v>
       </c>
       <c r="X55" s="21" t="s">
         <v>102</v>
@@ -10407,127 +10438,127 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
+        <v>584</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>585</v>
+      </c>
+      <c r="F1" s="46" t="s">
         <v>586</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>154</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>587</v>
-      </c>
-      <c r="F1" s="46" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>590</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>597</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>598</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>601</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>606</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C10" s="1">
         <v>9504</v>
@@ -10535,7 +10566,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C11" s="1">
         <v>9508</v>
@@ -10543,7 +10574,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C12" s="1">
         <v>9516</v>
@@ -10551,32 +10582,32 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
   </sheetData>
@@ -10590,8 +10621,8 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10612,7 +10643,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="75" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B1" s="73"/>
       <c r="C1" s="73"/>
@@ -10629,45 +10660,45 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>107</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>289</v>
+        <v>778</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>51</v>
       </c>
       <c r="H2" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>618</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E3" s="33" t="s">
         <v>138</v>
@@ -10676,30 +10707,30 @@
         <v>1</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="I3" s="35">
         <v>1</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>138</v>
@@ -10708,37 +10739,37 @@
         <v>1</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="I4" s="18">
         <v>1</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F5" s="35"/>
       <c r="G5" s="33" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="H5" s="33" t="s">
         <v>132</v>
@@ -10752,23 +10783,23 @@
     </row>
     <row r="6" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F6" s="18"/>
       <c r="G6" s="21" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="H6" s="21" t="s">
         <v>132</v>
@@ -10782,16 +10813,16 @@
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E7" s="33" t="s">
         <v>138</v>
@@ -10800,7 +10831,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H7" s="33" t="s">
         <v>132</v>
@@ -10814,16 +10845,16 @@
     </row>
     <row r="8" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>138</v>
@@ -10832,7 +10863,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H8" s="21" t="s">
         <v>132</v>
@@ -10846,16 +10877,16 @@
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E9" s="33" t="s">
         <v>138</v>
@@ -10864,7 +10895,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="H9" s="33" t="s">
         <v>132</v>
@@ -10878,16 +10909,16 @@
     </row>
     <row r="10" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>138</v>
@@ -10896,30 +10927,30 @@
         <v>7</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="I10" s="18">
         <v>1</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E11" s="33" t="s">
         <v>138</v>
@@ -10931,27 +10962,27 @@
         <v>139</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="I11" s="35">
         <v>1</v>
       </c>
       <c r="J11" s="35" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>138</v>
@@ -10960,10 +10991,10 @@
         <v>9</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="I12" s="18">
         <v>1</v>
@@ -10974,16 +11005,16 @@
     </row>
     <row r="13" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E13" s="33" t="s">
         <v>138</v>
@@ -10995,27 +11026,27 @@
         <v>140</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="I13" s="35">
         <v>1</v>
       </c>
       <c r="J13" s="35" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>138</v>
@@ -11024,30 +11055,30 @@
         <v>9</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="I14" s="18">
         <v>1</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E15" s="33" t="s">
         <v>138</v>
@@ -11056,30 +11087,30 @@
         <v>13</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="I15" s="35">
         <v>1</v>
       </c>
       <c r="J15" s="35" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>138</v>
@@ -11088,16 +11119,16 @@
         <v>13</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="I16" s="18">
         <v>1</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
   </sheetData>
@@ -11123,8 +11154,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Z76"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69:O69"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11166,7 +11197,7 @@
     <row r="2" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
       <c r="B2" s="69" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C2" s="69"/>
       <c r="D2" s="69"/>
@@ -11185,7 +11216,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C3" s="51" t="s">
         <v>2</v>
@@ -11206,7 +11237,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C4" s="25">
         <v>101</v>
@@ -11287,7 +11318,7 @@
     <row r="10" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="69" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C10" s="69"/>
       <c r="D10" s="69"/>
@@ -11306,7 +11337,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C11" s="51" t="s">
         <v>5</v>
@@ -11327,7 +11358,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>7</v>
@@ -11363,7 +11394,7 @@
     <row r="15" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="69" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C15" s="69"/>
       <c r="D15" s="69"/>
@@ -11382,10 +11413,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="51" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C16" s="51" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D16" s="51" t="s">
         <v>9</v>
@@ -11405,7 +11436,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>11</v>
@@ -11428,7 +11459,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>13</v>
@@ -11466,7 +11497,7 @@
     <row r="21" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="69" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C21" s="69"/>
       <c r="D21" s="69"/>
@@ -11485,7 +11516,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="51" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C22" s="51" t="s">
         <v>16</v>
@@ -11508,7 +11539,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C23" s="28" t="s">
         <v>19</v>
@@ -11531,7 +11562,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C24" s="31" t="s">
         <v>20</v>
@@ -11551,7 +11582,7 @@
     </row>
     <row r="26" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="70" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B26" s="71"/>
       <c r="C26" s="71"/>
@@ -11569,7 +11600,7 @@
     <row r="27" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="69" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C27" s="69"/>
       <c r="D27" s="69"/>
@@ -11588,10 +11619,10 @@
         <v>0</v>
       </c>
       <c r="B28" s="51" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C28" s="51" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D28" s="51" t="s">
         <v>9</v>
@@ -11613,7 +11644,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>11</v>
@@ -11638,7 +11669,7 @@
         <v>21</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>13</v>
@@ -11678,7 +11709,7 @@
     <row r="33" spans="1:13" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="42"/>
       <c r="B33" s="69" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C33" s="69"/>
       <c r="D33" s="69"/>
@@ -11697,7 +11728,7 @@
         <v>0</v>
       </c>
       <c r="B34" s="51" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C34" s="51" t="s">
         <v>25</v>
@@ -11732,7 +11763,7 @@
         <v>36</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C35" s="25">
         <v>25</v>
@@ -11783,7 +11814,7 @@
     <row r="38" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="B38" s="69" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C38" s="69"/>
       <c r="D38" s="69"/>
@@ -11802,13 +11833,13 @@
         <v>0</v>
       </c>
       <c r="B39" s="51" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C39" s="51" t="s">
         <v>43</v>
       </c>
       <c r="D39" s="51" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E39" s="51" t="s">
         <v>5</v>
@@ -11827,7 +11858,7 @@
         <v>44</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>45</v>
@@ -11852,7 +11883,7 @@
         <v>44</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>47</v>
@@ -11892,7 +11923,7 @@
     <row r="44" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="B44" s="69" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C44" s="69"/>
       <c r="D44" s="69"/>
@@ -11911,7 +11942,7 @@
         <v>0</v>
       </c>
       <c r="B45" s="51" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>50</v>
@@ -11934,7 +11965,7 @@
         <v>52</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C46" s="19" t="s">
         <v>53</v>
@@ -11957,7 +11988,7 @@
         <v>52</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C47" s="20" t="s">
         <v>55</v>
@@ -11996,7 +12027,7 @@
     <row r="51" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="11"/>
       <c r="B51" s="74" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C51" s="74"/>
       <c r="D51" s="74"/>
@@ -12015,7 +12046,7 @@
         <v>0</v>
       </c>
       <c r="B52" s="51" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C52" s="51" t="s">
         <v>58</v>
@@ -12036,7 +12067,7 @@
         <v>60</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C53" s="29" t="s">
         <v>61</v>
@@ -12075,7 +12106,7 @@
     <row r="56" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="11"/>
       <c r="B56" s="69" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C56" s="69"/>
       <c r="D56" s="69"/>
@@ -12094,10 +12125,10 @@
         <v>0</v>
       </c>
       <c r="B57" s="51" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C57" s="51" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D57" s="51" t="s">
         <v>63</v>
@@ -12125,7 +12156,7 @@
         <v>67</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C58" s="14" t="s">
         <v>46</v>
@@ -12156,7 +12187,7 @@
         <v>67</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C59" s="16" t="s">
         <v>48</v>
@@ -12203,7 +12234,7 @@
     <row r="62" spans="1:13" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="41"/>
       <c r="B62" s="69" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C62" s="69"/>
       <c r="D62" s="69"/>
@@ -12222,7 +12253,7 @@
         <v>0</v>
       </c>
       <c r="B63" s="51" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C63" s="51" t="s">
         <v>74</v>
@@ -12251,7 +12282,7 @@
         <v>79</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C64" s="14" t="s">
         <v>71</v>
@@ -12280,7 +12311,7 @@
         <v>79</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C65" s="16" t="s">
         <v>83</v>
@@ -12309,7 +12340,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C66" s="14" t="s">
         <v>86</v>
@@ -12365,7 +12396,7 @@
     <row r="69" spans="1:26" s="2" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="11"/>
       <c r="B69" s="69" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C69" s="69"/>
       <c r="D69" s="69"/>
@@ -12396,10 +12427,10 @@
         <v>0</v>
       </c>
       <c r="B70" s="51" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C70" s="51" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D70" s="51" t="s">
         <v>89</v>
@@ -12443,7 +12474,7 @@
         <v>101</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C71" s="33" t="s">
         <v>102</v>
@@ -12487,7 +12518,7 @@
     </row>
     <row r="73" spans="1:26" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="70" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B73" s="71"/>
       <c r="C73" s="71"/>
@@ -12505,7 +12536,7 @@
     <row r="74" spans="1:26" s="2" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="11"/>
       <c r="B74" s="69" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C74" s="69"/>
       <c r="D74" s="69"/>
@@ -12536,13 +12567,13 @@
         <v>0</v>
       </c>
       <c r="B75" s="51" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C75" s="51" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D75" s="51" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E75" s="51" t="s">
         <v>107</v>
@@ -12567,7 +12598,7 @@
         <v>110</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C76" s="33" t="s">
         <v>102</v>
@@ -12735,13 +12766,13 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:M2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.140625" style="4" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.85546875" style="4" customWidth="1"/>
@@ -12776,7 +12807,7 @@
     <row r="2" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
       <c r="B2" s="69" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C2" s="69"/>
       <c r="D2" s="69"/>
@@ -12795,7 +12826,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C3" s="51" t="s">
         <v>114</v>
@@ -12826,7 +12857,7 @@
         <v>120</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>132</v>
@@ -12835,13 +12866,13 @@
         <v>121</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>121</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="H4" s="33" t="s">
         <v>121</v>
@@ -12857,7 +12888,7 @@
         <v>120</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>122</v>
@@ -12866,7 +12897,7 @@
         <v>122</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F5" s="21" t="s">
         <v>122</v>
@@ -12884,10 +12915,10 @@
         <v>120</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D6" s="33" t="s">
         <v>121</v>
@@ -12911,10 +12942,10 @@
         <v>120</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>121</v>
@@ -12938,10 +12969,10 @@
         <v>120</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D8" s="33" t="s">
         <v>121</v>
@@ -12965,7 +12996,7 @@
         <v>120</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>132</v>
@@ -12974,13 +13005,13 @@
         <v>121</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F9" s="21" t="s">
         <v>121</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="H9" s="21" t="s">
         <v>121</v>
@@ -12996,7 +13027,7 @@
         <v>120</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C10" s="33" t="s">
         <v>122</v>
@@ -13005,7 +13036,7 @@
         <v>122</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="F10" s="33" t="s">
         <v>122</v>
@@ -13023,10 +13054,10 @@
         <v>120</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>121</v>
@@ -13050,10 +13081,10 @@
         <v>120</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D12" s="33" t="s">
         <v>121</v>
@@ -13122,7 +13153,7 @@
     <row r="17" spans="1:15" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10"/>
       <c r="B17" s="69" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C17" s="69"/>
       <c r="D17" s="69"/>
@@ -13143,7 +13174,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>114</v>
@@ -13180,13 +13211,13 @@
         <v>131</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E19" s="35">
         <v>9000</v>
@@ -13207,7 +13238,7 @@
         <v>137</v>
       </c>
       <c r="K19" s="33" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L19" s="33"/>
       <c r="M19" s="33"/>
@@ -13217,10 +13248,10 @@
         <v>131</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D20" s="21" t="s">
         <v>133</v>
@@ -13244,7 +13275,7 @@
         <v>137</v>
       </c>
       <c r="K20" s="21" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="L20" s="21"/>
       <c r="M20" s="21"/>
@@ -13254,10 +13285,10 @@
         <v>131</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D21" s="33" t="s">
         <v>133</v>
@@ -13281,7 +13312,7 @@
         <v>137</v>
       </c>
       <c r="K21" s="33" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="L21" s="33"/>
       <c r="M21" s="33"/>
@@ -13291,10 +13322,10 @@
         <v>131</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D22" s="21" t="s">
         <v>133</v>
@@ -13318,7 +13349,7 @@
         <v>136</v>
       </c>
       <c r="K22" s="21" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="L22" s="21"/>
       <c r="M22" s="21"/>
@@ -13490,8 +13521,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:R76"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47:M47"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13512,7 +13543,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="5" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="70" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B1" s="71"/>
       <c r="C1" s="71"/>
@@ -13530,7 +13561,7 @@
     <row r="2" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
       <c r="B2" s="69" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C2" s="69"/>
       <c r="D2" s="69"/>
@@ -13549,13 +13580,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="61" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C3" s="61" t="s">
         <v>141</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E3" s="61"/>
       <c r="F3" s="61"/>
@@ -13569,16 +13600,16 @@
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>142</v>
+        <v>779</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C4" s="25">
         <v>911</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E4" s="33"/>
       <c r="F4" s="33"/>
@@ -13592,16 +13623,16 @@
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
-        <v>142</v>
+        <v>779</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C5" s="18">
         <v>912</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
@@ -13615,7 +13646,7 @@
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="70" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7" s="71"/>
       <c r="C7" s="71"/>
@@ -13633,7 +13664,7 @@
     <row r="8" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="69" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C8" s="69"/>
       <c r="D8" s="69"/>
@@ -13652,7 +13683,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C9" s="61" t="s">
         <v>114</v>
@@ -13661,13 +13692,13 @@
         <v>2</v>
       </c>
       <c r="E9" s="61" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F9" s="61" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="G9" s="61" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="H9" s="61"/>
       <c r="I9" s="61"/>
@@ -13678,13 +13709,13 @@
     </row>
     <row r="10" spans="1:13" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D10" s="35">
         <v>1</v>
@@ -13693,10 +13724,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
@@ -13707,13 +13738,13 @@
     </row>
     <row r="11" spans="1:13" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D11" s="18">
         <v>1</v>
@@ -13722,10 +13753,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
@@ -13811,7 +13842,7 @@
     </row>
     <row r="18" spans="1:13" s="5" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="70" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B18" s="71"/>
       <c r="C18" s="71"/>
@@ -13829,7 +13860,7 @@
     <row r="19" spans="1:13" s="5" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10"/>
       <c r="B19" s="69" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C19" s="69"/>
       <c r="D19" s="69"/>
@@ -13848,10 +13879,10 @@
         <v>0</v>
       </c>
       <c r="B20" s="61" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C20" s="61" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D20" s="61" t="s">
         <v>114</v>
@@ -13860,274 +13891,274 @@
         <v>2</v>
       </c>
       <c r="F20" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="G20" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="H20" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="G20" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="H20" s="61" t="s">
+      <c r="I20" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="I20" s="61" t="s">
-        <v>150</v>
-      </c>
       <c r="J20" s="61" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="K20" s="61" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="L20" s="61" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="M20" s="61" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>680</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>152</v>
-      </c>
       <c r="D21" s="15" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E21" s="35">
         <v>101</v>
       </c>
       <c r="F21" s="33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G21" s="35">
         <v>1</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I21" s="33">
         <v>9508</v>
       </c>
       <c r="J21" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="K21" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="K21" s="33" t="s">
-        <v>156</v>
-      </c>
       <c r="L21" s="33" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="M21" s="33" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E22" s="18">
         <v>201</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G22" s="18">
         <v>1</v>
       </c>
       <c r="H22" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="I22" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="I22" s="21" t="s">
+      <c r="J22" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="J22" s="21" t="s">
-        <v>162</v>
-      </c>
       <c r="K22" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L22" s="18" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="M22" s="21" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="23" spans="1:13" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E23" s="35">
         <v>202</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G23" s="35">
         <v>1</v>
       </c>
       <c r="H23" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="I23" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="I23" s="33" t="s">
-        <v>161</v>
-      </c>
       <c r="J23" s="33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K23" s="33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L23" s="33" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="M23" s="33" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>679</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>681</v>
-      </c>
-      <c r="C24" s="17" t="s">
+      <c r="D24" s="18" t="s">
+        <v>684</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>708</v>
+      </c>
+      <c r="F24" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="D24" s="18" t="s">
-        <v>686</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>710</v>
-      </c>
-      <c r="F24" s="18" t="s">
+      <c r="G24" s="21" t="s">
+        <v>678</v>
+      </c>
+      <c r="H24" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="G24" s="21" t="s">
-        <v>680</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>154</v>
-      </c>
       <c r="I24" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K24" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L24" s="21" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="M24" s="21" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D25" s="35" t="s">
+        <v>710</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>711</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>678</v>
+      </c>
+      <c r="H25" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="I25" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="J25" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="K25" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="L25" s="33" t="s">
         <v>712</v>
       </c>
-      <c r="E25" s="33" t="s">
-        <v>713</v>
-      </c>
-      <c r="F25" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="G25" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="H25" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="I25" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="J25" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="K25" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="L25" s="33" t="s">
-        <v>714</v>
-      </c>
       <c r="M25" s="33" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D26" s="18" t="s">
+        <v>713</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>714</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>678</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="J26" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="K26" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="L26" s="21" t="s">
         <v>715</v>
       </c>
-      <c r="E26" s="21" t="s">
-        <v>716</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>680</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="I26" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="J26" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="K26" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="L26" s="21" t="s">
-        <v>717</v>
-      </c>
       <c r="M26" s="21" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14252,7 +14283,7 @@
     </row>
     <row r="36" spans="1:18" s="5" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="72" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B36" s="76"/>
       <c r="C36" s="76"/>
@@ -14275,7 +14306,7 @@
     <row r="37" spans="1:18" s="5" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="10"/>
       <c r="B37" s="69" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C37" s="69"/>
       <c r="D37" s="69"/>
@@ -14299,79 +14330,79 @@
         <v>0</v>
       </c>
       <c r="B38" s="61" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D38" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="E38" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="E38" s="61" t="s">
+      <c r="F38" s="61" t="s">
         <v>170</v>
       </c>
-      <c r="F38" s="61" t="s">
+      <c r="G38" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="G38" s="61" t="s">
+      <c r="H38" s="61" t="s">
         <v>172</v>
       </c>
-      <c r="H38" s="61" t="s">
+      <c r="I38" s="61" t="s">
         <v>173</v>
       </c>
-      <c r="I38" s="61" t="s">
+      <c r="J38" s="61" t="s">
         <v>174</v>
       </c>
-      <c r="J38" s="61" t="s">
+      <c r="K38" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="K38" s="61" t="s">
+      <c r="L38" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="L38" s="61" t="s">
+      <c r="M38" s="61" t="s">
         <v>177</v>
       </c>
-      <c r="M38" s="61" t="s">
+      <c r="N38" s="61" t="s">
         <v>178</v>
       </c>
-      <c r="N38" s="61" t="s">
+      <c r="O38" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="O38" s="61" t="s">
+      <c r="P38" s="61" t="s">
         <v>180</v>
       </c>
-      <c r="P38" s="61" t="s">
+      <c r="Q38" s="61" t="s">
         <v>181</v>
       </c>
-      <c r="Q38" s="61" t="s">
+      <c r="R38" s="61" t="s">
         <v>182</v>
-      </c>
-      <c r="R38" s="61" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:18" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>683</v>
+      </c>
+      <c r="D39" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="B39" s="14" t="s">
-        <v>680</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>685</v>
-      </c>
-      <c r="D39" s="33" t="s">
+      <c r="E39" s="33" t="s">
         <v>185</v>
-      </c>
-      <c r="E39" s="33" t="s">
-        <v>186</v>
       </c>
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
       <c r="H39" s="33"/>
       <c r="I39" s="33"/>
       <c r="J39" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K39" s="33"/>
       <c r="L39" s="33"/>
@@ -14384,19 +14415,19 @@
     </row>
     <row r="40" spans="1:18" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>679</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>684</v>
+      </c>
+      <c r="D40" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="B40" s="16" t="s">
-        <v>681</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>686</v>
-      </c>
-      <c r="D40" s="21" t="s">
+      <c r="E40" s="21" t="s">
         <v>185</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>186</v>
       </c>
       <c r="F40" s="21"/>
       <c r="G40" s="21"/>
@@ -14494,7 +14525,7 @@
     </row>
     <row r="46" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="70" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B46" s="71"/>
       <c r="C46" s="71"/>
@@ -14512,7 +14543,7 @@
     <row r="47" spans="1:18" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="10"/>
       <c r="B47" s="69" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C47" s="69"/>
       <c r="D47" s="69"/>
@@ -14531,19 +14562,19 @@
         <v>0</v>
       </c>
       <c r="B48" s="61" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>114</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
@@ -14555,16 +14586,16 @@
     </row>
     <row r="49" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C49" s="25">
         <v>201</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E49" s="35">
         <v>201</v>
@@ -14582,16 +14613,16 @@
     </row>
     <row r="50" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C50" s="26">
         <v>201</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E50" s="18">
         <v>201</v>
@@ -14699,7 +14730,7 @@
     </row>
     <row r="58" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="75" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B58" s="73"/>
       <c r="C58" s="73"/>
@@ -14717,7 +14748,7 @@
     <row r="59" spans="1:13" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="10"/>
       <c r="B59" s="69" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C59" s="69"/>
       <c r="D59" s="69"/>
@@ -14736,7 +14767,7 @@
         <v>0</v>
       </c>
       <c r="B60" s="61" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>114</v>
@@ -14759,16 +14790,16 @@
     <row r="61" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="33"/>
       <c r="B61" s="14" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C61" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D61" s="35">
         <v>201</v>
       </c>
       <c r="E61" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F61" s="33"/>
       <c r="G61" s="33"/>
@@ -14782,16 +14813,16 @@
     <row r="62" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="21"/>
       <c r="B62" s="16" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D62" s="18">
         <v>201</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F62" s="21"/>
       <c r="G62" s="21"/>
@@ -14806,13 +14837,13 @@
       <c r="A63" s="33"/>
       <c r="B63" s="25"/>
       <c r="C63" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D63" s="35">
         <v>202</v>
       </c>
       <c r="E63" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F63" s="33"/>
       <c r="G63" s="33"/>
@@ -14827,13 +14858,13 @@
       <c r="A64" s="21"/>
       <c r="B64" s="26"/>
       <c r="C64" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D64" s="18">
         <v>202</v>
       </c>
       <c r="E64" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F64" s="21"/>
       <c r="G64" s="21"/>
@@ -14876,7 +14907,7 @@
     </row>
     <row r="68" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B68" s="73"/>
       <c r="C68" s="73"/>
@@ -14894,7 +14925,7 @@
     <row r="69" spans="1:13" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="10"/>
       <c r="B69" s="69" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C69" s="69"/>
       <c r="D69" s="69"/>
@@ -14913,16 +14944,16 @@
         <v>0</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>107</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
@@ -14936,16 +14967,16 @@
     <row r="71" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="33"/>
       <c r="B71" s="14" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C71" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D71" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E71" s="33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F71" s="33"/>
       <c r="G71" s="33"/>
@@ -14959,16 +14990,16 @@
     <row r="72" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="21"/>
       <c r="B72" s="16" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F72" s="21"/>
       <c r="G72" s="21"/>
@@ -14983,13 +15014,13 @@
       <c r="A73" s="33"/>
       <c r="B73" s="25"/>
       <c r="C73" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D73" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E73" s="33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F73" s="33"/>
       <c r="G73" s="33"/>
@@ -15004,13 +15035,13 @@
       <c r="A74" s="21"/>
       <c r="B74" s="26"/>
       <c r="C74" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D74" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E74" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F74" s="21"/>
       <c r="G74" s="21"/>
@@ -15111,7 +15142,7 @@
   </conditionalFormatting>
   <dataValidations count="18">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A4:A5" xr:uid="{00000000-0002-0000-0200-000000000000}">
-      <formula1>"inband_mgmt"</formula1>
+      <formula1>"inb_subnet"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E24:E34 F21:F23" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"unspecified,remote-leaf-wan"</formula1>
@@ -15181,7 +15212,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:N27"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15208,7 +15239,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="67" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B1" s="67"/>
       <c r="C1" s="67"/>
@@ -15228,7 +15259,7 @@
     <row r="2" spans="1:15" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9"/>
       <c r="B2" s="69" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C2" s="69"/>
       <c r="D2" s="69"/>
@@ -15249,43 +15280,43 @@
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="G3" s="27" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>107</v>
       </c>
       <c r="K3" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="M3" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>51</v>
@@ -15293,13 +15324,13 @@
     </row>
     <row r="4" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>210</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>684</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>211</v>
       </c>
       <c r="D4" s="35">
         <v>0</v>
@@ -15308,25 +15339,25 @@
         <v>15</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G4" s="33" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="I4" s="33" t="s">
         <v>213</v>
-      </c>
-      <c r="I4" s="33" t="s">
-        <v>214</v>
       </c>
       <c r="J4" s="35">
         <v>22</v>
       </c>
       <c r="K4" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="L4" s="33" t="s">
         <v>215</v>
-      </c>
-      <c r="L4" s="33" t="s">
-        <v>216</v>
       </c>
       <c r="M4" s="19" t="s">
         <v>81</v>
@@ -15337,7 +15368,7 @@
     <row r="6" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:15" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="70" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B7" s="71"/>
       <c r="C7" s="71"/>
@@ -15355,7 +15386,7 @@
     <row r="8" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
       <c r="B8" s="69" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C8" s="69"/>
       <c r="D8" s="69"/>
@@ -15374,59 +15405,59 @@
         <v>0</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="I9" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="J9" s="27" t="s">
         <v>5</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
     </row>
     <row r="10" spans="1:15" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>224</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>684</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>225</v>
       </c>
       <c r="E10" s="22">
         <v>1812</v>
       </c>
       <c r="F10" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="G10" s="33" t="s">
         <v>226</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>227</v>
       </c>
       <c r="H10" s="22">
         <v>5</v>
@@ -15445,16 +15476,16 @@
     </row>
     <row r="11" spans="1:15" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E11" s="23">
         <v>1812</v>
@@ -15463,7 +15494,7 @@
         <v>81</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H11" s="23">
         <v>5</v>
@@ -15483,7 +15514,7 @@
     <row r="12" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:15" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="70" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B13" s="71"/>
       <c r="C13" s="71"/>
@@ -15501,7 +15532,7 @@
     <row r="14" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="69" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C14" s="69"/>
       <c r="D14" s="69"/>
@@ -15520,59 +15551,59 @@
         <v>0</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>107</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H15" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="I15" s="8" t="s">
         <v>221</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>222</v>
       </c>
       <c r="J15" s="27" t="s">
         <v>5</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:15" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E16" s="22">
         <v>49</v>
       </c>
       <c r="F16" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="G16" s="33" t="s">
         <v>226</v>
-      </c>
-      <c r="G16" s="33" t="s">
-        <v>227</v>
       </c>
       <c r="H16" s="22">
         <v>5</v>
@@ -15591,16 +15622,16 @@
     </row>
     <row r="17" spans="1:14" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E17" s="23">
         <v>49</v>
@@ -15609,7 +15640,7 @@
         <v>81</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H17" s="23">
         <v>5</v>
@@ -15628,7 +15659,7 @@
     </row>
     <row r="19" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="79" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B19" s="71"/>
       <c r="C19" s="71"/>
@@ -15646,7 +15677,7 @@
     <row r="20" spans="1:14" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="41"/>
       <c r="B20" s="69" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C20" s="69"/>
       <c r="D20" s="69"/>
@@ -15665,16 +15696,16 @@
         <v>0</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -15687,19 +15718,19 @@
     </row>
     <row r="22" spans="1:14" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>684</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>237</v>
-      </c>
       <c r="D22" s="15" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F22" s="33"/>
       <c r="G22" s="33"/>
@@ -15712,17 +15743,17 @@
     </row>
     <row r="23" spans="1:14" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>102</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
@@ -15735,7 +15766,7 @@
     </row>
     <row r="25" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="70" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B25" s="71"/>
       <c r="C25" s="71"/>
@@ -15754,7 +15785,7 @@
     <row r="26" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="77" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C26" s="78"/>
       <c r="D26" s="78"/>
@@ -15774,57 +15805,57 @@
         <v>0</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C27" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="H27" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="I27" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="J27" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="K27" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="L27" s="7" t="s">
+      <c r="M27" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="M27" s="7" t="s">
+      <c r="N27" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="N27" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C28" s="28" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E28" s="35">
         <v>48</v>
@@ -15836,7 +15867,7 @@
         <v>5</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I28" s="35">
         <v>5</v>
@@ -16020,7 +16051,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:M2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16040,7 +16071,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="5" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="81" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B1" s="71"/>
       <c r="C1" s="71"/>
@@ -16058,7 +16089,7 @@
     <row r="2" spans="1:13" s="5" customFormat="1" ht="74.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63"/>
       <c r="B2" s="80" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
@@ -16077,10 +16108,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D3" s="51" t="s">
         <v>51</v>
@@ -16097,16 +16128,16 @@
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="C4" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>684</v>
-      </c>
-      <c r="C4" s="33" t="s">
+      <c r="D4" s="33" t="s">
         <v>258</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>259</v>
       </c>
       <c r="E4" s="33"/>
       <c r="F4" s="33"/>
@@ -16120,16 +16151,16 @@
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C5" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>260</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>261</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
@@ -16488,7 +16519,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="5" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="81" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B1" s="71"/>
       <c r="C1" s="71"/>
@@ -16506,7 +16537,7 @@
     <row r="2" spans="1:13" s="5" customFormat="1" ht="165.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="80" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
@@ -16525,19 +16556,19 @@
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E3" s="51" t="s">
         <v>51</v>
       </c>
       <c r="F3" s="51" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G3" s="51"/>
       <c r="H3" s="51"/>
@@ -16549,22 +16580,22 @@
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="C4" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>684</v>
-      </c>
-      <c r="C4" s="33" t="s">
+      <c r="D4" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="F4" s="33" t="s">
         <v>267</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>268</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>269</v>
       </c>
       <c r="G4" s="33"/>
       <c r="H4" s="33"/>
@@ -16576,22 +16607,22 @@
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>682</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>684</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>267</v>
-      </c>
       <c r="D5" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
@@ -16753,7 +16784,7 @@
     </row>
     <row r="17" spans="1:13" s="5" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="81" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B17" s="71"/>
       <c r="C17" s="71"/>
@@ -16771,7 +16802,7 @@
     <row r="18" spans="1:13" s="5" customFormat="1" ht="241.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="B18" s="82" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C18" s="82"/>
       <c r="D18" s="82"/>
@@ -16790,19 +16821,19 @@
         <v>0</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E19" s="51" t="s">
         <v>51</v>
       </c>
       <c r="F19" s="51" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G19" s="51"/>
       <c r="H19" s="51"/>
@@ -16814,22 +16845,22 @@
     </row>
     <row r="20" spans="1:13" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="D20" s="33" t="s">
         <v>274</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>684</v>
-      </c>
-      <c r="C20" s="33" t="s">
+      <c r="E20" s="36" t="s">
         <v>275</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="F20" s="37" t="s">
         <v>276</v>
-      </c>
-      <c r="E20" s="36" t="s">
-        <v>277</v>
-      </c>
-      <c r="F20" s="37" t="s">
-        <v>278</v>
       </c>
       <c r="G20" s="33"/>
       <c r="H20" s="33"/>
@@ -16841,22 +16872,22 @@
     </row>
     <row r="21" spans="1:13" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="44" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -16870,13 +16901,13 @@
       <c r="A22" s="33"/>
       <c r="B22" s="14"/>
       <c r="C22" s="33" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F22" s="37"/>
       <c r="G22" s="33"/>
@@ -16891,13 +16922,13 @@
       <c r="A23" s="21"/>
       <c r="B23" s="16"/>
       <c r="C23" s="21" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F23" s="20" t="s">
         <v>81</v>
@@ -16914,13 +16945,13 @@
       <c r="A24" s="33"/>
       <c r="B24" s="14"/>
       <c r="C24" s="33" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F24" s="19" t="s">
         <v>81</v>
@@ -17089,7 +17120,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="81" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B1" s="71"/>
       <c r="C1" s="71"/>
@@ -17107,7 +17138,7 @@
     <row r="2" spans="1:13" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="82" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C2" s="83"/>
       <c r="D2" s="83"/>
@@ -17126,22 +17157,22 @@
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -17152,19 +17183,19 @@
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C4" s="33">
         <v>201</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
@@ -17282,7 +17313,7 @@
     </row>
     <row r="13" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="81" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B13" s="71"/>
       <c r="C13" s="71"/>
@@ -17300,7 +17331,7 @@
     <row r="14" spans="1:13" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10"/>
       <c r="B14" s="82" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C14" s="83"/>
       <c r="D14" s="83"/>
@@ -17319,16 +17350,16 @@
         <v>0</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>51</v>
@@ -17343,19 +17374,19 @@
     </row>
     <row r="16" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="E16" s="33" t="s">
         <v>301</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>302</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>303</v>
       </c>
       <c r="F16" s="33"/>
       <c r="G16" s="33"/>

--- a/Spreadsheet-ACI.xlsx
+++ b/Spreadsheet-ACI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\tyscott\iac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37201BD4-4CE5-46E3-BDF3-314DA3C12D1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8438C568-C1AB-4B30-B175-27C0398B0C89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="803" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="803" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sites" sheetId="15" r:id="rId1"/>
@@ -4851,7 +4851,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:T61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+    <sheetView zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
@@ -7271,8 +7271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AG65"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22:AG22"/>
+    <sheetView tabSelected="1" topLeftCell="P31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Spreadsheet-ACI.xlsx
+++ b/Spreadsheet-ACI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\tyscott\iac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28DC9F0-7D05-4113-86FA-3B225204DD61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED56B295-6485-4C93-8E60-BED00994EC41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="803" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="803" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sites" sheetId="15" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3241" uniqueCount="1157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3241" uniqueCount="1158">
   <si>
     <t>Type</t>
   </si>
@@ -4290,6 +4290,9 @@
   </si>
   <si>
     <t>enable</t>
+  </si>
+  <si>
+    <t>Once Again Changed</t>
   </si>
 </sst>
 </file>
@@ -6048,8 +6051,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:U61"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6204,7 +6207,7 @@
         <v>298</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>299</v>
+        <v>1157</v>
       </c>
       <c r="F4" s="31" t="s">
         <v>475</v>
@@ -8700,8 +8703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AG141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE22" sqref="AE22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T41" sqref="T41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15852,7 +15855,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Z76"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
@@ -18217,7 +18220,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:R76"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -22527,7 +22530,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:U75"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>

--- a/Spreadsheet-ACI.xlsx
+++ b/Spreadsheet-ACI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\tyscott\iac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73CE28E-FC4E-4C74-B7FD-4796E9943923}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AE0C26-290F-4733-9362-3EE5E5A16176}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="803" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3119" uniqueCount="1101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3128" uniqueCount="1108">
   <si>
     <t>Type</t>
   </si>
@@ -4120,7 +4120,28 @@
     <t>enable</t>
   </si>
   <si>
-    <t>Once Again Changed</t>
+    <t>Changed Again</t>
+  </si>
+  <si>
+    <t>Terraform_Cloud</t>
+  </si>
+  <si>
+    <t>app.terraform.io</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>Cisco-ITS-TigerTeam</t>
+  </si>
+  <si>
+    <t>iac-ACI-DC1</t>
+  </si>
+  <si>
+    <t>iac-ACI-DC2</t>
+  </si>
+  <si>
+    <t>Workspace_Base</t>
   </si>
 </sst>
 </file>
@@ -4757,9 +4778,6 @@
     <xf numFmtId="1" fontId="9" fillId="0" borderId="9" xfId="7" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="6" borderId="9" xfId="6" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4896,6 +4914,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="9" xfId="6" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5328,20 +5349,20 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20.08984375" style="4" customWidth="1"/>
     <col min="4" max="4" width="37.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.26953125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.7265625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" style="4" customWidth="1"/>
     <col min="7" max="7" width="16.7265625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.90625" style="4" customWidth="1"/>
     <col min="10" max="10" width="15" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="13.26953125" style="4" customWidth="1"/>
     <col min="14" max="14" width="12.1796875" style="4" customWidth="1"/>
@@ -5352,40 +5373,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="5" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="74" t="s">
         <v>582</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
     </row>
     <row r="2" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11"/>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="73" t="s">
         <v>677</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
     </row>
     <row r="3" spans="1:14" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="49" t="s">
@@ -5401,26 +5422,32 @@
         <v>678</v>
       </c>
       <c r="E3" s="49" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>1107</v>
+      </c>
+      <c r="H3" s="49" t="s">
         <v>584</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="I3" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="J3" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="K3" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="L3" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="49" t="s">
+      <c r="M3" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
       <c r="N3" s="49"/>
     </row>
     <row r="4" spans="1:14" s="3" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -5433,30 +5460,36 @@
       <c r="C4" s="51" t="s">
         <v>590</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="61" t="s">
         <v>1093</v>
       </c>
-      <c r="E4" s="52">
+      <c r="E4" s="104" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G4" s="104" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H4" s="52">
         <v>65501</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="I4" s="14" t="s">
         <v>595</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="J4" s="34" t="s">
         <v>590</v>
       </c>
-      <c r="H4" s="31">
+      <c r="K4" s="31">
         <v>5555555</v>
       </c>
-      <c r="I4" s="31">
+      <c r="L4" s="31">
         <v>5555555</v>
       </c>
-      <c r="J4" s="31">
+      <c r="M4" s="31">
         <v>5555555</v>
       </c>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="31"/>
       <c r="N4" s="31"/>
     </row>
     <row r="5" spans="1:14" s="3" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -5469,36 +5502,42 @@
       <c r="C5" s="54" t="s">
         <v>591</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="62" t="s">
         <v>1094</v>
       </c>
-      <c r="E5" s="55">
+      <c r="E5" s="42" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>1106</v>
+      </c>
+      <c r="H5" s="55">
         <v>65502</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="I5" s="42" t="s">
         <v>596</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="J5" s="42" t="s">
         <v>591</v>
       </c>
-      <c r="H5" s="42">
+      <c r="K5" s="42">
         <v>5555555</v>
       </c>
-      <c r="I5" s="42">
+      <c r="L5" s="42">
         <v>5555555</v>
       </c>
-      <c r="J5" s="42">
+      <c r="M5" s="42">
         <v>5555555</v>
       </c>
-      <c r="K5" s="56"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="20"/>
       <c r="N5" s="20"/>
     </row>
     <row r="6" spans="1:14" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="50"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="52"/>
       <c r="E6" s="34"/>
       <c r="F6" s="34"/>
@@ -5508,13 +5547,13 @@
       <c r="J6" s="34"/>
       <c r="K6" s="34"/>
       <c r="L6" s="34"/>
-      <c r="M6" s="31"/>
+      <c r="M6" s="34"/>
       <c r="N6" s="31"/>
     </row>
     <row r="7" spans="1:14" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="53"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
       <c r="D7" s="55"/>
       <c r="E7" s="42"/>
       <c r="F7" s="42"/>
@@ -5522,9 +5561,9 @@
       <c r="H7" s="42"/>
       <c r="I7" s="42"/>
       <c r="J7" s="42"/>
-      <c r="K7" s="56"/>
+      <c r="K7" s="42"/>
       <c r="L7" s="42"/>
-      <c r="M7" s="20"/>
+      <c r="M7" s="42"/>
       <c r="N7" s="20"/>
     </row>
     <row r="8" spans="1:14" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5540,13 +5579,13 @@
       <c r="J8" s="34"/>
       <c r="K8" s="34"/>
       <c r="L8" s="34"/>
-      <c r="M8" s="31"/>
+      <c r="M8" s="34"/>
       <c r="N8" s="31"/>
     </row>
     <row r="9" spans="1:14" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="53"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
       <c r="D9" s="55"/>
       <c r="E9" s="42"/>
       <c r="F9" s="42"/>
@@ -5554,15 +5593,15 @@
       <c r="H9" s="42"/>
       <c r="I9" s="42"/>
       <c r="J9" s="42"/>
-      <c r="K9" s="56"/>
+      <c r="K9" s="42"/>
       <c r="L9" s="42"/>
-      <c r="M9" s="20"/>
+      <c r="M9" s="42"/>
       <c r="N9" s="20"/>
     </row>
     <row r="10" spans="1:14" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="50"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
       <c r="D10" s="52"/>
       <c r="E10" s="34"/>
       <c r="F10" s="34"/>
@@ -5572,13 +5611,13 @@
       <c r="J10" s="34"/>
       <c r="K10" s="34"/>
       <c r="L10" s="34"/>
-      <c r="M10" s="31"/>
+      <c r="M10" s="34"/>
       <c r="N10" s="31"/>
     </row>
     <row r="11" spans="1:14" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="53"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
       <c r="D11" s="55"/>
       <c r="E11" s="42"/>
       <c r="F11" s="42"/>
@@ -5586,9 +5625,9 @@
       <c r="H11" s="42"/>
       <c r="I11" s="42"/>
       <c r="J11" s="42"/>
-      <c r="K11" s="56"/>
+      <c r="K11" s="42"/>
       <c r="L11" s="42"/>
-      <c r="M11" s="20"/>
+      <c r="M11" s="42"/>
       <c r="N11" s="20"/>
     </row>
     <row r="12" spans="1:14" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5604,13 +5643,13 @@
       <c r="J12" s="34"/>
       <c r="K12" s="34"/>
       <c r="L12" s="34"/>
-      <c r="M12" s="31"/>
+      <c r="M12" s="34"/>
       <c r="N12" s="31"/>
     </row>
     <row r="13" spans="1:14" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="53"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
       <c r="D13" s="55"/>
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
@@ -5618,15 +5657,15 @@
       <c r="H13" s="42"/>
       <c r="I13" s="42"/>
       <c r="J13" s="42"/>
-      <c r="K13" s="56"/>
+      <c r="K13" s="42"/>
       <c r="L13" s="42"/>
-      <c r="M13" s="20"/>
+      <c r="M13" s="42"/>
       <c r="N13" s="20"/>
     </row>
     <row r="14" spans="1:14" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="50"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="52"/>
       <c r="E14" s="34"/>
       <c r="F14" s="34"/>
@@ -5636,13 +5675,13 @@
       <c r="J14" s="34"/>
       <c r="K14" s="34"/>
       <c r="L14" s="34"/>
-      <c r="M14" s="31"/>
+      <c r="M14" s="34"/>
       <c r="N14" s="31"/>
     </row>
     <row r="15" spans="1:14" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="53"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
       <c r="D15" s="55"/>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
@@ -5650,46 +5689,46 @@
       <c r="H15" s="42"/>
       <c r="I15" s="42"/>
       <c r="J15" s="42"/>
-      <c r="K15" s="56"/>
+      <c r="K15" s="42"/>
       <c r="L15" s="42"/>
-      <c r="M15" s="20"/>
+      <c r="M15" s="42"/>
       <c r="N15" s="20"/>
     </row>
     <row r="17" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="74" t="s">
         <v>583</v>
       </c>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="75"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="74"/>
     </row>
     <row r="18" spans="1:14" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11"/>
-      <c r="B18" s="76" t="s">
+      <c r="B18" s="75" t="s">
         <v>676</v>
       </c>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="74"/>
-      <c r="N18" s="74"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
     </row>
     <row r="19" spans="1:14" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="49" t="s">
@@ -5847,14 +5886,14 @@
     <mergeCell ref="B18:N18"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" errorTitle="BGP ASN" error="BGP ASN Must be between 1 and 4294967295" sqref="D6:D15 E4:E5" xr:uid="{7F97824C-0114-4CBA-A34D-C5EE10D10460}">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" errorTitle="BGP ASN" error="BGP ASN Must be between 1 and 4294967295" sqref="D6:D15 H4:H5" xr:uid="{7F97824C-0114-4CBA-A34D-C5EE10D10460}">
       <formula1>1</formula1>
       <formula2>4294967295</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B5 C20:N25" xr:uid="{459AF5D1-F384-4B5C-8A78-AE293B425110}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="BGP ASN" error="BGP ASN Must be between 1 and 4294967295" sqref="B6:C15 C4:D5" xr:uid="{87AD952F-50CF-49A8-B20D-9E51DE23F9D3}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="BGP ASN" error="BGP ASN Must be between 1 and 4294967295" sqref="B6:C15 C4:G5" xr:uid="{87AD952F-50CF-49A8-B20D-9E51DE23F9D3}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20:B25" xr:uid="{1667053B-6912-45DB-A55B-99AB40A6BCC9}">
       <formula1>"Grp_A,Grp_B,Grp_C,Grp_D,Grp_E,Grp_F"</formula1>
     </dataValidation>
@@ -5868,9 +5907,13 @@
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" display="https://brahma-apic1.example.com" xr:uid="{9BDE1AC6-FF94-403E-A3F0-BA3CD20F1D80}"/>
     <hyperlink ref="D5" r:id="rId2" display="https://brahma-apic2.example.com" xr:uid="{7923331E-E3AF-49CF-8A5A-51B3E1B9B807}"/>
+    <hyperlink ref="G4" r:id="rId3" display="https://brahma-apic1.example.com" xr:uid="{C239BCE1-5466-42B7-B249-31B3EFF1BDBF}"/>
+    <hyperlink ref="E4" r:id="rId4" display="https://brahma-apic1.example.com" xr:uid="{4A67E636-4A0F-4446-8D59-6B31BC8396DD}"/>
+    <hyperlink ref="G5" r:id="rId5" display="https://brahma-apic1.example.com" xr:uid="{20CDFA17-8050-4FCE-9477-C81B3CAD93B3}"/>
+    <hyperlink ref="E5" r:id="rId6" display="https://brahma-apic1.example.com" xr:uid="{3DB6D87C-8A94-40B4-939E-8B6F8FBABCCC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -5891,13 +5934,13 @@
     <col min="4" max="4" width="16.81640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="26.54296875" style="4" customWidth="1"/>
     <col min="6" max="6" width="12.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" style="73" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" style="72" customWidth="1"/>
     <col min="8" max="8" width="18.26953125" style="4" customWidth="1"/>
     <col min="9" max="9" width="13.6328125" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.453125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="15.1796875" style="73" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1796875" style="68" customWidth="1"/>
-    <col min="13" max="13" width="14.1796875" style="73" customWidth="1"/>
+    <col min="11" max="11" width="15.1796875" style="72" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1796875" style="67" customWidth="1"/>
+    <col min="13" max="13" width="14.1796875" style="72" customWidth="1"/>
     <col min="14" max="14" width="15.26953125" style="4" customWidth="1"/>
     <col min="15" max="15" width="12.453125" style="4" customWidth="1"/>
     <col min="16" max="16" width="14.26953125" style="4" customWidth="1"/>
@@ -5911,52 +5954,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="89" t="s">
         <v>628</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
     </row>
     <row r="2" spans="1:21" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10"/>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="88" t="s">
         <v>669</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="89"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
       <c r="U2"/>
     </row>
     <row r="3" spans="1:21" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -8572,25 +8615,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="89" t="s">
         <v>498</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
       <c r="R1" s="46"/>
       <c r="S1" s="46"/>
       <c r="T1" s="46"/>
@@ -8609,27 +8652,27 @@
     </row>
     <row r="2" spans="1:33" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10"/>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="75" t="s">
         <v>669</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="76"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
     </row>
     <row r="3" spans="1:33" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="7"/>
@@ -8748,25 +8791,25 @@
       <c r="T6" s="20"/>
     </row>
     <row r="8" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="90" t="s">
+      <c r="A8" s="89" t="s">
         <v>416</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="79"/>
-      <c r="M8" s="79"/>
-      <c r="N8" s="79"/>
-      <c r="O8" s="79"/>
-      <c r="P8" s="79"/>
-      <c r="Q8" s="79"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="78"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="78"/>
+      <c r="P8" s="78"/>
+      <c r="Q8" s="78"/>
       <c r="R8" s="46"/>
       <c r="S8" s="46"/>
       <c r="T8" s="46"/>
@@ -8786,27 +8829,27 @@
     </row>
     <row r="9" spans="1:33" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="10"/>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="75" t="s">
         <v>669</v>
       </c>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="76"/>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="76"/>
-      <c r="S9" s="76"/>
-      <c r="T9" s="76"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="75"/>
+      <c r="Q9" s="75"/>
+      <c r="R9" s="75"/>
+      <c r="S9" s="75"/>
+      <c r="T9" s="75"/>
       <c r="U9" s="10"/>
       <c r="V9" s="10"/>
       <c r="W9" s="10"/>
@@ -8822,47 +8865,47 @@
       <c r="AG9" s="10"/>
     </row>
     <row r="10" spans="1:33" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="92"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="102" t="s">
+      <c r="A10" s="91"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="101" t="s">
         <v>417</v>
       </c>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="103"/>
-      <c r="K10" s="103"/>
-      <c r="L10" s="103"/>
-      <c r="M10" s="103"/>
-      <c r="N10" s="103"/>
-      <c r="O10" s="103"/>
-      <c r="P10" s="103"/>
-      <c r="Q10" s="103"/>
-      <c r="R10" s="103"/>
-      <c r="S10" s="103"/>
-      <c r="T10" s="103"/>
-      <c r="U10" s="104"/>
-      <c r="V10" s="92" t="s">
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="102"/>
+      <c r="S10" s="102"/>
+      <c r="T10" s="102"/>
+      <c r="U10" s="103"/>
+      <c r="V10" s="91" t="s">
         <v>418</v>
       </c>
-      <c r="W10" s="93"/>
-      <c r="X10" s="93"/>
-      <c r="Y10" s="93"/>
-      <c r="Z10" s="94"/>
-      <c r="AA10" s="92" t="s">
+      <c r="W10" s="92"/>
+      <c r="X10" s="92"/>
+      <c r="Y10" s="92"/>
+      <c r="Z10" s="93"/>
+      <c r="AA10" s="91" t="s">
         <v>419</v>
       </c>
-      <c r="AB10" s="93"/>
-      <c r="AC10" s="94"/>
-      <c r="AD10" s="92" t="s">
+      <c r="AB10" s="92"/>
+      <c r="AC10" s="93"/>
+      <c r="AD10" s="91" t="s">
         <v>420</v>
       </c>
-      <c r="AE10" s="93"/>
-      <c r="AF10" s="93"/>
-      <c r="AG10" s="94"/>
+      <c r="AE10" s="92"/>
+      <c r="AF10" s="92"/>
+      <c r="AG10" s="93"/>
     </row>
     <row r="11" spans="1:33" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
@@ -10168,26 +10211,26 @@
       <c r="AF26" s="20"/>
       <c r="AG26" s="20"/>
     </row>
-    <row r="28" spans="1:33" s="67" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="90" t="s">
+    <row r="28" spans="1:33" s="66" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="89" t="s">
         <v>974</v>
       </c>
-      <c r="B28" s="79"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="79"/>
-      <c r="M28" s="79"/>
-      <c r="N28" s="79"/>
-      <c r="O28" s="79"/>
-      <c r="P28" s="79"/>
-      <c r="Q28" s="79"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="78"/>
+      <c r="O28" s="78"/>
+      <c r="P28" s="78"/>
+      <c r="Q28" s="78"/>
       <c r="R28" s="46"/>
       <c r="S28" s="46"/>
       <c r="T28" s="46"/>
@@ -10205,29 +10248,29 @@
       <c r="AF28" s="44"/>
       <c r="AG28" s="44"/>
     </row>
-    <row r="29" spans="1:33" s="67" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:33" s="66" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="10"/>
-      <c r="B29" s="76" t="s">
+      <c r="B29" s="75" t="s">
         <v>669</v>
       </c>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="76"/>
-      <c r="K29" s="76"/>
-      <c r="L29" s="76"/>
-      <c r="M29" s="76"/>
-      <c r="N29" s="76"/>
-      <c r="O29" s="76"/>
-      <c r="P29" s="76"/>
-      <c r="Q29" s="76"/>
-      <c r="R29" s="76"/>
-      <c r="S29" s="76"/>
-      <c r="T29" s="76"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="75"/>
+      <c r="N29" s="75"/>
+      <c r="O29" s="75"/>
+      <c r="P29" s="75"/>
+      <c r="Q29" s="75"/>
+      <c r="R29" s="75"/>
+      <c r="S29" s="75"/>
+      <c r="T29" s="75"/>
       <c r="U29" s="10"/>
       <c r="V29" s="10"/>
       <c r="W29" s="10"/>
@@ -10242,50 +10285,50 @@
       <c r="AF29" s="10"/>
       <c r="AG29" s="10"/>
     </row>
-    <row r="30" spans="1:33" s="67" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="92"/>
-      <c r="B30" s="94"/>
-      <c r="C30" s="102" t="s">
+    <row r="30" spans="1:33" s="66" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="91"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="101" t="s">
         <v>417</v>
       </c>
-      <c r="D30" s="103"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="103"/>
-      <c r="H30" s="103"/>
-      <c r="I30" s="103"/>
-      <c r="J30" s="103"/>
-      <c r="K30" s="103"/>
-      <c r="L30" s="103"/>
-      <c r="M30" s="103"/>
-      <c r="N30" s="103"/>
-      <c r="O30" s="103"/>
-      <c r="P30" s="103"/>
-      <c r="Q30" s="103"/>
-      <c r="R30" s="103"/>
-      <c r="S30" s="103"/>
-      <c r="T30" s="103"/>
-      <c r="U30" s="104"/>
-      <c r="V30" s="92" t="s">
+      <c r="D30" s="102"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="102"/>
+      <c r="K30" s="102"/>
+      <c r="L30" s="102"/>
+      <c r="M30" s="102"/>
+      <c r="N30" s="102"/>
+      <c r="O30" s="102"/>
+      <c r="P30" s="102"/>
+      <c r="Q30" s="102"/>
+      <c r="R30" s="102"/>
+      <c r="S30" s="102"/>
+      <c r="T30" s="102"/>
+      <c r="U30" s="103"/>
+      <c r="V30" s="91" t="s">
         <v>418</v>
       </c>
-      <c r="W30" s="93"/>
-      <c r="X30" s="93"/>
-      <c r="Y30" s="93"/>
-      <c r="Z30" s="94"/>
-      <c r="AA30" s="92" t="s">
+      <c r="W30" s="92"/>
+      <c r="X30" s="92"/>
+      <c r="Y30" s="92"/>
+      <c r="Z30" s="93"/>
+      <c r="AA30" s="91" t="s">
         <v>419</v>
       </c>
-      <c r="AB30" s="93"/>
-      <c r="AC30" s="94"/>
-      <c r="AD30" s="92" t="s">
+      <c r="AB30" s="92"/>
+      <c r="AC30" s="93"/>
+      <c r="AD30" s="91" t="s">
         <v>420</v>
       </c>
-      <c r="AE30" s="93"/>
-      <c r="AF30" s="93"/>
-      <c r="AG30" s="94"/>
-    </row>
-    <row r="31" spans="1:33" s="67" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AE30" s="92"/>
+      <c r="AF30" s="92"/>
+      <c r="AG30" s="93"/>
+    </row>
+    <row r="31" spans="1:33" s="66" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7" t="s">
@@ -10382,7 +10425,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="32" spans="1:33" s="67" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:33" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="7" t="s">
         <v>0</v>
       </c>
@@ -10483,7 +10526,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="33" spans="1:33" s="67" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:33" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="31" t="s">
         <v>470</v>
       </c>
@@ -10570,7 +10613,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:33" s="67" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:33" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="20" t="s">
         <v>470</v>
       </c>
@@ -10657,7 +10700,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:33" s="67" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:33" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="31" t="s">
         <v>470</v>
       </c>
@@ -10744,7 +10787,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:33" s="67" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:33" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="20" t="s">
         <v>470</v>
       </c>
@@ -10831,27 +10874,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:33" s="67" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:33" s="66" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="38" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="90" t="s">
+      <c r="A38" s="89" t="s">
         <v>504</v>
       </c>
-      <c r="B38" s="79"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="79"/>
-      <c r="I38" s="79"/>
-      <c r="J38" s="79"/>
-      <c r="K38" s="79"/>
-      <c r="L38" s="79"/>
-      <c r="M38" s="79"/>
-      <c r="N38" s="79"/>
-      <c r="O38" s="79"/>
-      <c r="P38" s="79"/>
-      <c r="Q38" s="79"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="78"/>
+      <c r="I38" s="78"/>
+      <c r="J38" s="78"/>
+      <c r="K38" s="78"/>
+      <c r="L38" s="78"/>
+      <c r="M38" s="78"/>
+      <c r="N38" s="78"/>
+      <c r="O38" s="78"/>
+      <c r="P38" s="78"/>
+      <c r="Q38" s="78"/>
       <c r="R38" s="46"/>
       <c r="S38" s="46"/>
       <c r="T38" s="46"/>
@@ -10871,27 +10914,27 @@
     </row>
     <row r="39" spans="1:33" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="10"/>
-      <c r="B39" s="76" t="s">
+      <c r="B39" s="75" t="s">
         <v>669</v>
       </c>
-      <c r="C39" s="76"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="76"/>
-      <c r="K39" s="76"/>
-      <c r="L39" s="76"/>
-      <c r="M39" s="76"/>
-      <c r="N39" s="76"/>
-      <c r="O39" s="76"/>
-      <c r="P39" s="76"/>
-      <c r="Q39" s="76"/>
-      <c r="R39" s="76"/>
-      <c r="S39" s="76"/>
-      <c r="T39" s="76"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="75"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="75"/>
+      <c r="L39" s="75"/>
+      <c r="M39" s="75"/>
+      <c r="N39" s="75"/>
+      <c r="O39" s="75"/>
+      <c r="P39" s="75"/>
+      <c r="Q39" s="75"/>
+      <c r="R39" s="75"/>
+      <c r="S39" s="75"/>
+      <c r="T39" s="75"/>
       <c r="U39" s="10"/>
       <c r="V39" s="10"/>
       <c r="W39" s="10"/>
@@ -11556,55 +11599,55 @@
       <c r="AF53" s="20"/>
       <c r="AG53" s="20"/>
     </row>
-    <row r="55" spans="1:33" s="66" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A55" s="90" t="s">
+    <row r="55" spans="1:33" s="65" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A55" s="89" t="s">
         <v>683</v>
       </c>
-      <c r="B55" s="79"/>
-      <c r="C55" s="79"/>
-      <c r="D55" s="79"/>
-      <c r="E55" s="79"/>
-      <c r="F55" s="79"/>
-      <c r="G55" s="79"/>
-      <c r="H55" s="79"/>
-      <c r="I55" s="79"/>
-      <c r="J55" s="79"/>
-      <c r="K55" s="79"/>
-      <c r="L55" s="79"/>
-      <c r="M55" s="79"/>
-      <c r="N55" s="79"/>
-      <c r="O55" s="79"/>
-      <c r="P55" s="79"/>
-      <c r="Q55" s="79"/>
+      <c r="B55" s="78"/>
+      <c r="C55" s="78"/>
+      <c r="D55" s="78"/>
+      <c r="E55" s="78"/>
+      <c r="F55" s="78"/>
+      <c r="G55" s="78"/>
+      <c r="H55" s="78"/>
+      <c r="I55" s="78"/>
+      <c r="J55" s="78"/>
+      <c r="K55" s="78"/>
+      <c r="L55" s="78"/>
+      <c r="M55" s="78"/>
+      <c r="N55" s="78"/>
+      <c r="O55" s="78"/>
+      <c r="P55" s="78"/>
+      <c r="Q55" s="78"/>
       <c r="R55" s="46"/>
       <c r="S55" s="46"/>
       <c r="T55" s="46"/>
     </row>
-    <row r="56" spans="1:33" s="66" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:33" s="65" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A56" s="10"/>
-      <c r="B56" s="76" t="s">
+      <c r="B56" s="75" t="s">
         <v>669</v>
       </c>
-      <c r="C56" s="76"/>
-      <c r="D56" s="76"/>
-      <c r="E56" s="76"/>
-      <c r="F56" s="76"/>
-      <c r="G56" s="76"/>
-      <c r="H56" s="76"/>
-      <c r="I56" s="76"/>
-      <c r="J56" s="76"/>
-      <c r="K56" s="76"/>
-      <c r="L56" s="76"/>
-      <c r="M56" s="76"/>
-      <c r="N56" s="76"/>
-      <c r="O56" s="76"/>
-      <c r="P56" s="76"/>
-      <c r="Q56" s="76"/>
-      <c r="R56" s="76"/>
-      <c r="S56" s="76"/>
-      <c r="T56" s="76"/>
-    </row>
-    <row r="57" spans="1:33" s="66" customFormat="1" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C56" s="75"/>
+      <c r="D56" s="75"/>
+      <c r="E56" s="75"/>
+      <c r="F56" s="75"/>
+      <c r="G56" s="75"/>
+      <c r="H56" s="75"/>
+      <c r="I56" s="75"/>
+      <c r="J56" s="75"/>
+      <c r="K56" s="75"/>
+      <c r="L56" s="75"/>
+      <c r="M56" s="75"/>
+      <c r="N56" s="75"/>
+      <c r="O56" s="75"/>
+      <c r="P56" s="75"/>
+      <c r="Q56" s="75"/>
+      <c r="R56" s="75"/>
+      <c r="S56" s="75"/>
+      <c r="T56" s="75"/>
+    </row>
+    <row r="57" spans="1:33" s="65" customFormat="1" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7" t="s">
@@ -11654,7 +11697,7 @@
       <c r="S57" s="7"/>
       <c r="T57" s="7"/>
     </row>
-    <row r="58" spans="1:33" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:33" s="65" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="7" t="s">
         <v>0</v>
       </c>
@@ -11708,7 +11751,7 @@
       <c r="S58" s="7"/>
       <c r="T58" s="7"/>
     </row>
-    <row r="59" spans="1:33" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:33" s="65" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="31" t="s">
         <v>682</v>
       </c>
@@ -11744,7 +11787,7 @@
       <c r="S59" s="31"/>
       <c r="T59" s="31"/>
     </row>
-    <row r="60" spans="1:33" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:33" s="65" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="20" t="s">
         <v>682</v>
       </c>
@@ -11780,7 +11823,7 @@
       <c r="S60" s="20"/>
       <c r="T60" s="20"/>
     </row>
-    <row r="61" spans="1:33" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:33" s="65" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="31"/>
       <c r="B61" s="31"/>
       <c r="C61" s="31"/>
@@ -11802,7 +11845,7 @@
       <c r="S61" s="31"/>
       <c r="T61" s="31"/>
     </row>
-    <row r="62" spans="1:33" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:33" s="65" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="20"/>
       <c r="B62" s="20"/>
       <c r="C62" s="20"/>
@@ -11824,7 +11867,7 @@
       <c r="S62" s="20"/>
       <c r="T62" s="20"/>
     </row>
-    <row r="63" spans="1:33" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:33" s="65" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="31"/>
       <c r="B63" s="31"/>
       <c r="C63" s="31"/>
@@ -11846,7 +11889,7 @@
       <c r="S63" s="31"/>
       <c r="T63" s="31"/>
     </row>
-    <row r="64" spans="1:33" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:33" s="65" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="20"/>
       <c r="B64" s="20"/>
       <c r="C64" s="20"/>
@@ -11868,7 +11911,7 @@
       <c r="S64" s="20"/>
       <c r="T64" s="20"/>
     </row>
-    <row r="65" spans="1:20" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:20" s="65" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="31"/>
       <c r="B65" s="31"/>
       <c r="C65" s="31"/>
@@ -11890,7 +11933,7 @@
       <c r="S65" s="31"/>
       <c r="T65" s="31"/>
     </row>
-    <row r="66" spans="1:20" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:20" s="65" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="20"/>
       <c r="B66" s="20"/>
       <c r="C66" s="20"/>
@@ -11912,7 +11955,7 @@
       <c r="S66" s="20"/>
       <c r="T66" s="20"/>
     </row>
-    <row r="67" spans="1:20" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:20" s="65" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="31"/>
       <c r="B67" s="31"/>
       <c r="C67" s="31"/>
@@ -11934,7 +11977,7 @@
       <c r="S67" s="31"/>
       <c r="T67" s="31"/>
     </row>
-    <row r="68" spans="1:20" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:20" s="65" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="20"/>
       <c r="B68" s="20"/>
       <c r="C68" s="20"/>
@@ -11956,7 +11999,7 @@
       <c r="S68" s="20"/>
       <c r="T68" s="20"/>
     </row>
-    <row r="69" spans="1:20" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:20" s="65" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="31"/>
       <c r="B69" s="31"/>
       <c r="C69" s="31"/>
@@ -11978,7 +12021,7 @@
       <c r="S69" s="31"/>
       <c r="T69" s="31"/>
     </row>
-    <row r="70" spans="1:20" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:20" s="65" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="20"/>
       <c r="B70" s="20"/>
       <c r="C70" s="20"/>
@@ -12000,56 +12043,56 @@
       <c r="S70" s="20"/>
       <c r="T70" s="20"/>
     </row>
-    <row r="71" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="72" spans="1:20" s="66" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A72" s="90" t="s">
+    <row r="71" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="72" spans="1:20" s="65" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A72" s="89" t="s">
         <v>695</v>
       </c>
-      <c r="B72" s="79"/>
-      <c r="C72" s="79"/>
-      <c r="D72" s="79"/>
-      <c r="E72" s="79"/>
-      <c r="F72" s="79"/>
-      <c r="G72" s="79"/>
-      <c r="H72" s="79"/>
-      <c r="I72" s="79"/>
-      <c r="J72" s="79"/>
-      <c r="K72" s="79"/>
-      <c r="L72" s="79"/>
-      <c r="M72" s="79"/>
-      <c r="N72" s="79"/>
-      <c r="O72" s="79"/>
-      <c r="P72" s="79"/>
-      <c r="Q72" s="79"/>
+      <c r="B72" s="78"/>
+      <c r="C72" s="78"/>
+      <c r="D72" s="78"/>
+      <c r="E72" s="78"/>
+      <c r="F72" s="78"/>
+      <c r="G72" s="78"/>
+      <c r="H72" s="78"/>
+      <c r="I72" s="78"/>
+      <c r="J72" s="78"/>
+      <c r="K72" s="78"/>
+      <c r="L72" s="78"/>
+      <c r="M72" s="78"/>
+      <c r="N72" s="78"/>
+      <c r="O72" s="78"/>
+      <c r="P72" s="78"/>
+      <c r="Q72" s="78"/>
       <c r="R72" s="46"/>
       <c r="S72" s="46"/>
       <c r="T72" s="46"/>
     </row>
-    <row r="73" spans="1:20" s="66" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:20" s="65" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A73" s="10"/>
-      <c r="B73" s="76" t="s">
+      <c r="B73" s="75" t="s">
         <v>669</v>
       </c>
-      <c r="C73" s="76"/>
-      <c r="D73" s="76"/>
-      <c r="E73" s="76"/>
-      <c r="F73" s="76"/>
-      <c r="G73" s="76"/>
-      <c r="H73" s="76"/>
-      <c r="I73" s="76"/>
-      <c r="J73" s="76"/>
-      <c r="K73" s="76"/>
-      <c r="L73" s="76"/>
-      <c r="M73" s="76"/>
-      <c r="N73" s="76"/>
-      <c r="O73" s="76"/>
-      <c r="P73" s="76"/>
-      <c r="Q73" s="76"/>
-      <c r="R73" s="76"/>
-      <c r="S73" s="76"/>
-      <c r="T73" s="76"/>
-    </row>
-    <row r="74" spans="1:20" s="66" customFormat="1" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C73" s="75"/>
+      <c r="D73" s="75"/>
+      <c r="E73" s="75"/>
+      <c r="F73" s="75"/>
+      <c r="G73" s="75"/>
+      <c r="H73" s="75"/>
+      <c r="I73" s="75"/>
+      <c r="J73" s="75"/>
+      <c r="K73" s="75"/>
+      <c r="L73" s="75"/>
+      <c r="M73" s="75"/>
+      <c r="N73" s="75"/>
+      <c r="O73" s="75"/>
+      <c r="P73" s="75"/>
+      <c r="Q73" s="75"/>
+      <c r="R73" s="75"/>
+      <c r="S73" s="75"/>
+      <c r="T73" s="75"/>
+    </row>
+    <row r="74" spans="1:20" s="65" customFormat="1" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7" t="s">
@@ -12085,7 +12128,7 @@
       <c r="S74" s="7"/>
       <c r="T74" s="7"/>
     </row>
-    <row r="75" spans="1:20" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:20" s="65" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="7" t="s">
         <v>0</v>
       </c>
@@ -12125,7 +12168,7 @@
       <c r="S75" s="7"/>
       <c r="T75" s="7"/>
     </row>
-    <row r="76" spans="1:20" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:20" s="65" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="31" t="s">
         <v>1065</v>
       </c>
@@ -12155,7 +12198,7 @@
       <c r="S76" s="31"/>
       <c r="T76" s="31"/>
     </row>
-    <row r="77" spans="1:20" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:20" s="65" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="20"/>
       <c r="B77" s="20"/>
       <c r="C77" s="20"/>
@@ -12177,7 +12220,7 @@
       <c r="S77" s="20"/>
       <c r="T77" s="20"/>
     </row>
-    <row r="78" spans="1:20" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:20" s="65" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="31"/>
       <c r="B78" s="31"/>
       <c r="C78" s="31"/>
@@ -12199,7 +12242,7 @@
       <c r="S78" s="31"/>
       <c r="T78" s="31"/>
     </row>
-    <row r="79" spans="1:20" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:20" s="65" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="20"/>
       <c r="B79" s="20"/>
       <c r="C79" s="20"/>
@@ -12221,55 +12264,55 @@
       <c r="S79" s="20"/>
       <c r="T79" s="20"/>
     </row>
-    <row r="81" spans="1:20" s="66" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A81" s="90" t="s">
+    <row r="81" spans="1:20" s="65" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A81" s="89" t="s">
         <v>877</v>
       </c>
-      <c r="B81" s="79"/>
-      <c r="C81" s="79"/>
-      <c r="D81" s="79"/>
-      <c r="E81" s="79"/>
-      <c r="F81" s="79"/>
-      <c r="G81" s="79"/>
-      <c r="H81" s="79"/>
-      <c r="I81" s="79"/>
-      <c r="J81" s="79"/>
-      <c r="K81" s="79"/>
-      <c r="L81" s="79"/>
-      <c r="M81" s="79"/>
-      <c r="N81" s="79"/>
-      <c r="O81" s="79"/>
-      <c r="P81" s="79"/>
-      <c r="Q81" s="79"/>
+      <c r="B81" s="78"/>
+      <c r="C81" s="78"/>
+      <c r="D81" s="78"/>
+      <c r="E81" s="78"/>
+      <c r="F81" s="78"/>
+      <c r="G81" s="78"/>
+      <c r="H81" s="78"/>
+      <c r="I81" s="78"/>
+      <c r="J81" s="78"/>
+      <c r="K81" s="78"/>
+      <c r="L81" s="78"/>
+      <c r="M81" s="78"/>
+      <c r="N81" s="78"/>
+      <c r="O81" s="78"/>
+      <c r="P81" s="78"/>
+      <c r="Q81" s="78"/>
       <c r="R81" s="46"/>
       <c r="S81" s="46"/>
       <c r="T81" s="46"/>
     </row>
-    <row r="82" spans="1:20" s="66" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:20" s="65" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A82" s="10"/>
-      <c r="B82" s="76" t="s">
+      <c r="B82" s="75" t="s">
         <v>669</v>
       </c>
-      <c r="C82" s="76"/>
-      <c r="D82" s="76"/>
-      <c r="E82" s="76"/>
-      <c r="F82" s="76"/>
-      <c r="G82" s="76"/>
-      <c r="H82" s="76"/>
-      <c r="I82" s="76"/>
-      <c r="J82" s="76"/>
-      <c r="K82" s="76"/>
-      <c r="L82" s="76"/>
-      <c r="M82" s="76"/>
-      <c r="N82" s="76"/>
-      <c r="O82" s="76"/>
-      <c r="P82" s="76"/>
-      <c r="Q82" s="76"/>
-      <c r="R82" s="76"/>
-      <c r="S82" s="76"/>
-      <c r="T82" s="76"/>
-    </row>
-    <row r="83" spans="1:20" s="66" customFormat="1" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C82" s="75"/>
+      <c r="D82" s="75"/>
+      <c r="E82" s="75"/>
+      <c r="F82" s="75"/>
+      <c r="G82" s="75"/>
+      <c r="H82" s="75"/>
+      <c r="I82" s="75"/>
+      <c r="J82" s="75"/>
+      <c r="K82" s="75"/>
+      <c r="L82" s="75"/>
+      <c r="M82" s="75"/>
+      <c r="N82" s="75"/>
+      <c r="O82" s="75"/>
+      <c r="P82" s="75"/>
+      <c r="Q82" s="75"/>
+      <c r="R82" s="75"/>
+      <c r="S82" s="75"/>
+      <c r="T82" s="75"/>
+    </row>
+    <row r="83" spans="1:20" s="65" customFormat="1" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7" t="s">
@@ -12301,7 +12344,7 @@
       <c r="S83" s="7"/>
       <c r="T83" s="7"/>
     </row>
-    <row r="84" spans="1:20" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:20" s="65" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="7" t="s">
         <v>0</v>
       </c>
@@ -12337,7 +12380,7 @@
       <c r="S84" s="7"/>
       <c r="T84" s="7"/>
     </row>
-    <row r="85" spans="1:20" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:20" s="65" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="31" t="s">
         <v>978</v>
       </c>
@@ -12369,7 +12412,7 @@
       <c r="S85" s="31"/>
       <c r="T85" s="31"/>
     </row>
-    <row r="86" spans="1:20" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:20" s="65" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="20"/>
       <c r="B86" s="20"/>
       <c r="C86" s="20"/>
@@ -12391,7 +12434,7 @@
       <c r="S86" s="20"/>
       <c r="T86" s="20"/>
     </row>
-    <row r="87" spans="1:20" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:20" s="65" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="31"/>
       <c r="B87" s="31"/>
       <c r="C87" s="31"/>
@@ -12413,7 +12456,7 @@
       <c r="S87" s="31"/>
       <c r="T87" s="31"/>
     </row>
-    <row r="88" spans="1:20" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:20" s="65" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="20"/>
       <c r="B88" s="20"/>
       <c r="C88" s="20"/>
@@ -12435,56 +12478,56 @@
       <c r="S88" s="20"/>
       <c r="T88" s="20"/>
     </row>
-    <row r="89" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="90" spans="1:20" s="67" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A90" s="90" t="s">
+    <row r="89" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="90" spans="1:20" s="66" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A90" s="89" t="s">
         <v>983</v>
       </c>
-      <c r="B90" s="79"/>
-      <c r="C90" s="79"/>
-      <c r="D90" s="79"/>
-      <c r="E90" s="79"/>
-      <c r="F90" s="79"/>
-      <c r="G90" s="79"/>
-      <c r="H90" s="79"/>
-      <c r="I90" s="79"/>
-      <c r="J90" s="79"/>
-      <c r="K90" s="79"/>
-      <c r="L90" s="79"/>
-      <c r="M90" s="79"/>
-      <c r="N90" s="79"/>
-      <c r="O90" s="79"/>
-      <c r="P90" s="79"/>
-      <c r="Q90" s="79"/>
+      <c r="B90" s="78"/>
+      <c r="C90" s="78"/>
+      <c r="D90" s="78"/>
+      <c r="E90" s="78"/>
+      <c r="F90" s="78"/>
+      <c r="G90" s="78"/>
+      <c r="H90" s="78"/>
+      <c r="I90" s="78"/>
+      <c r="J90" s="78"/>
+      <c r="K90" s="78"/>
+      <c r="L90" s="78"/>
+      <c r="M90" s="78"/>
+      <c r="N90" s="78"/>
+      <c r="O90" s="78"/>
+      <c r="P90" s="78"/>
+      <c r="Q90" s="78"/>
       <c r="R90" s="46"/>
       <c r="S90" s="46"/>
       <c r="T90" s="46"/>
     </row>
-    <row r="91" spans="1:20" s="67" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:20" s="66" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A91" s="10"/>
-      <c r="B91" s="76" t="s">
+      <c r="B91" s="75" t="s">
         <v>669</v>
       </c>
-      <c r="C91" s="76"/>
-      <c r="D91" s="76"/>
-      <c r="E91" s="76"/>
-      <c r="F91" s="76"/>
-      <c r="G91" s="76"/>
-      <c r="H91" s="76"/>
-      <c r="I91" s="76"/>
-      <c r="J91" s="76"/>
-      <c r="K91" s="76"/>
-      <c r="L91" s="76"/>
-      <c r="M91" s="76"/>
-      <c r="N91" s="76"/>
-      <c r="O91" s="76"/>
-      <c r="P91" s="76"/>
-      <c r="Q91" s="76"/>
-      <c r="R91" s="76"/>
-      <c r="S91" s="76"/>
-      <c r="T91" s="76"/>
-    </row>
-    <row r="92" spans="1:20" s="67" customFormat="1" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C91" s="75"/>
+      <c r="D91" s="75"/>
+      <c r="E91" s="75"/>
+      <c r="F91" s="75"/>
+      <c r="G91" s="75"/>
+      <c r="H91" s="75"/>
+      <c r="I91" s="75"/>
+      <c r="J91" s="75"/>
+      <c r="K91" s="75"/>
+      <c r="L91" s="75"/>
+      <c r="M91" s="75"/>
+      <c r="N91" s="75"/>
+      <c r="O91" s="75"/>
+      <c r="P91" s="75"/>
+      <c r="Q91" s="75"/>
+      <c r="R91" s="75"/>
+      <c r="S91" s="75"/>
+      <c r="T91" s="75"/>
+    </row>
+    <row r="92" spans="1:20" s="66" customFormat="1" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7" t="s">
@@ -12528,7 +12571,7 @@
       <c r="S92" s="7"/>
       <c r="T92" s="7"/>
     </row>
-    <row r="93" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:20" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="7" t="s">
         <v>0</v>
       </c>
@@ -12576,7 +12619,7 @@
       <c r="S93" s="7"/>
       <c r="T93" s="7"/>
     </row>
-    <row r="94" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:20" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="31" t="s">
         <v>997</v>
       </c>
@@ -12608,7 +12651,7 @@
       <c r="S94" s="31"/>
       <c r="T94" s="31"/>
     </row>
-    <row r="95" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:20" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="20" t="s">
         <v>997</v>
       </c>
@@ -12640,7 +12683,7 @@
       <c r="S95" s="20"/>
       <c r="T95" s="20"/>
     </row>
-    <row r="96" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:20" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="31"/>
       <c r="B96" s="31"/>
       <c r="C96" s="31"/>
@@ -12662,7 +12705,7 @@
       <c r="S96" s="31"/>
       <c r="T96" s="31"/>
     </row>
-    <row r="97" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:20" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="20"/>
       <c r="B97" s="20"/>
       <c r="C97" s="20"/>
@@ -12684,56 +12727,56 @@
       <c r="S97" s="20"/>
       <c r="T97" s="20"/>
     </row>
-    <row r="98" spans="1:20" s="67" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="99" spans="1:20" s="67" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A99" s="90" t="s">
+    <row r="98" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="99" spans="1:20" s="66" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A99" s="89" t="s">
         <v>975</v>
       </c>
-      <c r="B99" s="79"/>
-      <c r="C99" s="79"/>
-      <c r="D99" s="79"/>
-      <c r="E99" s="79"/>
-      <c r="F99" s="79"/>
-      <c r="G99" s="79"/>
-      <c r="H99" s="79"/>
-      <c r="I99" s="79"/>
-      <c r="J99" s="79"/>
-      <c r="K99" s="79"/>
-      <c r="L99" s="79"/>
-      <c r="M99" s="79"/>
-      <c r="N99" s="79"/>
-      <c r="O99" s="79"/>
-      <c r="P99" s="79"/>
-      <c r="Q99" s="79"/>
+      <c r="B99" s="78"/>
+      <c r="C99" s="78"/>
+      <c r="D99" s="78"/>
+      <c r="E99" s="78"/>
+      <c r="F99" s="78"/>
+      <c r="G99" s="78"/>
+      <c r="H99" s="78"/>
+      <c r="I99" s="78"/>
+      <c r="J99" s="78"/>
+      <c r="K99" s="78"/>
+      <c r="L99" s="78"/>
+      <c r="M99" s="78"/>
+      <c r="N99" s="78"/>
+      <c r="O99" s="78"/>
+      <c r="P99" s="78"/>
+      <c r="Q99" s="78"/>
       <c r="R99" s="46"/>
       <c r="S99" s="46"/>
       <c r="T99" s="46"/>
     </row>
-    <row r="100" spans="1:20" s="67" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:20" s="66" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A100" s="10"/>
-      <c r="B100" s="76" t="s">
+      <c r="B100" s="75" t="s">
         <v>669</v>
       </c>
-      <c r="C100" s="76"/>
-      <c r="D100" s="76"/>
-      <c r="E100" s="76"/>
-      <c r="F100" s="76"/>
-      <c r="G100" s="76"/>
-      <c r="H100" s="76"/>
-      <c r="I100" s="76"/>
-      <c r="J100" s="76"/>
-      <c r="K100" s="76"/>
-      <c r="L100" s="76"/>
-      <c r="M100" s="76"/>
-      <c r="N100" s="76"/>
-      <c r="O100" s="76"/>
-      <c r="P100" s="76"/>
-      <c r="Q100" s="76"/>
-      <c r="R100" s="76"/>
-      <c r="S100" s="76"/>
-      <c r="T100" s="76"/>
-    </row>
-    <row r="101" spans="1:20" s="67" customFormat="1" ht="66.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C100" s="75"/>
+      <c r="D100" s="75"/>
+      <c r="E100" s="75"/>
+      <c r="F100" s="75"/>
+      <c r="G100" s="75"/>
+      <c r="H100" s="75"/>
+      <c r="I100" s="75"/>
+      <c r="J100" s="75"/>
+      <c r="K100" s="75"/>
+      <c r="L100" s="75"/>
+      <c r="M100" s="75"/>
+      <c r="N100" s="75"/>
+      <c r="O100" s="75"/>
+      <c r="P100" s="75"/>
+      <c r="Q100" s="75"/>
+      <c r="R100" s="75"/>
+      <c r="S100" s="75"/>
+      <c r="T100" s="75"/>
+    </row>
+    <row r="101" spans="1:20" s="66" customFormat="1" ht="66.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7" t="s">
@@ -12742,17 +12785,17 @@
       <c r="D101" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="E101" s="92" t="s">
+      <c r="E101" s="91" t="s">
         <v>1025</v>
       </c>
-      <c r="F101" s="93"/>
-      <c r="G101" s="93"/>
-      <c r="H101" s="99" t="s">
+      <c r="F101" s="92"/>
+      <c r="G101" s="92"/>
+      <c r="H101" s="98" t="s">
         <v>1027</v>
       </c>
-      <c r="I101" s="100"/>
-      <c r="J101" s="100"/>
-      <c r="K101" s="101"/>
+      <c r="I101" s="99"/>
+      <c r="J101" s="99"/>
+      <c r="K101" s="100"/>
       <c r="L101" s="7" t="s">
         <v>1011</v>
       </c>
@@ -12777,7 +12820,7 @@
       <c r="S101" s="7"/>
       <c r="T101" s="7"/>
     </row>
-    <row r="102" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:20" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="7" t="s">
         <v>0</v>
       </c>
@@ -12835,7 +12878,7 @@
       <c r="S102" s="7"/>
       <c r="T102" s="7"/>
     </row>
-    <row r="103" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:20" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="31" t="s">
         <v>994</v>
       </c>
@@ -12889,7 +12932,7 @@
       <c r="S103" s="31"/>
       <c r="T103" s="31"/>
     </row>
-    <row r="104" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:20" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="20"/>
       <c r="B104" s="20"/>
       <c r="C104" s="20"/>
@@ -12911,7 +12954,7 @@
       <c r="S104" s="20"/>
       <c r="T104" s="20"/>
     </row>
-    <row r="105" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:20" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="31"/>
       <c r="B105" s="31"/>
       <c r="C105" s="31"/>
@@ -12933,7 +12976,7 @@
       <c r="S105" s="31"/>
       <c r="T105" s="31"/>
     </row>
-    <row r="106" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:20" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="20"/>
       <c r="B106" s="20"/>
       <c r="C106" s="20"/>
@@ -12955,54 +12998,54 @@
       <c r="S106" s="20"/>
       <c r="T106" s="20"/>
     </row>
-    <row r="107" spans="1:20" s="67" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="108" spans="1:20" s="67" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A108" s="90" t="s">
+    <row r="107" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="108" spans="1:20" s="66" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A108" s="89" t="s">
         <v>482</v>
       </c>
-      <c r="B108" s="90"/>
-      <c r="C108" s="90"/>
-      <c r="D108" s="90"/>
-      <c r="E108" s="90"/>
-      <c r="F108" s="90"/>
-      <c r="G108" s="90"/>
-      <c r="H108" s="90"/>
-      <c r="I108" s="90"/>
-      <c r="J108" s="90"/>
-      <c r="K108" s="90"/>
-      <c r="L108" s="90"/>
-      <c r="M108" s="90"/>
-      <c r="N108" s="90"/>
-      <c r="O108" s="90"/>
-      <c r="P108" s="90"/>
-      <c r="Q108" s="90"/>
+      <c r="B108" s="89"/>
+      <c r="C108" s="89"/>
+      <c r="D108" s="89"/>
+      <c r="E108" s="89"/>
+      <c r="F108" s="89"/>
+      <c r="G108" s="89"/>
+      <c r="H108" s="89"/>
+      <c r="I108" s="89"/>
+      <c r="J108" s="89"/>
+      <c r="K108" s="89"/>
+      <c r="L108" s="89"/>
+      <c r="M108" s="89"/>
+      <c r="N108" s="89"/>
+      <c r="O108" s="89"/>
+      <c r="P108" s="89"/>
+      <c r="Q108" s="89"/>
       <c r="R108" s="46"/>
       <c r="S108" s="46"/>
       <c r="T108" s="46"/>
     </row>
-    <row r="109" spans="1:20" s="67" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:20" s="66" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A109" s="10"/>
-      <c r="B109" s="89" t="s">
+      <c r="B109" s="88" t="s">
         <v>669</v>
       </c>
-      <c r="C109" s="89"/>
-      <c r="D109" s="89"/>
-      <c r="E109" s="89"/>
-      <c r="F109" s="89"/>
-      <c r="G109" s="89"/>
-      <c r="H109" s="89"/>
-      <c r="I109" s="89"/>
-      <c r="J109" s="89"/>
-      <c r="K109" s="89"/>
-      <c r="L109" s="89"/>
-      <c r="M109" s="89"/>
-      <c r="N109" s="89"/>
-      <c r="O109" s="89"/>
-      <c r="P109" s="89"/>
-      <c r="Q109" s="89"/>
-      <c r="R109" s="89"/>
-      <c r="S109" s="89"/>
-      <c r="T109" s="89"/>
+      <c r="C109" s="88"/>
+      <c r="D109" s="88"/>
+      <c r="E109" s="88"/>
+      <c r="F109" s="88"/>
+      <c r="G109" s="88"/>
+      <c r="H109" s="88"/>
+      <c r="I109" s="88"/>
+      <c r="J109" s="88"/>
+      <c r="K109" s="88"/>
+      <c r="L109" s="88"/>
+      <c r="M109" s="88"/>
+      <c r="N109" s="88"/>
+      <c r="O109" s="88"/>
+      <c r="P109" s="88"/>
+      <c r="Q109" s="88"/>
+      <c r="R109" s="88"/>
+      <c r="S109" s="88"/>
+      <c r="T109" s="88"/>
     </row>
     <row r="110" spans="1:20" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="7"/>
@@ -13013,11 +13056,11 @@
       <c r="D110" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="E110" s="96" t="s">
+      <c r="E110" s="95" t="s">
         <v>483</v>
       </c>
-      <c r="F110" s="97"/>
-      <c r="G110" s="98"/>
+      <c r="F110" s="96"/>
+      <c r="G110" s="97"/>
       <c r="H110" s="7" t="s">
         <v>484</v>
       </c>
@@ -13328,55 +13371,55 @@
       <c r="S119" s="20"/>
       <c r="T119" s="20"/>
     </row>
-    <row r="121" spans="1:20" s="66" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A121" s="90" t="s">
+    <row r="121" spans="1:20" s="65" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A121" s="89" t="s">
         <v>703</v>
       </c>
-      <c r="B121" s="79"/>
-      <c r="C121" s="79"/>
-      <c r="D121" s="79"/>
-      <c r="E121" s="79"/>
-      <c r="F121" s="79"/>
-      <c r="G121" s="79"/>
-      <c r="H121" s="79"/>
-      <c r="I121" s="79"/>
-      <c r="J121" s="79"/>
-      <c r="K121" s="79"/>
-      <c r="L121" s="79"/>
-      <c r="M121" s="79"/>
-      <c r="N121" s="79"/>
-      <c r="O121" s="79"/>
-      <c r="P121" s="79"/>
-      <c r="Q121" s="79"/>
+      <c r="B121" s="78"/>
+      <c r="C121" s="78"/>
+      <c r="D121" s="78"/>
+      <c r="E121" s="78"/>
+      <c r="F121" s="78"/>
+      <c r="G121" s="78"/>
+      <c r="H121" s="78"/>
+      <c r="I121" s="78"/>
+      <c r="J121" s="78"/>
+      <c r="K121" s="78"/>
+      <c r="L121" s="78"/>
+      <c r="M121" s="78"/>
+      <c r="N121" s="78"/>
+      <c r="O121" s="78"/>
+      <c r="P121" s="78"/>
+      <c r="Q121" s="78"/>
       <c r="R121" s="46"/>
       <c r="S121" s="46"/>
       <c r="T121" s="46"/>
     </row>
-    <row r="122" spans="1:20" s="66" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:20" s="65" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A122" s="10"/>
-      <c r="B122" s="76" t="s">
+      <c r="B122" s="75" t="s">
         <v>669</v>
       </c>
-      <c r="C122" s="76"/>
-      <c r="D122" s="76"/>
-      <c r="E122" s="76"/>
-      <c r="F122" s="76"/>
-      <c r="G122" s="76"/>
-      <c r="H122" s="76"/>
-      <c r="I122" s="76"/>
-      <c r="J122" s="76"/>
-      <c r="K122" s="76"/>
-      <c r="L122" s="76"/>
-      <c r="M122" s="76"/>
-      <c r="N122" s="76"/>
-      <c r="O122" s="76"/>
-      <c r="P122" s="76"/>
-      <c r="Q122" s="76"/>
-      <c r="R122" s="76"/>
-      <c r="S122" s="76"/>
-      <c r="T122" s="76"/>
-    </row>
-    <row r="123" spans="1:20" s="66" customFormat="1" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C122" s="75"/>
+      <c r="D122" s="75"/>
+      <c r="E122" s="75"/>
+      <c r="F122" s="75"/>
+      <c r="G122" s="75"/>
+      <c r="H122" s="75"/>
+      <c r="I122" s="75"/>
+      <c r="J122" s="75"/>
+      <c r="K122" s="75"/>
+      <c r="L122" s="75"/>
+      <c r="M122" s="75"/>
+      <c r="N122" s="75"/>
+      <c r="O122" s="75"/>
+      <c r="P122" s="75"/>
+      <c r="Q122" s="75"/>
+      <c r="R122" s="75"/>
+      <c r="S122" s="75"/>
+      <c r="T122" s="75"/>
+    </row>
+    <row r="123" spans="1:20" s="65" customFormat="1" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7" t="s">
@@ -13385,18 +13428,18 @@
       <c r="D123" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="E123" s="92" t="s">
+      <c r="E123" s="91" t="s">
         <v>709</v>
       </c>
-      <c r="F123" s="93"/>
-      <c r="G123" s="93"/>
-      <c r="H123" s="93"/>
-      <c r="I123" s="93"/>
-      <c r="J123" s="92" t="s">
+      <c r="F123" s="92"/>
+      <c r="G123" s="92"/>
+      <c r="H123" s="92"/>
+      <c r="I123" s="92"/>
+      <c r="J123" s="91" t="s">
         <v>713</v>
       </c>
-      <c r="K123" s="93"/>
-      <c r="L123" s="94"/>
+      <c r="K123" s="92"/>
+      <c r="L123" s="93"/>
       <c r="M123" s="7" t="s">
         <v>712</v>
       </c>
@@ -13410,7 +13453,7 @@
       <c r="S123" s="7"/>
       <c r="T123" s="7"/>
     </row>
-    <row r="124" spans="1:20" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:20" s="65" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A124" s="7" t="s">
         <v>0</v>
       </c>
@@ -13460,7 +13503,7 @@
       <c r="S124" s="7"/>
       <c r="T124" s="7"/>
     </row>
-    <row r="125" spans="1:20" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:20" s="65" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A125" s="31" t="s">
         <v>1089</v>
       </c>
@@ -13502,7 +13545,7 @@
       <c r="S125" s="31"/>
       <c r="T125" s="31"/>
     </row>
-    <row r="126" spans="1:20" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:20" s="65" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A126" s="20"/>
       <c r="B126" s="20"/>
       <c r="C126" s="20"/>
@@ -13524,7 +13567,7 @@
       <c r="S126" s="20"/>
       <c r="T126" s="20"/>
     </row>
-    <row r="127" spans="1:20" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:20" s="65" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A127" s="31"/>
       <c r="B127" s="31"/>
       <c r="C127" s="31"/>
@@ -13546,7 +13589,7 @@
       <c r="S127" s="31"/>
       <c r="T127" s="31"/>
     </row>
-    <row r="128" spans="1:20" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:20" s="65" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A128" s="20"/>
       <c r="B128" s="20"/>
       <c r="C128" s="20"/>
@@ -13568,7 +13611,7 @@
       <c r="S128" s="20"/>
       <c r="T128" s="20"/>
     </row>
-    <row r="129" spans="1:22" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:22" s="65" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A129" s="31"/>
       <c r="B129" s="31"/>
       <c r="C129" s="31"/>
@@ -13590,7 +13633,7 @@
       <c r="S129" s="31"/>
       <c r="T129" s="31"/>
     </row>
-    <row r="130" spans="1:22" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:22" s="65" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A130" s="20"/>
       <c r="B130" s="20"/>
       <c r="C130" s="20"/>
@@ -13612,7 +13655,7 @@
       <c r="S130" s="20"/>
       <c r="T130" s="20"/>
     </row>
-    <row r="131" spans="1:22" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:22" s="65" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A131" s="31"/>
       <c r="B131" s="31"/>
       <c r="C131" s="31"/>
@@ -13634,7 +13677,7 @@
       <c r="S131" s="31"/>
       <c r="T131" s="31"/>
     </row>
-    <row r="132" spans="1:22" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:22" s="65" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A132" s="20"/>
       <c r="B132" s="20"/>
       <c r="C132" s="20"/>
@@ -13656,27 +13699,27 @@
       <c r="S132" s="20"/>
       <c r="T132" s="20"/>
     </row>
-    <row r="133" spans="1:22" s="66" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="133" spans="1:22" s="65" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="134" spans="1:22" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A134" s="95" t="s">
+      <c r="A134" s="94" t="s">
         <v>374</v>
       </c>
-      <c r="B134" s="79"/>
-      <c r="C134" s="79"/>
-      <c r="D134" s="79"/>
-      <c r="E134" s="79"/>
-      <c r="F134" s="79"/>
-      <c r="G134" s="79"/>
-      <c r="H134" s="79"/>
-      <c r="I134" s="79"/>
-      <c r="J134" s="79"/>
-      <c r="K134" s="79"/>
-      <c r="L134" s="79"/>
-      <c r="M134" s="79"/>
-      <c r="N134" s="79"/>
-      <c r="O134" s="79"/>
-      <c r="P134" s="79"/>
-      <c r="Q134" s="79"/>
+      <c r="B134" s="78"/>
+      <c r="C134" s="78"/>
+      <c r="D134" s="78"/>
+      <c r="E134" s="78"/>
+      <c r="F134" s="78"/>
+      <c r="G134" s="78"/>
+      <c r="H134" s="78"/>
+      <c r="I134" s="78"/>
+      <c r="J134" s="78"/>
+      <c r="K134" s="78"/>
+      <c r="L134" s="78"/>
+      <c r="M134" s="78"/>
+      <c r="N134" s="78"/>
+      <c r="O134" s="78"/>
+      <c r="P134" s="78"/>
+      <c r="Q134" s="78"/>
       <c r="R134" s="45"/>
       <c r="S134" s="45"/>
       <c r="T134" s="45"/>
@@ -13685,29 +13728,29 @@
     </row>
     <row r="135" spans="1:22" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A135" s="10"/>
-      <c r="B135" s="74" t="s">
+      <c r="B135" s="73" t="s">
         <v>691</v>
       </c>
-      <c r="C135" s="74"/>
-      <c r="D135" s="74"/>
-      <c r="E135" s="74"/>
-      <c r="F135" s="74"/>
-      <c r="G135" s="74"/>
-      <c r="H135" s="74"/>
-      <c r="I135" s="74"/>
-      <c r="J135" s="74"/>
-      <c r="K135" s="74"/>
-      <c r="L135" s="74"/>
-      <c r="M135" s="74"/>
-      <c r="N135" s="74"/>
-      <c r="O135" s="74"/>
-      <c r="P135" s="74"/>
-      <c r="Q135" s="74"/>
-      <c r="R135" s="74"/>
-      <c r="S135" s="74"/>
-      <c r="T135" s="74"/>
-      <c r="U135" s="74"/>
-      <c r="V135" s="74"/>
+      <c r="C135" s="73"/>
+      <c r="D135" s="73"/>
+      <c r="E135" s="73"/>
+      <c r="F135" s="73"/>
+      <c r="G135" s="73"/>
+      <c r="H135" s="73"/>
+      <c r="I135" s="73"/>
+      <c r="J135" s="73"/>
+      <c r="K135" s="73"/>
+      <c r="L135" s="73"/>
+      <c r="M135" s="73"/>
+      <c r="N135" s="73"/>
+      <c r="O135" s="73"/>
+      <c r="P135" s="73"/>
+      <c r="Q135" s="73"/>
+      <c r="R135" s="73"/>
+      <c r="S135" s="73"/>
+      <c r="T135" s="73"/>
+      <c r="U135" s="73"/>
+      <c r="V135" s="73"/>
     </row>
     <row r="136" spans="1:22" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A136" s="7"/>
@@ -15174,38 +15217,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11"/>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="79" t="s">
         <v>670</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="49" t="s">
@@ -15295,38 +15338,38 @@
       <c r="M7" s="20"/>
     </row>
     <row r="9" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
     </row>
     <row r="10" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11"/>
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="79" t="s">
         <v>670</v>
       </c>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="80"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="79"/>
     </row>
     <row r="11" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="49" t="s">
@@ -15371,38 +15414,38 @@
       <c r="M12" s="31"/>
     </row>
     <row r="14" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="79"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="78"/>
     </row>
     <row r="15" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11"/>
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="79" t="s">
         <v>670</v>
       </c>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="80"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="79"/>
     </row>
     <row r="16" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="49" t="s">
@@ -15474,38 +15517,38 @@
       <c r="M18" s="20"/>
     </row>
     <row r="20" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="78" t="s">
+      <c r="A20" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
     </row>
     <row r="21" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="11"/>
-      <c r="B21" s="80" t="s">
+      <c r="B21" s="79" t="s">
         <v>670</v>
       </c>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="80"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="80"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="79"/>
     </row>
     <row r="22" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="49" t="s">
@@ -15577,38 +15620,38 @@
       <c r="M24" s="20"/>
     </row>
     <row r="26" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="77" t="s">
         <v>653</v>
       </c>
-      <c r="B26" s="79"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="79"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="78"/>
     </row>
     <row r="27" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="11"/>
-      <c r="B27" s="80" t="s">
+      <c r="B27" s="79" t="s">
         <v>670</v>
       </c>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="80"/>
-      <c r="M27" s="80"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="79"/>
+      <c r="M27" s="79"/>
     </row>
     <row r="28" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="49" t="s">
@@ -15686,38 +15729,38 @@
       <c r="M30" s="20"/>
     </row>
     <row r="32" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="81" t="s">
+      <c r="A32" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="82"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="82"/>
-      <c r="I32" s="82"/>
-      <c r="J32" s="82"/>
-      <c r="K32" s="82"/>
-      <c r="L32" s="82"/>
-      <c r="M32" s="82"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="81"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="81"/>
+      <c r="M32" s="81"/>
     </row>
     <row r="33" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="40"/>
-      <c r="B33" s="80" t="s">
+      <c r="B33" s="79" t="s">
         <v>670</v>
       </c>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="80"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="80"/>
-      <c r="M33" s="80"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="79"/>
+      <c r="M33" s="79"/>
     </row>
     <row r="34" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="49" t="s">
@@ -15791,38 +15834,38 @@
     </row>
     <row r="36" spans="1:13" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="37" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="78" t="s">
+      <c r="A37" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="79"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="79"/>
-      <c r="J37" s="79"/>
-      <c r="K37" s="79"/>
-      <c r="L37" s="79"/>
-      <c r="M37" s="79"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="78"/>
+      <c r="H37" s="78"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="78"/>
+      <c r="K37" s="78"/>
+      <c r="L37" s="78"/>
+      <c r="M37" s="78"/>
     </row>
     <row r="38" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="11"/>
-      <c r="B38" s="80" t="s">
+      <c r="B38" s="79" t="s">
         <v>670</v>
       </c>
-      <c r="C38" s="80"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="80"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="80"/>
-      <c r="H38" s="80"/>
-      <c r="I38" s="80"/>
-      <c r="J38" s="80"/>
-      <c r="K38" s="80"/>
-      <c r="L38" s="80"/>
-      <c r="M38" s="80"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="79"/>
+      <c r="I38" s="79"/>
+      <c r="J38" s="79"/>
+      <c r="K38" s="79"/>
+      <c r="L38" s="79"/>
+      <c r="M38" s="79"/>
     </row>
     <row r="39" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="49" t="s">
@@ -15900,38 +15943,38 @@
       <c r="M41" s="20"/>
     </row>
     <row r="43" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="78" t="s">
+      <c r="A43" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="79"/>
-      <c r="C43" s="79"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="79"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="79"/>
-      <c r="H43" s="79"/>
-      <c r="I43" s="79"/>
-      <c r="J43" s="79"/>
-      <c r="K43" s="79"/>
-      <c r="L43" s="79"/>
-      <c r="M43" s="79"/>
+      <c r="B43" s="78"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="78"/>
+      <c r="H43" s="78"/>
+      <c r="I43" s="78"/>
+      <c r="J43" s="78"/>
+      <c r="K43" s="78"/>
+      <c r="L43" s="78"/>
+      <c r="M43" s="78"/>
     </row>
     <row r="44" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="11"/>
-      <c r="B44" s="80" t="s">
+      <c r="B44" s="79" t="s">
         <v>670</v>
       </c>
-      <c r="C44" s="80"/>
-      <c r="D44" s="80"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="80"/>
-      <c r="H44" s="80"/>
-      <c r="I44" s="80"/>
-      <c r="J44" s="80"/>
-      <c r="K44" s="80"/>
-      <c r="L44" s="80"/>
-      <c r="M44" s="80"/>
+      <c r="C44" s="79"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="79"/>
+      <c r="G44" s="79"/>
+      <c r="H44" s="79"/>
+      <c r="I44" s="79"/>
+      <c r="J44" s="79"/>
+      <c r="K44" s="79"/>
+      <c r="L44" s="79"/>
+      <c r="M44" s="79"/>
     </row>
     <row r="45" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="7" t="s">
@@ -16004,38 +16047,38 @@
     </row>
     <row r="48" spans="1:13" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="78" t="s">
+      <c r="A50" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="79"/>
-      <c r="C50" s="79"/>
-      <c r="D50" s="79"/>
-      <c r="E50" s="79"/>
-      <c r="F50" s="79"/>
-      <c r="G50" s="79"/>
-      <c r="H50" s="79"/>
-      <c r="I50" s="79"/>
-      <c r="J50" s="79"/>
-      <c r="K50" s="79"/>
-      <c r="L50" s="79"/>
-      <c r="M50" s="79"/>
+      <c r="B50" s="78"/>
+      <c r="C50" s="78"/>
+      <c r="D50" s="78"/>
+      <c r="E50" s="78"/>
+      <c r="F50" s="78"/>
+      <c r="G50" s="78"/>
+      <c r="H50" s="78"/>
+      <c r="I50" s="78"/>
+      <c r="J50" s="78"/>
+      <c r="K50" s="78"/>
+      <c r="L50" s="78"/>
+      <c r="M50" s="78"/>
     </row>
     <row r="51" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="11"/>
-      <c r="B51" s="77" t="s">
+      <c r="B51" s="76" t="s">
         <v>660</v>
       </c>
-      <c r="C51" s="77"/>
-      <c r="D51" s="77"/>
-      <c r="E51" s="77"/>
-      <c r="F51" s="77"/>
-      <c r="G51" s="77"/>
-      <c r="H51" s="77"/>
-      <c r="I51" s="77"/>
-      <c r="J51" s="77"/>
-      <c r="K51" s="77"/>
-      <c r="L51" s="77"/>
-      <c r="M51" s="77"/>
+      <c r="C51" s="76"/>
+      <c r="D51" s="76"/>
+      <c r="E51" s="76"/>
+      <c r="F51" s="76"/>
+      <c r="G51" s="76"/>
+      <c r="H51" s="76"/>
+      <c r="I51" s="76"/>
+      <c r="J51" s="76"/>
+      <c r="K51" s="76"/>
+      <c r="L51" s="76"/>
+      <c r="M51" s="76"/>
     </row>
     <row r="52" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="49" t="s">
@@ -16083,38 +16126,38 @@
       <c r="B54" s="6"/>
     </row>
     <row r="55" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="81" t="s">
+      <c r="A55" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="82"/>
-      <c r="C55" s="82"/>
-      <c r="D55" s="82"/>
-      <c r="E55" s="82"/>
-      <c r="F55" s="82"/>
-      <c r="G55" s="82"/>
-      <c r="H55" s="82"/>
-      <c r="I55" s="82"/>
-      <c r="J55" s="82"/>
-      <c r="K55" s="82"/>
-      <c r="L55" s="82"/>
-      <c r="M55" s="82"/>
+      <c r="B55" s="81"/>
+      <c r="C55" s="81"/>
+      <c r="D55" s="81"/>
+      <c r="E55" s="81"/>
+      <c r="F55" s="81"/>
+      <c r="G55" s="81"/>
+      <c r="H55" s="81"/>
+      <c r="I55" s="81"/>
+      <c r="J55" s="81"/>
+      <c r="K55" s="81"/>
+      <c r="L55" s="81"/>
+      <c r="M55" s="81"/>
     </row>
     <row r="56" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="11"/>
-      <c r="B56" s="80" t="s">
+      <c r="B56" s="79" t="s">
         <v>670</v>
       </c>
-      <c r="C56" s="80"/>
-      <c r="D56" s="80"/>
-      <c r="E56" s="80"/>
-      <c r="F56" s="80"/>
-      <c r="G56" s="80"/>
-      <c r="H56" s="80"/>
-      <c r="I56" s="80"/>
-      <c r="J56" s="80"/>
-      <c r="K56" s="80"/>
-      <c r="L56" s="80"/>
-      <c r="M56" s="80"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="79"/>
+      <c r="F56" s="79"/>
+      <c r="G56" s="79"/>
+      <c r="H56" s="79"/>
+      <c r="I56" s="79"/>
+      <c r="J56" s="79"/>
+      <c r="K56" s="79"/>
+      <c r="L56" s="79"/>
+      <c r="M56" s="79"/>
     </row>
     <row r="57" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="49" t="s">
@@ -16211,38 +16254,38 @@
     </row>
     <row r="60" spans="1:13" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="61" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="78" t="s">
+      <c r="A61" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="B61" s="79"/>
-      <c r="C61" s="79"/>
-      <c r="D61" s="79"/>
-      <c r="E61" s="79"/>
-      <c r="F61" s="79"/>
-      <c r="G61" s="79"/>
-      <c r="H61" s="79"/>
-      <c r="I61" s="79"/>
-      <c r="J61" s="79"/>
-      <c r="K61" s="79"/>
-      <c r="L61" s="79"/>
-      <c r="M61" s="79"/>
+      <c r="B61" s="78"/>
+      <c r="C61" s="78"/>
+      <c r="D61" s="78"/>
+      <c r="E61" s="78"/>
+      <c r="F61" s="78"/>
+      <c r="G61" s="78"/>
+      <c r="H61" s="78"/>
+      <c r="I61" s="78"/>
+      <c r="J61" s="78"/>
+      <c r="K61" s="78"/>
+      <c r="L61" s="78"/>
+      <c r="M61" s="78"/>
     </row>
     <row r="62" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="39"/>
-      <c r="B62" s="80" t="s">
+      <c r="B62" s="79" t="s">
         <v>670</v>
       </c>
-      <c r="C62" s="80"/>
-      <c r="D62" s="80"/>
-      <c r="E62" s="80"/>
-      <c r="F62" s="80"/>
-      <c r="G62" s="80"/>
-      <c r="H62" s="80"/>
-      <c r="I62" s="80"/>
-      <c r="J62" s="80"/>
-      <c r="K62" s="80"/>
-      <c r="L62" s="80"/>
-      <c r="M62" s="80"/>
+      <c r="C62" s="79"/>
+      <c r="D62" s="79"/>
+      <c r="E62" s="79"/>
+      <c r="F62" s="79"/>
+      <c r="G62" s="79"/>
+      <c r="H62" s="79"/>
+      <c r="I62" s="79"/>
+      <c r="J62" s="79"/>
+      <c r="K62" s="79"/>
+      <c r="L62" s="79"/>
+      <c r="M62" s="79"/>
     </row>
     <row r="63" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="49" t="s">
@@ -16360,21 +16403,21 @@
     </row>
     <row r="67" spans="1:26" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="68" spans="1:26" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="78" t="s">
+      <c r="A68" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="B68" s="79"/>
-      <c r="C68" s="79"/>
-      <c r="D68" s="79"/>
-      <c r="E68" s="79"/>
-      <c r="F68" s="79"/>
-      <c r="G68" s="79"/>
-      <c r="H68" s="79"/>
-      <c r="I68" s="79"/>
-      <c r="J68" s="79"/>
-      <c r="K68" s="79"/>
-      <c r="L68" s="79"/>
-      <c r="M68" s="79"/>
+      <c r="B68" s="78"/>
+      <c r="C68" s="78"/>
+      <c r="D68" s="78"/>
+      <c r="E68" s="78"/>
+      <c r="F68" s="78"/>
+      <c r="G68" s="78"/>
+      <c r="H68" s="78"/>
+      <c r="I68" s="78"/>
+      <c r="J68" s="78"/>
+      <c r="K68" s="78"/>
+      <c r="L68" s="78"/>
+      <c r="M68" s="78"/>
       <c r="N68" s="32"/>
       <c r="O68" s="32"/>
       <c r="P68" s="3"/>
@@ -16391,22 +16434,22 @@
     </row>
     <row r="69" spans="1:26" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="11"/>
-      <c r="B69" s="80" t="s">
+      <c r="B69" s="79" t="s">
         <v>670</v>
       </c>
-      <c r="C69" s="80"/>
-      <c r="D69" s="80"/>
-      <c r="E69" s="80"/>
-      <c r="F69" s="80"/>
-      <c r="G69" s="80"/>
-      <c r="H69" s="80"/>
-      <c r="I69" s="80"/>
-      <c r="J69" s="80"/>
-      <c r="K69" s="80"/>
-      <c r="L69" s="80"/>
-      <c r="M69" s="80"/>
-      <c r="N69" s="80"/>
-      <c r="O69" s="80"/>
+      <c r="C69" s="79"/>
+      <c r="D69" s="79"/>
+      <c r="E69" s="79"/>
+      <c r="F69" s="79"/>
+      <c r="G69" s="79"/>
+      <c r="H69" s="79"/>
+      <c r="I69" s="79"/>
+      <c r="J69" s="79"/>
+      <c r="K69" s="79"/>
+      <c r="L69" s="79"/>
+      <c r="M69" s="79"/>
+      <c r="N69" s="79"/>
+      <c r="O69" s="79"/>
       <c r="P69" s="4"/>
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
@@ -16513,38 +16556,38 @@
       </c>
     </row>
     <row r="73" spans="1:26" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="78" t="s">
+      <c r="A73" s="77" t="s">
         <v>661</v>
       </c>
-      <c r="B73" s="79"/>
-      <c r="C73" s="79"/>
-      <c r="D73" s="79"/>
-      <c r="E73" s="79"/>
-      <c r="F73" s="79"/>
-      <c r="G73" s="79"/>
-      <c r="H73" s="79"/>
-      <c r="I73" s="79"/>
-      <c r="J73" s="79"/>
-      <c r="K73" s="79"/>
-      <c r="L73" s="79"/>
-      <c r="M73" s="79"/>
+      <c r="B73" s="78"/>
+      <c r="C73" s="78"/>
+      <c r="D73" s="78"/>
+      <c r="E73" s="78"/>
+      <c r="F73" s="78"/>
+      <c r="G73" s="78"/>
+      <c r="H73" s="78"/>
+      <c r="I73" s="78"/>
+      <c r="J73" s="78"/>
+      <c r="K73" s="78"/>
+      <c r="L73" s="78"/>
+      <c r="M73" s="78"/>
     </row>
     <row r="74" spans="1:26" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="11"/>
-      <c r="B74" s="80" t="s">
+      <c r="B74" s="79" t="s">
         <v>670</v>
       </c>
-      <c r="C74" s="80"/>
-      <c r="D74" s="80"/>
-      <c r="E74" s="80"/>
-      <c r="F74" s="80"/>
-      <c r="G74" s="80"/>
-      <c r="H74" s="80"/>
-      <c r="I74" s="80"/>
-      <c r="J74" s="80"/>
-      <c r="K74" s="80"/>
-      <c r="L74" s="80"/>
-      <c r="M74" s="80"/>
+      <c r="C74" s="79"/>
+      <c r="D74" s="79"/>
+      <c r="E74" s="79"/>
+      <c r="F74" s="79"/>
+      <c r="G74" s="79"/>
+      <c r="H74" s="79"/>
+      <c r="I74" s="79"/>
+      <c r="J74" s="79"/>
+      <c r="K74" s="79"/>
+      <c r="L74" s="79"/>
+      <c r="M74" s="79"/>
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
       <c r="P74" s="4"/>
@@ -16784,38 +16827,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="5" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11"/>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="79" t="s">
         <v>670</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="49" t="s">
@@ -17130,38 +17173,38 @@
       <c r="M14" s="31"/>
     </row>
     <row r="16" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="83" t="s">
+      <c r="A16" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="81"/>
     </row>
     <row r="17" spans="1:13" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="10"/>
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="83" t="s">
         <v>670</v>
       </c>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="83"/>
     </row>
     <row r="18" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
@@ -17536,61 +17579,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="5" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="77" t="s">
         <v>624</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11"/>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="79" t="s">
         <v>670</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
     </row>
     <row r="3" spans="1:13" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="58" t="s">
         <v>587</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="58" t="s">
         <v>662</v>
       </c>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="31" t="s">
@@ -17639,67 +17682,67 @@
       <c r="M5" s="20"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="79"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11"/>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="79" t="s">
         <v>670</v>
       </c>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="80"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="79"/>
     </row>
     <row r="9" spans="1:13" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="58" t="s">
         <v>587</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="58" t="s">
         <v>665</v>
       </c>
-      <c r="G9" s="59" t="s">
+      <c r="G9" s="58" t="s">
         <v>662</v>
       </c>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
     </row>
     <row r="10" spans="1:13" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="13" t="s">
@@ -17835,77 +17878,77 @@
       <c r="M16" s="31"/>
     </row>
     <row r="18" spans="1:13" s="5" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="78" t="s">
+      <c r="A18" s="77" t="s">
         <v>625</v>
       </c>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
     </row>
     <row r="19" spans="1:13" s="5" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="10"/>
-      <c r="B19" s="80" t="s">
+      <c r="B19" s="79" t="s">
         <v>670</v>
       </c>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="80"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="79"/>
     </row>
     <row r="20" spans="1:13" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="58" t="s">
         <v>587</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="E20" s="59" t="s">
+      <c r="E20" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="59" t="s">
+      <c r="F20" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="G20" s="59" t="s">
+      <c r="G20" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="H20" s="59" t="s">
+      <c r="H20" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="I20" s="59" t="s">
+      <c r="I20" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="J20" s="59" t="s">
+      <c r="J20" s="58" t="s">
         <v>666</v>
       </c>
-      <c r="K20" s="59" t="s">
+      <c r="K20" s="58" t="s">
         <v>667</v>
       </c>
-      <c r="L20" s="59" t="s">
+      <c r="L20" s="58" t="s">
         <v>665</v>
       </c>
-      <c r="M20" s="59" t="s">
+      <c r="M20" s="58" t="s">
         <v>662</v>
       </c>
     </row>
@@ -18276,102 +18319,102 @@
       <c r="M34" s="20"/>
     </row>
     <row r="36" spans="1:18" s="5" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="81" t="s">
+      <c r="A36" s="80" t="s">
         <v>162</v>
       </c>
-      <c r="B36" s="85"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="85"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="85"/>
-      <c r="I36" s="85"/>
-      <c r="J36" s="85"/>
-      <c r="K36" s="85"/>
-      <c r="L36" s="85"/>
-      <c r="M36" s="85"/>
-      <c r="N36" s="65"/>
-      <c r="O36" s="65"/>
-      <c r="P36" s="65"/>
-      <c r="Q36" s="65"/>
-      <c r="R36" s="65"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="84"/>
+      <c r="I36" s="84"/>
+      <c r="J36" s="84"/>
+      <c r="K36" s="84"/>
+      <c r="L36" s="84"/>
+      <c r="M36" s="84"/>
+      <c r="N36" s="64"/>
+      <c r="O36" s="64"/>
+      <c r="P36" s="64"/>
+      <c r="Q36" s="64"/>
+      <c r="R36" s="64"/>
     </row>
     <row r="37" spans="1:18" s="5" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="10"/>
-      <c r="B37" s="80" t="s">
+      <c r="B37" s="79" t="s">
         <v>670</v>
       </c>
-      <c r="C37" s="80"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="80"/>
-      <c r="H37" s="80"/>
-      <c r="I37" s="80"/>
-      <c r="J37" s="80"/>
-      <c r="K37" s="80"/>
-      <c r="L37" s="80"/>
-      <c r="M37" s="80"/>
-      <c r="N37" s="64"/>
-      <c r="O37" s="64"/>
-      <c r="P37" s="64"/>
-      <c r="Q37" s="64"/>
-      <c r="R37" s="64"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="79"/>
+      <c r="J37" s="79"/>
+      <c r="K37" s="79"/>
+      <c r="L37" s="79"/>
+      <c r="M37" s="79"/>
+      <c r="N37" s="63"/>
+      <c r="O37" s="63"/>
+      <c r="P37" s="63"/>
+      <c r="Q37" s="63"/>
+      <c r="R37" s="63"/>
     </row>
     <row r="38" spans="1:18" customFormat="1" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="59" t="s">
+      <c r="A38" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="59" t="s">
+      <c r="B38" s="58" t="s">
         <v>587</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="D38" s="59" t="s">
+      <c r="D38" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="E38" s="59" t="s">
+      <c r="E38" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="F38" s="59" t="s">
+      <c r="F38" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="G38" s="59" t="s">
+      <c r="G38" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="H38" s="59" t="s">
+      <c r="H38" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="I38" s="59" t="s">
+      <c r="I38" s="58" t="s">
         <v>168</v>
       </c>
-      <c r="J38" s="59" t="s">
+      <c r="J38" s="58" t="s">
         <v>169</v>
       </c>
-      <c r="K38" s="59" t="s">
+      <c r="K38" s="58" t="s">
         <v>170</v>
       </c>
-      <c r="L38" s="59" t="s">
+      <c r="L38" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="M38" s="59" t="s">
+      <c r="M38" s="58" t="s">
         <v>172</v>
       </c>
-      <c r="N38" s="59" t="s">
+      <c r="N38" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="O38" s="59" t="s">
+      <c r="O38" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="P38" s="59" t="s">
+      <c r="P38" s="58" t="s">
         <v>175</v>
       </c>
-      <c r="Q38" s="59" t="s">
+      <c r="Q38" s="58" t="s">
         <v>176</v>
       </c>
-      <c r="R38" s="59" t="s">
+      <c r="R38" s="58" t="s">
         <v>177</v>
       </c>
     </row>
@@ -18518,44 +18561,44 @@
       <c r="R44" s="20"/>
     </row>
     <row r="46" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="78" t="s">
+      <c r="A46" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="B46" s="79"/>
-      <c r="C46" s="79"/>
-      <c r="D46" s="79"/>
-      <c r="E46" s="79"/>
-      <c r="F46" s="79"/>
-      <c r="G46" s="79"/>
-      <c r="H46" s="79"/>
-      <c r="I46" s="79"/>
-      <c r="J46" s="79"/>
-      <c r="K46" s="79"/>
-      <c r="L46" s="79"/>
-      <c r="M46" s="79"/>
+      <c r="B46" s="78"/>
+      <c r="C46" s="78"/>
+      <c r="D46" s="78"/>
+      <c r="E46" s="78"/>
+      <c r="F46" s="78"/>
+      <c r="G46" s="78"/>
+      <c r="H46" s="78"/>
+      <c r="I46" s="78"/>
+      <c r="J46" s="78"/>
+      <c r="K46" s="78"/>
+      <c r="L46" s="78"/>
+      <c r="M46" s="78"/>
     </row>
     <row r="47" spans="1:18" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="10"/>
-      <c r="B47" s="80" t="s">
+      <c r="B47" s="79" t="s">
         <v>670</v>
       </c>
-      <c r="C47" s="80"/>
-      <c r="D47" s="80"/>
-      <c r="E47" s="80"/>
-      <c r="F47" s="80"/>
-      <c r="G47" s="80"/>
-      <c r="H47" s="80"/>
-      <c r="I47" s="80"/>
-      <c r="J47" s="80"/>
-      <c r="K47" s="80"/>
-      <c r="L47" s="80"/>
-      <c r="M47" s="80"/>
+      <c r="C47" s="79"/>
+      <c r="D47" s="79"/>
+      <c r="E47" s="79"/>
+      <c r="F47" s="79"/>
+      <c r="G47" s="79"/>
+      <c r="H47" s="79"/>
+      <c r="I47" s="79"/>
+      <c r="J47" s="79"/>
+      <c r="K47" s="79"/>
+      <c r="L47" s="79"/>
+      <c r="M47" s="79"/>
     </row>
     <row r="48" spans="1:18" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="59" t="s">
+      <c r="B48" s="58" t="s">
         <v>587</v>
       </c>
       <c r="C48" s="7" t="s">
@@ -18723,44 +18766,44 @@
       <c r="M56" s="20"/>
     </row>
     <row r="58" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A58" s="83" t="s">
+      <c r="A58" s="82" t="s">
         <v>186</v>
       </c>
-      <c r="B58" s="82"/>
-      <c r="C58" s="82"/>
-      <c r="D58" s="82"/>
-      <c r="E58" s="82"/>
-      <c r="F58" s="82"/>
-      <c r="G58" s="82"/>
-      <c r="H58" s="82"/>
-      <c r="I58" s="82"/>
-      <c r="J58" s="82"/>
-      <c r="K58" s="82"/>
-      <c r="L58" s="82"/>
-      <c r="M58" s="82"/>
+      <c r="B58" s="81"/>
+      <c r="C58" s="81"/>
+      <c r="D58" s="81"/>
+      <c r="E58" s="81"/>
+      <c r="F58" s="81"/>
+      <c r="G58" s="81"/>
+      <c r="H58" s="81"/>
+      <c r="I58" s="81"/>
+      <c r="J58" s="81"/>
+      <c r="K58" s="81"/>
+      <c r="L58" s="81"/>
+      <c r="M58" s="81"/>
     </row>
     <row r="59" spans="1:13" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A59" s="10"/>
-      <c r="B59" s="80" t="s">
+      <c r="B59" s="79" t="s">
         <v>671</v>
       </c>
-      <c r="C59" s="80"/>
-      <c r="D59" s="80"/>
-      <c r="E59" s="80"/>
-      <c r="F59" s="80"/>
-      <c r="G59" s="80"/>
-      <c r="H59" s="80"/>
-      <c r="I59" s="80"/>
-      <c r="J59" s="80"/>
-      <c r="K59" s="80"/>
-      <c r="L59" s="80"/>
-      <c r="M59" s="80"/>
+      <c r="C59" s="79"/>
+      <c r="D59" s="79"/>
+      <c r="E59" s="79"/>
+      <c r="F59" s="79"/>
+      <c r="G59" s="79"/>
+      <c r="H59" s="79"/>
+      <c r="I59" s="79"/>
+      <c r="J59" s="79"/>
+      <c r="K59" s="79"/>
+      <c r="L59" s="79"/>
+      <c r="M59" s="79"/>
     </row>
     <row r="60" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B60" s="59" t="s">
+      <c r="B60" s="58" t="s">
         <v>587</v>
       </c>
       <c r="C60" s="7" t="s">
@@ -18900,38 +18943,38 @@
       <c r="M66" s="20"/>
     </row>
     <row r="68" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A68" s="83" t="s">
+      <c r="A68" s="82" t="s">
         <v>189</v>
       </c>
-      <c r="B68" s="82"/>
-      <c r="C68" s="82"/>
-      <c r="D68" s="82"/>
-      <c r="E68" s="82"/>
-      <c r="F68" s="82"/>
-      <c r="G68" s="82"/>
-      <c r="H68" s="82"/>
-      <c r="I68" s="82"/>
-      <c r="J68" s="82"/>
-      <c r="K68" s="82"/>
-      <c r="L68" s="82"/>
-      <c r="M68" s="82"/>
+      <c r="B68" s="81"/>
+      <c r="C68" s="81"/>
+      <c r="D68" s="81"/>
+      <c r="E68" s="81"/>
+      <c r="F68" s="81"/>
+      <c r="G68" s="81"/>
+      <c r="H68" s="81"/>
+      <c r="I68" s="81"/>
+      <c r="J68" s="81"/>
+      <c r="K68" s="81"/>
+      <c r="L68" s="81"/>
+      <c r="M68" s="81"/>
     </row>
     <row r="69" spans="1:13" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A69" s="10"/>
-      <c r="B69" s="80" t="s">
+      <c r="B69" s="79" t="s">
         <v>672</v>
       </c>
-      <c r="C69" s="80"/>
-      <c r="D69" s="80"/>
-      <c r="E69" s="80"/>
-      <c r="F69" s="80"/>
-      <c r="G69" s="80"/>
-      <c r="H69" s="80"/>
-      <c r="I69" s="80"/>
-      <c r="J69" s="80"/>
-      <c r="K69" s="80"/>
-      <c r="L69" s="80"/>
-      <c r="M69" s="80"/>
+      <c r="C69" s="79"/>
+      <c r="D69" s="79"/>
+      <c r="E69" s="79"/>
+      <c r="F69" s="79"/>
+      <c r="G69" s="79"/>
+      <c r="H69" s="79"/>
+      <c r="I69" s="79"/>
+      <c r="J69" s="79"/>
+      <c r="K69" s="79"/>
+      <c r="L69" s="79"/>
+      <c r="M69" s="79"/>
     </row>
     <row r="70" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="7" t="s">
@@ -19232,40 +19275,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
     </row>
     <row r="2" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="9"/>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="79" t="s">
         <v>670</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
     </row>
@@ -19361,38 +19404,38 @@
     </row>
     <row r="6" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:15" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="77" t="s">
         <v>211</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="79"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78"/>
     </row>
     <row r="8" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="12"/>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="79" t="s">
         <v>670</v>
       </c>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="80"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="79"/>
     </row>
     <row r="9" spans="1:15" s="3" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
@@ -19507,38 +19550,38 @@
     </row>
     <row r="12" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="1:15" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="77" t="s">
         <v>223</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="78"/>
     </row>
     <row r="14" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="12"/>
-      <c r="B14" s="80" t="s">
+      <c r="B14" s="79" t="s">
         <v>670</v>
       </c>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="80"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="79"/>
     </row>
     <row r="15" spans="1:15" s="3" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="8" t="s">
@@ -19652,38 +19695,38 @@
       <c r="M17" s="20"/>
     </row>
     <row r="19" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="88" t="s">
+      <c r="A19" s="87" t="s">
         <v>227</v>
       </c>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="79"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="78"/>
     </row>
     <row r="20" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="39"/>
-      <c r="B20" s="80" t="s">
+      <c r="B20" s="79" t="s">
         <v>670</v>
       </c>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="80"/>
-      <c r="K20" s="80"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="80"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
     </row>
     <row r="21" spans="1:14" s="3" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
@@ -19759,40 +19802,40 @@
       <c r="M23" s="20"/>
     </row>
     <row r="25" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="78" t="s">
+      <c r="A25" s="77" t="s">
         <v>233</v>
       </c>
-      <c r="B25" s="79"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="79"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="60"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="78"/>
+      <c r="L25" s="78"/>
+      <c r="M25" s="78"/>
+      <c r="N25" s="59"/>
     </row>
     <row r="26" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="11"/>
-      <c r="B26" s="86" t="s">
+      <c r="B26" s="85" t="s">
         <v>673</v>
       </c>
-      <c r="C26" s="87"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="87"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="87"/>
-      <c r="M26" s="87"/>
-      <c r="N26" s="87"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="86"/>
+      <c r="M26" s="86"/>
+      <c r="N26" s="86"/>
     </row>
     <row r="27" spans="1:14" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="49" t="s">
@@ -19895,7 +19938,7 @@
     <mergeCell ref="B14:M14"/>
     <mergeCell ref="A19:M19"/>
   </mergeCells>
-  <dataValidations count="35">
+  <dataValidations count="34">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G4 J10:J11 J16:J17" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"inband,oob"</formula1>
     </dataValidation>
@@ -19977,7 +20020,7 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A28" xr:uid="{00000000-0002-0000-0300-000016000000}">
       <formula1>"web_security"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D28" xr:uid="{C1C2CF55-5029-458D-ACEC-ED0BE4B7B430}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D28 H28" xr:uid="{C1C2CF55-5029-458D-ACEC-ED0BE4B7B430}">
       <formula1>"disable,enable"</formula1>
     </dataValidation>
     <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="E28" xr:uid="{B16AC26A-A520-435C-A736-D4EEE13724CE}">
@@ -20015,9 +20058,6 @@
       <formula1>1</formula1>
       <formula2>1440</formula2>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H28" xr:uid="{000911BD-C4B5-4A0C-B992-4B4016A03619}">
-      <formula1>"disable,enable"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B11 B16:B17 B22:B23 B28 B4" xr:uid="{0E5D7FFD-4BE3-4623-B073-BCE99ACCD29B}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,Grp_A,Grp_B,Grp_C,Grp_D,Grp_E,Grp_F"</formula1>
     </dataValidation>
@@ -20037,54 +20077,54 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15" style="71" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="71" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1796875" style="71" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" style="71" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.81640625" style="71" customWidth="1"/>
-    <col min="6" max="6" width="18" style="71" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.81640625" style="71" customWidth="1"/>
-    <col min="8" max="8" width="18" style="71" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="71" customWidth="1"/>
-    <col min="10" max="10" width="18.1796875" style="71" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.453125" style="71" customWidth="1"/>
-    <col min="12" max="13" width="19.1796875" style="71" customWidth="1"/>
-    <col min="14" max="16384" width="9.1796875" style="71"/>
+    <col min="1" max="1" width="15" style="70" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="70" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" style="70" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" style="70" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.81640625" style="70" customWidth="1"/>
+    <col min="6" max="6" width="18" style="70" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.81640625" style="70" customWidth="1"/>
+    <col min="8" max="8" width="18" style="70" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="70" customWidth="1"/>
+    <col min="10" max="10" width="18.1796875" style="70" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.453125" style="70" customWidth="1"/>
+    <col min="12" max="13" width="19.1796875" style="70" customWidth="1"/>
+    <col min="14" max="16384" width="9.1796875" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="72" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:13" s="71" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11"/>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="79" t="s">
         <v>670</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="49" t="s">
@@ -20399,38 +20439,38 @@
       <c r="M14" s="31"/>
     </row>
     <row r="16" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="83" t="s">
+      <c r="A16" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="81"/>
     </row>
     <row r="17" spans="1:13" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="10"/>
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="83" t="s">
         <v>670</v>
       </c>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="83"/>
     </row>
     <row r="18" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
@@ -20803,38 +20843,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="5" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="89" t="s">
         <v>248</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
     </row>
     <row r="2" spans="1:13" s="5" customFormat="1" ht="74.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="61"/>
-      <c r="B2" s="89" t="s">
+      <c r="A2" s="60"/>
+      <c r="B2" s="88" t="s">
         <v>630</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="49" t="s">
@@ -21251,38 +21291,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="5" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="89" t="s">
         <v>255</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
     </row>
     <row r="2" spans="1:13" s="5" customFormat="1" ht="165.65" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10"/>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="88" t="s">
         <v>631</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="49" t="s">
@@ -21516,38 +21556,38 @@
       <c r="M15" s="20"/>
     </row>
     <row r="17" spans="1:13" s="5" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="90" t="s">
+      <c r="A17" s="89" t="s">
         <v>264</v>
       </c>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="79"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="78"/>
     </row>
     <row r="18" spans="1:13" s="5" customFormat="1" ht="241.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="10"/>
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="90" t="s">
         <v>629</v>
       </c>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="91"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="91"/>
-      <c r="M18" s="91"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="90"/>
     </row>
     <row r="19" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="49" t="s">
@@ -21845,8 +21885,8 @@
     <col min="13" max="13" width="17.453125" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.08984375" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.1796875" style="67" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.6328125" style="67" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.1796875" style="66" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.6328125" style="66" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.7265625" style="4" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16.1796875" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.26953125" style="4" bestFit="1" customWidth="1"/>
@@ -21854,39 +21894,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="89" t="s">
         <v>281</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
       <c r="N1" s="44"/>
     </row>
     <row r="2" spans="1:21" ht="53.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10"/>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="88" t="s">
         <v>916</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
       <c r="N2" s="10"/>
       <c r="O2"/>
       <c r="P2"/>
@@ -22197,41 +22237,41 @@
       <c r="N11" s="20"/>
     </row>
     <row r="13" spans="1:21" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="89" t="s">
         <v>910</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="78"/>
       <c r="N13" s="44"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
     </row>
     <row r="14" spans="1:21" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="10"/>
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="88" t="s">
         <v>669</v>
       </c>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="89"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="88"/>
       <c r="N14" s="10"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
@@ -22605,7 +22645,7 @@
       <c r="N23" s="20"/>
       <c r="Q23" s="4"/>
     </row>
-    <row r="24" spans="1:17" s="67" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:17" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="31" t="s">
         <v>1088</v>
       </c>
@@ -22643,7 +22683,7 @@
       <c r="M24" s="31"/>
       <c r="N24" s="31"/>
     </row>
-    <row r="25" spans="1:17" s="67" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:17" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="20" t="s">
         <v>1088</v>
       </c>
@@ -22681,7 +22721,7 @@
       <c r="M25" s="20"/>
       <c r="N25" s="20"/>
     </row>
-    <row r="26" spans="1:17" s="67" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:17" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="31"/>
       <c r="B26" s="31"/>
       <c r="C26" s="31"/>
@@ -22697,7 +22737,7 @@
       <c r="M26" s="31"/>
       <c r="N26" s="31"/>
     </row>
-    <row r="27" spans="1:17" s="67" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:17" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="20"/>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
@@ -22713,50 +22753,50 @@
       <c r="M27" s="20"/>
       <c r="N27" s="20"/>
     </row>
-    <row r="28" spans="1:17" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:17" s="67" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="90" t="s">
+    <row r="28" spans="1:17" s="66" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:17" s="66" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="89" t="s">
         <v>911</v>
       </c>
-      <c r="B29" s="79"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="79"/>
-      <c r="K29" s="79"/>
-      <c r="L29" s="79"/>
-      <c r="M29" s="79"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="78"/>
       <c r="N29" s="44"/>
       <c r="O29" s="44"/>
       <c r="P29" s="44"/>
       <c r="Q29" s="44"/>
     </row>
-    <row r="30" spans="1:17" s="67" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:17" s="66" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="10"/>
-      <c r="B30" s="89" t="s">
+      <c r="B30" s="88" t="s">
         <v>669</v>
       </c>
-      <c r="C30" s="89"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="89"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="89"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="89"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="88"/>
+      <c r="K30" s="88"/>
+      <c r="L30" s="88"/>
+      <c r="M30" s="88"/>
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
       <c r="Q30" s="10"/>
     </row>
-    <row r="31" spans="1:17" s="67" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:17" s="66" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="7" t="s">
         <v>0</v>
       </c>
@@ -22809,7 +22849,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="32" spans="1:17" s="67" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:17" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="31" t="s">
         <v>997</v>
       </c>
@@ -22846,13 +22886,13 @@
         <v>955</v>
       </c>
       <c r="N32" s="31"/>
-      <c r="O32" s="69"/>
-      <c r="P32" s="69"/>
-      <c r="Q32" s="69" t="s">
+      <c r="O32" s="68"/>
+      <c r="P32" s="68"/>
+      <c r="Q32" s="68" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="33" spans="1:17" s="67" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:17" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="20" t="s">
         <v>997</v>
       </c>
@@ -22889,13 +22929,13 @@
         <v>956</v>
       </c>
       <c r="N33" s="20"/>
-      <c r="O33" s="70"/>
-      <c r="P33" s="70"/>
-      <c r="Q33" s="70" t="s">
+      <c r="O33" s="69"/>
+      <c r="P33" s="69"/>
+      <c r="Q33" s="69" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="67" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:17" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="31" t="s">
         <v>997</v>
       </c>
@@ -22932,13 +22972,13 @@
         <v>957</v>
       </c>
       <c r="N34" s="31"/>
-      <c r="O34" s="69"/>
-      <c r="P34" s="69"/>
-      <c r="Q34" s="69" t="s">
+      <c r="O34" s="68"/>
+      <c r="P34" s="68"/>
+      <c r="Q34" s="68" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="67" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:17" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="20" t="s">
         <v>997</v>
       </c>
@@ -22975,13 +23015,13 @@
         <v>958</v>
       </c>
       <c r="N35" s="20"/>
-      <c r="O35" s="70"/>
-      <c r="P35" s="70"/>
-      <c r="Q35" s="70" t="s">
+      <c r="O35" s="69"/>
+      <c r="P35" s="69"/>
+      <c r="Q35" s="69" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="67" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:17" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="31" t="s">
         <v>997</v>
       </c>
@@ -23018,13 +23058,13 @@
         <v>959</v>
       </c>
       <c r="N36" s="31"/>
-      <c r="O36" s="69"/>
-      <c r="P36" s="69"/>
-      <c r="Q36" s="69" t="s">
+      <c r="O36" s="68"/>
+      <c r="P36" s="68"/>
+      <c r="Q36" s="68" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="67" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:17" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
         <v>997</v>
       </c>
@@ -23061,13 +23101,13 @@
         <v>960</v>
       </c>
       <c r="N37" s="20"/>
-      <c r="O37" s="70"/>
-      <c r="P37" s="70"/>
-      <c r="Q37" s="70" t="s">
+      <c r="O37" s="69"/>
+      <c r="P37" s="69"/>
+      <c r="Q37" s="69" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="38" spans="1:17" s="67" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:17" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="31" t="s">
         <v>997</v>
       </c>
@@ -23104,13 +23144,13 @@
         <v>961</v>
       </c>
       <c r="N38" s="31"/>
-      <c r="O38" s="69"/>
-      <c r="P38" s="69"/>
-      <c r="Q38" s="69" t="s">
+      <c r="O38" s="68"/>
+      <c r="P38" s="68"/>
+      <c r="Q38" s="68" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="39" spans="1:17" s="67" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:17" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="20" t="s">
         <v>997</v>
       </c>
@@ -23147,13 +23187,13 @@
         <v>962</v>
       </c>
       <c r="N39" s="20"/>
-      <c r="O39" s="70"/>
-      <c r="P39" s="70"/>
-      <c r="Q39" s="70" t="s">
+      <c r="O39" s="69"/>
+      <c r="P39" s="69"/>
+      <c r="Q39" s="69" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="40" spans="1:17" s="67" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:17" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="31" t="s">
         <v>997</v>
       </c>
@@ -23196,11 +23236,11 @@
       <c r="N40" s="31" t="s">
         <v>964</v>
       </c>
-      <c r="O40" s="69"/>
-      <c r="P40" s="69"/>
-      <c r="Q40" s="69"/>
-    </row>
-    <row r="41" spans="1:17" s="67" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O40" s="68"/>
+      <c r="P40" s="68"/>
+      <c r="Q40" s="68"/>
+    </row>
+    <row r="41" spans="1:17" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="20" t="s">
         <v>997</v>
       </c>
@@ -23243,11 +23283,11 @@
       <c r="N41" s="20" t="s">
         <v>966</v>
       </c>
-      <c r="O41" s="70"/>
-      <c r="P41" s="70"/>
-      <c r="Q41" s="70"/>
-    </row>
-    <row r="42" spans="1:17" s="67" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O41" s="69"/>
+      <c r="P41" s="69"/>
+      <c r="Q41" s="69"/>
+    </row>
+    <row r="42" spans="1:17" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="31" t="s">
         <v>997</v>
       </c>
@@ -23282,11 +23322,11 @@
         <v>967</v>
       </c>
       <c r="N42" s="31"/>
-      <c r="O42" s="69"/>
-      <c r="P42" s="69"/>
-      <c r="Q42" s="69"/>
-    </row>
-    <row r="43" spans="1:17" s="67" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O42" s="68"/>
+      <c r="P42" s="68"/>
+      <c r="Q42" s="68"/>
+    </row>
+    <row r="43" spans="1:17" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="20" t="s">
         <v>997</v>
       </c>
@@ -23321,11 +23361,11 @@
         <v>968</v>
       </c>
       <c r="N43" s="20"/>
-      <c r="O43" s="70"/>
-      <c r="P43" s="70"/>
-      <c r="Q43" s="70"/>
-    </row>
-    <row r="44" spans="1:17" s="67" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O43" s="69"/>
+      <c r="P43" s="69"/>
+      <c r="Q43" s="69"/>
+    </row>
+    <row r="44" spans="1:17" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="31" t="s">
         <v>997</v>
       </c>
@@ -23358,11 +23398,11 @@
         <v>969</v>
       </c>
       <c r="N44" s="31"/>
-      <c r="O44" s="69"/>
-      <c r="P44" s="69"/>
-      <c r="Q44" s="69"/>
-    </row>
-    <row r="45" spans="1:17" s="67" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O44" s="68"/>
+      <c r="P44" s="68"/>
+      <c r="Q44" s="68"/>
+    </row>
+    <row r="45" spans="1:17" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="20" t="s">
         <v>997</v>
       </c>
@@ -23395,11 +23435,11 @@
         <v>970</v>
       </c>
       <c r="N45" s="20"/>
-      <c r="O45" s="70"/>
-      <c r="P45" s="70"/>
-      <c r="Q45" s="70"/>
-    </row>
-    <row r="46" spans="1:17" s="67" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O45" s="69"/>
+      <c r="P45" s="69"/>
+      <c r="Q45" s="69"/>
+    </row>
+    <row r="46" spans="1:17" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="31"/>
       <c r="B46" s="31"/>
       <c r="C46" s="31"/>
@@ -23414,11 +23454,11 @@
       <c r="L46" s="33"/>
       <c r="M46" s="31"/>
       <c r="N46" s="31"/>
-      <c r="O46" s="69"/>
-      <c r="P46" s="69"/>
-      <c r="Q46" s="69"/>
-    </row>
-    <row r="47" spans="1:17" s="67" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O46" s="68"/>
+      <c r="P46" s="68"/>
+      <c r="Q46" s="68"/>
+    </row>
+    <row r="47" spans="1:17" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="20"/>
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
@@ -23433,47 +23473,47 @@
       <c r="L47" s="17"/>
       <c r="M47" s="20"/>
       <c r="N47" s="20"/>
-      <c r="O47" s="70"/>
-      <c r="P47" s="70"/>
-      <c r="Q47" s="70"/>
-    </row>
-    <row r="49" spans="1:14" s="67" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A49" s="90" t="s">
+      <c r="O47" s="69"/>
+      <c r="P47" s="69"/>
+      <c r="Q47" s="69"/>
+    </row>
+    <row r="49" spans="1:14" s="66" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A49" s="89" t="s">
         <v>971</v>
       </c>
-      <c r="B49" s="79"/>
-      <c r="C49" s="79"/>
-      <c r="D49" s="79"/>
-      <c r="E49" s="79"/>
-      <c r="F49" s="79"/>
-      <c r="G49" s="79"/>
-      <c r="H49" s="79"/>
-      <c r="I49" s="79"/>
-      <c r="J49" s="79"/>
-      <c r="K49" s="79"/>
-      <c r="L49" s="79"/>
-      <c r="M49" s="79"/>
+      <c r="B49" s="78"/>
+      <c r="C49" s="78"/>
+      <c r="D49" s="78"/>
+      <c r="E49" s="78"/>
+      <c r="F49" s="78"/>
+      <c r="G49" s="78"/>
+      <c r="H49" s="78"/>
+      <c r="I49" s="78"/>
+      <c r="J49" s="78"/>
+      <c r="K49" s="78"/>
+      <c r="L49" s="78"/>
+      <c r="M49" s="78"/>
       <c r="N49" s="44"/>
     </row>
-    <row r="50" spans="1:14" s="67" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:14" s="66" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A50" s="10"/>
-      <c r="B50" s="89" t="s">
+      <c r="B50" s="88" t="s">
         <v>669</v>
       </c>
-      <c r="C50" s="89"/>
-      <c r="D50" s="89"/>
-      <c r="E50" s="89"/>
-      <c r="F50" s="89"/>
-      <c r="G50" s="89"/>
-      <c r="H50" s="89"/>
-      <c r="I50" s="89"/>
-      <c r="J50" s="89"/>
-      <c r="K50" s="89"/>
-      <c r="L50" s="89"/>
-      <c r="M50" s="89"/>
+      <c r="C50" s="88"/>
+      <c r="D50" s="88"/>
+      <c r="E50" s="88"/>
+      <c r="F50" s="88"/>
+      <c r="G50" s="88"/>
+      <c r="H50" s="88"/>
+      <c r="I50" s="88"/>
+      <c r="J50" s="88"/>
+      <c r="K50" s="88"/>
+      <c r="L50" s="88"/>
+      <c r="M50" s="88"/>
       <c r="N50" s="10"/>
     </row>
-    <row r="51" spans="1:14" s="71" customFormat="1" ht="47.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" s="70" customFormat="1" ht="47.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7" t="s">
@@ -23507,7 +23547,7 @@
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
     </row>
-    <row r="52" spans="1:14" s="67" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" s="66" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="7" t="s">
         <v>0</v>
       </c>
@@ -23547,7 +23587,7 @@
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
     </row>
-    <row r="53" spans="1:14" s="67" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="31" t="s">
         <v>1001</v>
       </c>
@@ -23581,7 +23621,7 @@
       <c r="M53" s="31"/>
       <c r="N53" s="31"/>
     </row>
-    <row r="54" spans="1:14" s="67" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="20"/>
       <c r="B54" s="15"/>
       <c r="C54" s="20"/>
@@ -23597,7 +23637,7 @@
       <c r="M54" s="20"/>
       <c r="N54" s="20"/>
     </row>
-    <row r="55" spans="1:14" s="67" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="31"/>
       <c r="B55" s="31"/>
       <c r="C55" s="31"/>
@@ -23613,7 +23653,7 @@
       <c r="M55" s="31"/>
       <c r="N55" s="31"/>
     </row>
-    <row r="56" spans="1:14" s="67" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:14" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="20"/>
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
@@ -23629,43 +23669,43 @@
       <c r="M56" s="20"/>
       <c r="N56" s="20"/>
     </row>
-    <row r="58" spans="1:14" s="67" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A58" s="90" t="s">
+    <row r="58" spans="1:14" s="66" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A58" s="89" t="s">
         <v>972</v>
       </c>
-      <c r="B58" s="79"/>
-      <c r="C58" s="79"/>
-      <c r="D58" s="79"/>
-      <c r="E58" s="79"/>
-      <c r="F58" s="79"/>
-      <c r="G58" s="79"/>
-      <c r="H58" s="79"/>
-      <c r="I58" s="79"/>
-      <c r="J58" s="79"/>
-      <c r="K58" s="79"/>
-      <c r="L58" s="79"/>
-      <c r="M58" s="79"/>
+      <c r="B58" s="78"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="78"/>
+      <c r="E58" s="78"/>
+      <c r="F58" s="78"/>
+      <c r="G58" s="78"/>
+      <c r="H58" s="78"/>
+      <c r="I58" s="78"/>
+      <c r="J58" s="78"/>
+      <c r="K58" s="78"/>
+      <c r="L58" s="78"/>
+      <c r="M58" s="78"/>
       <c r="N58" s="44"/>
     </row>
-    <row r="59" spans="1:14" s="67" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:14" s="66" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A59" s="10"/>
-      <c r="B59" s="89" t="s">
+      <c r="B59" s="88" t="s">
         <v>669</v>
       </c>
-      <c r="C59" s="89"/>
-      <c r="D59" s="89"/>
-      <c r="E59" s="89"/>
-      <c r="F59" s="89"/>
-      <c r="G59" s="89"/>
-      <c r="H59" s="89"/>
-      <c r="I59" s="89"/>
-      <c r="J59" s="89"/>
-      <c r="K59" s="89"/>
-      <c r="L59" s="89"/>
-      <c r="M59" s="89"/>
+      <c r="C59" s="88"/>
+      <c r="D59" s="88"/>
+      <c r="E59" s="88"/>
+      <c r="F59" s="88"/>
+      <c r="G59" s="88"/>
+      <c r="H59" s="88"/>
+      <c r="I59" s="88"/>
+      <c r="J59" s="88"/>
+      <c r="K59" s="88"/>
+      <c r="L59" s="88"/>
+      <c r="M59" s="88"/>
       <c r="N59" s="10"/>
     </row>
-    <row r="60" spans="1:14" s="71" customFormat="1" ht="47.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" s="70" customFormat="1" ht="47.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7" t="s">
@@ -23699,7 +23739,7 @@
       <c r="M60" s="7"/>
       <c r="N60" s="7"/>
     </row>
-    <row r="61" spans="1:14" s="67" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" s="66" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="7" t="s">
         <v>0</v>
       </c>
@@ -23743,7 +23783,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="1:14" s="67" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="31" t="s">
         <v>999</v>
       </c>
@@ -23777,7 +23817,7 @@
       <c r="M62" s="31"/>
       <c r="N62" s="31"/>
     </row>
-    <row r="63" spans="1:14" s="67" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="20"/>
       <c r="B63" s="15"/>
       <c r="C63" s="20"/>
@@ -23793,7 +23833,7 @@
       <c r="M63" s="20"/>
       <c r="N63" s="20"/>
     </row>
-    <row r="64" spans="1:14" s="67" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="31"/>
       <c r="B64" s="31"/>
       <c r="C64" s="31"/>
@@ -23809,7 +23849,7 @@
       <c r="M64" s="31"/>
       <c r="N64" s="31"/>
     </row>
-    <row r="65" spans="1:14" s="67" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:14" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="20"/>
       <c r="B65" s="20"/>
       <c r="C65" s="20"/>
@@ -23825,44 +23865,44 @@
       <c r="M65" s="20"/>
       <c r="N65" s="20"/>
     </row>
-    <row r="66" spans="1:14" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="67" spans="1:14" s="67" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A67" s="90" t="s">
+    <row r="66" spans="1:14" s="66" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="67" spans="1:14" s="66" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A67" s="89" t="s">
         <v>973</v>
       </c>
-      <c r="B67" s="79"/>
-      <c r="C67" s="79"/>
-      <c r="D67" s="79"/>
-      <c r="E67" s="79"/>
-      <c r="F67" s="79"/>
-      <c r="G67" s="79"/>
-      <c r="H67" s="79"/>
-      <c r="I67" s="79"/>
-      <c r="J67" s="79"/>
-      <c r="K67" s="79"/>
-      <c r="L67" s="79"/>
-      <c r="M67" s="79"/>
+      <c r="B67" s="78"/>
+      <c r="C67" s="78"/>
+      <c r="D67" s="78"/>
+      <c r="E67" s="78"/>
+      <c r="F67" s="78"/>
+      <c r="G67" s="78"/>
+      <c r="H67" s="78"/>
+      <c r="I67" s="78"/>
+      <c r="J67" s="78"/>
+      <c r="K67" s="78"/>
+      <c r="L67" s="78"/>
+      <c r="M67" s="78"/>
       <c r="N67" s="44"/>
     </row>
-    <row r="68" spans="1:14" s="67" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:14" s="66" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A68" s="10"/>
-      <c r="B68" s="89" t="s">
+      <c r="B68" s="88" t="s">
         <v>669</v>
       </c>
-      <c r="C68" s="89"/>
-      <c r="D68" s="89"/>
-      <c r="E68" s="89"/>
-      <c r="F68" s="89"/>
-      <c r="G68" s="89"/>
-      <c r="H68" s="89"/>
-      <c r="I68" s="89"/>
-      <c r="J68" s="89"/>
-      <c r="K68" s="89"/>
-      <c r="L68" s="89"/>
-      <c r="M68" s="89"/>
+      <c r="C68" s="88"/>
+      <c r="D68" s="88"/>
+      <c r="E68" s="88"/>
+      <c r="F68" s="88"/>
+      <c r="G68" s="88"/>
+      <c r="H68" s="88"/>
+      <c r="I68" s="88"/>
+      <c r="J68" s="88"/>
+      <c r="K68" s="88"/>
+      <c r="L68" s="88"/>
+      <c r="M68" s="88"/>
       <c r="N68" s="10"/>
     </row>
-    <row r="69" spans="1:14" s="67" customFormat="1" ht="47.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:14" s="66" customFormat="1" ht="47.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7" t="s">
@@ -23896,7 +23936,7 @@
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
     </row>
-    <row r="70" spans="1:14" s="67" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:14" s="66" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="7" t="s">
         <v>0</v>
       </c>
@@ -23936,7 +23976,7 @@
       <c r="M70" s="7"/>
       <c r="N70" s="7"/>
     </row>
-    <row r="71" spans="1:14" s="67" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:14" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="31" t="s">
         <v>1000</v>
       </c>
@@ -23974,7 +24014,7 @@
       <c r="M71" s="31"/>
       <c r="N71" s="31"/>
     </row>
-    <row r="72" spans="1:14" s="67" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:14" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="20"/>
       <c r="B72" s="15"/>
       <c r="C72" s="20"/>
@@ -23990,7 +24030,7 @@
       <c r="M72" s="20"/>
       <c r="N72" s="20"/>
     </row>
-    <row r="73" spans="1:14" s="67" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:14" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="31"/>
       <c r="B73" s="31"/>
       <c r="C73" s="31"/>
@@ -24006,7 +24046,7 @@
       <c r="M73" s="31"/>
       <c r="N73" s="31"/>
     </row>
-    <row r="74" spans="1:14" s="67" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:14" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="20"/>
       <c r="B74" s="20"/>
       <c r="C74" s="20"/>
@@ -24022,7 +24062,7 @@
       <c r="M74" s="20"/>
       <c r="N74" s="20"/>
     </row>
-    <row r="75" spans="1:14" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" spans="1:14" s="66" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A67:M67"/>

--- a/Spreadsheet-ACI.xlsx
+++ b/Spreadsheet-ACI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\tyscott\iac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AE0C26-290F-4733-9362-3EE5E5A16176}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B68B15-03E0-4052-92B1-43E931E0F0F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="803" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3128" uniqueCount="1108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3131" uniqueCount="1109">
   <si>
     <t>Type</t>
   </si>
@@ -4123,25 +4123,28 @@
     <t>Changed Again</t>
   </si>
   <si>
-    <t>Terraform_Cloud</t>
-  </si>
-  <si>
     <t>app.terraform.io</t>
   </si>
   <si>
     <t>Organization</t>
   </si>
   <si>
-    <t>Cisco-ITS-TigerTeam</t>
-  </si>
-  <si>
-    <t>iac-ACI-DC1</t>
-  </si>
-  <si>
-    <t>iac-ACI-DC2</t>
-  </si>
-  <si>
-    <t>Workspace_Base</t>
+    <t>atr</t>
+  </si>
+  <si>
+    <t>VCS_repo</t>
+  </si>
+  <si>
+    <t>scotttyso/iac</t>
+  </si>
+  <si>
+    <t>oauth_token_id</t>
+  </si>
+  <si>
+    <t>ot-W4vwD9rw8g1hnEX6</t>
+  </si>
+  <si>
+    <t>Terraform_Destination</t>
   </si>
 </sst>
 </file>
@@ -5349,23 +5352,23 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="20.08984375" style="4" customWidth="1"/>
+    <col min="1" max="3" width="12.1796875" style="4" customWidth="1"/>
     <col min="4" max="4" width="37.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="4" customWidth="1"/>
     <col min="6" max="6" width="26" style="4" customWidth="1"/>
     <col min="7" max="7" width="16.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.90625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="13.26953125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="12.1796875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="25.7265625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="26.453125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="15.54296875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="20.6328125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="15" style="4" customWidth="1"/>
     <col min="15" max="15" width="12.54296875" style="4" customWidth="1"/>
     <col min="16" max="16" width="12.453125" style="4" customWidth="1"/>
     <col min="17" max="17" width="11.81640625" style="4" customWidth="1"/>
@@ -5422,33 +5425,35 @@
         <v>678</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>1101</v>
+        <v>1108</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="G3" s="49" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="H3" s="49" t="s">
+        <v>1106</v>
+      </c>
+      <c r="I3" s="49" t="s">
         <v>584</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="J3" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="49" t="s">
+      <c r="K3" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="K3" s="49" t="s">
+      <c r="L3" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="49" t="s">
+      <c r="M3" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="49" t="s">
+      <c r="N3" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="49"/>
     </row>
     <row r="4" spans="1:14" s="3" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="50" t="s">
@@ -5464,25 +5469,25 @@
         <v>1093</v>
       </c>
       <c r="E4" s="104" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G4" s="104" t="s">
         <v>1105</v>
       </c>
-      <c r="H4" s="52">
+      <c r="H4" s="34" t="s">
+        <v>1107</v>
+      </c>
+      <c r="I4" s="52">
         <v>65501</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="J4" s="14" t="s">
         <v>595</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="K4" s="34" t="s">
         <v>590</v>
-      </c>
-      <c r="K4" s="31">
-        <v>5555555</v>
       </c>
       <c r="L4" s="31">
         <v>5555555</v>
@@ -5490,7 +5495,9 @@
       <c r="M4" s="31">
         <v>5555555</v>
       </c>
-      <c r="N4" s="31"/>
+      <c r="N4" s="31">
+        <v>5555555</v>
+      </c>
     </row>
     <row r="5" spans="1:14" s="3" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="53" t="s">
@@ -5506,25 +5513,25 @@
         <v>1094</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>1106</v>
-      </c>
-      <c r="H5" s="55">
+        <v>1105</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>1107</v>
+      </c>
+      <c r="I5" s="55">
         <v>65502</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="J5" s="42" t="s">
         <v>596</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="K5" s="42" t="s">
         <v>591</v>
-      </c>
-      <c r="K5" s="42">
-        <v>5555555</v>
       </c>
       <c r="L5" s="42">
         <v>5555555</v>
@@ -5532,7 +5539,9 @@
       <c r="M5" s="42">
         <v>5555555</v>
       </c>
-      <c r="N5" s="20"/>
+      <c r="N5" s="42">
+        <v>5555555</v>
+      </c>
     </row>
     <row r="6" spans="1:14" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="50"/>
@@ -5886,7 +5895,7 @@
     <mergeCell ref="B18:N18"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" errorTitle="BGP ASN" error="BGP ASN Must be between 1 and 4294967295" sqref="D6:D15 H4:H5" xr:uid="{7F97824C-0114-4CBA-A34D-C5EE10D10460}">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" errorTitle="BGP ASN" error="BGP ASN Must be between 1 and 4294967295" sqref="D6:D15 I4:I5" xr:uid="{7F97824C-0114-4CBA-A34D-C5EE10D10460}">
       <formula1>1</formula1>
       <formula2>4294967295</formula2>
     </dataValidation>
@@ -19249,7 +19258,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Spreadsheet-ACI.xlsx
+++ b/Spreadsheet-ACI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\tyscott\iac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B68B15-03E0-4052-92B1-43E931E0F0F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35959C10-F8AF-42EE-A725-847809FB2320}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="803" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="803" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sites" sheetId="15" r:id="rId1"/>
@@ -4033,9 +4033,6 @@
     <t>Inband</t>
   </si>
   <si>
-    <t>Access_phys</t>
-  </si>
-  <si>
     <t>dmz_Ext</t>
   </si>
   <si>
@@ -4144,7 +4141,10 @@
     <t>ot-W4vwD9rw8g1hnEX6</t>
   </si>
   <si>
-    <t>Terraform_Destination</t>
+    <t>Terraform_State_Dest</t>
+  </si>
+  <si>
+    <t>access_phys</t>
   </si>
 </sst>
 </file>
@@ -5351,16 +5351,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BFD7935-0F0A-46EB-9824-225EC9CADD69}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="3" width="12.1796875" style="4" customWidth="1"/>
     <col min="4" max="4" width="37.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="4" customWidth="1"/>
-    <col min="6" max="6" width="26" style="4" customWidth="1"/>
+    <col min="5" max="5" width="23.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="22.453125" style="4" customWidth="1"/>
     <col min="7" max="7" width="16.7265625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.7265625" style="4" customWidth="1"/>
     <col min="9" max="9" width="9.26953125" style="4" customWidth="1"/>
@@ -5425,16 +5425,16 @@
         <v>678</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G3" s="49" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H3" s="49" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="I3" s="49" t="s">
         <v>584</v>
@@ -5466,19 +5466,19 @@
         <v>590</v>
       </c>
       <c r="D4" s="61" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E4" s="104" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="G4" s="104" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="I4" s="52">
         <v>65501</v>
@@ -5510,19 +5510,19 @@
         <v>591</v>
       </c>
       <c r="D5" s="62" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="H5" s="42" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="I5" s="55">
         <v>65502</v>
@@ -6034,7 +6034,7 @@
         <v>256</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>679</v>
@@ -6087,7 +6087,7 @@
         <v>294</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="F4" s="31" t="s">
         <v>471</v>
@@ -8583,8 +8583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AG141"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T41" sqref="T41"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11146,7 +11146,7 @@
       <c r="C42" s="31"/>
       <c r="D42" s="31"/>
       <c r="E42" s="31" t="s">
-        <v>1071</v>
+        <v>1108</v>
       </c>
       <c r="F42" s="33"/>
       <c r="G42" s="33"/>
@@ -11207,7 +11207,7 @@
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
       <c r="E43" s="20" t="s">
-        <v>1071</v>
+        <v>1108</v>
       </c>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
@@ -11233,7 +11233,7 @@
         <v>87</v>
       </c>
       <c r="U43" s="20" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="V43" s="20" t="s">
         <v>540</v>
@@ -11714,10 +11714,10 @@
         <v>392</v>
       </c>
       <c r="C58" s="7" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D58" s="7" t="s">
         <v>1077</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>1078</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>522</v>
@@ -11741,7 +11741,7 @@
         <v>501</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="M58" s="7" t="s">
         <v>534</v>
@@ -12123,7 +12123,7 @@
         <v>701</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
@@ -12163,7 +12163,7 @@
         <v>702</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="J75" s="7"/>
       <c r="K75" s="7"/>
@@ -13470,10 +13470,10 @@
         <v>392</v>
       </c>
       <c r="C124" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D124" s="7" t="s">
         <v>1082</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>1083</v>
       </c>
       <c r="E124" s="7" t="s">
         <v>705</v>
@@ -13491,16 +13491,16 @@
         <v>706</v>
       </c>
       <c r="J124" s="7" t="s">
+        <v>1084</v>
+      </c>
+      <c r="K124" s="7" t="s">
         <v>1085</v>
       </c>
-      <c r="K124" s="7" t="s">
+      <c r="L124" s="7" t="s">
         <v>1086</v>
       </c>
-      <c r="L124" s="7" t="s">
-        <v>1087</v>
-      </c>
       <c r="M124" s="7" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="N124" s="7" t="s">
         <v>710</v>
@@ -13514,7 +13514,7 @@
     </row>
     <row r="125" spans="1:20" s="65" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A125" s="31" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B125" s="31" t="s">
         <v>102</v>
@@ -13887,7 +13887,7 @@
         <v>407</v>
       </c>
       <c r="U137" s="43" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="V137" s="7" t="s">
         <v>408</v>
@@ -16993,7 +16993,7 @@
         <v>588</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>121</v>
@@ -17132,7 +17132,7 @@
         <v>589</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D12" s="31" t="s">
         <v>121</v>
@@ -19637,7 +19637,7 @@
         <v>592</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>219</v>
@@ -19674,7 +19674,7 @@
         <v>592</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>222</v>
@@ -19773,7 +19773,7 @@
         <v>231</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E22" s="31" t="s">
         <v>225</v>
@@ -19901,7 +19901,7 @@
         <v>14</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E28" s="33">
         <v>48</v>
@@ -21983,7 +21983,7 @@
         <v>679</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="N3" s="7"/>
       <c r="P3"/>
@@ -21991,7 +21991,7 @@
     </row>
     <row r="4" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="31" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>592</v>
@@ -22031,7 +22031,7 @@
     </row>
     <row r="5" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="20" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>588</v>
@@ -22055,7 +22055,7 @@
         <v>897</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="J5" s="20" t="s">
         <v>898</v>
@@ -22073,7 +22073,7 @@
     </row>
     <row r="6" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="31" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>589</v>
@@ -22097,7 +22097,7 @@
         <v>897</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="J6" s="31" t="s">
         <v>898</v>
@@ -22115,7 +22115,7 @@
     </row>
     <row r="7" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="20" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>588</v>
@@ -22139,7 +22139,7 @@
         <v>897</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="J7" s="20" t="s">
         <v>906</v>
@@ -22157,7 +22157,7 @@
     </row>
     <row r="8" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="31" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>589</v>
@@ -22181,7 +22181,7 @@
         <v>897</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="J8" s="31" t="s">
         <v>906</v>
@@ -22314,7 +22314,7 @@
         <v>183</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>886</v>
@@ -22323,7 +22323,7 @@
         <v>184</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="N15" s="7" t="s">
         <v>882</v>
@@ -22332,7 +22332,7 @@
     </row>
     <row r="16" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="31" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>588</v>
@@ -22371,7 +22371,7 @@
     </row>
     <row r="17" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="20" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>588</v>
@@ -22410,7 +22410,7 @@
     </row>
     <row r="18" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="31" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B18" s="31" t="s">
         <v>589</v>
@@ -22449,7 +22449,7 @@
     </row>
     <row r="19" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="20" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>589</v>
@@ -22488,7 +22488,7 @@
     </row>
     <row r="20" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="31" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B20" s="31" t="s">
         <v>588</v>
@@ -22533,7 +22533,7 @@
     </row>
     <row r="21" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="20" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>589</v>
@@ -22578,7 +22578,7 @@
     </row>
     <row r="22" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="31" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B22" s="31" t="s">
         <v>588</v>
@@ -22617,7 +22617,7 @@
     </row>
     <row r="23" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="20" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>588</v>
@@ -22656,7 +22656,7 @@
     </row>
     <row r="24" spans="1:17" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="31" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B24" s="31" t="s">
         <v>589</v>
@@ -22694,7 +22694,7 @@
     </row>
     <row r="25" spans="1:17" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="20" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>589</v>
@@ -23526,7 +23526,7 @@
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7" t="s">
@@ -23718,7 +23718,7 @@
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D60" s="7"/>
       <c r="E60" s="7" t="s">
@@ -23915,7 +23915,7 @@
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="7" t="s">

--- a/Spreadsheet-ACI.xlsx
+++ b/Spreadsheet-ACI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\tyscott\iac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35959C10-F8AF-42EE-A725-847809FB2320}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33573975-5915-4496-85D4-A87CFE13C9D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="803" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="803" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sites" sheetId="15" r:id="rId1"/>
@@ -4117,9 +4117,6 @@
     <t>enable</t>
   </si>
   <si>
-    <t>Changed Again</t>
-  </si>
-  <si>
     <t>app.terraform.io</t>
   </si>
   <si>
@@ -4145,6 +4142,9 @@
   </si>
   <si>
     <t>access_phys</t>
+  </si>
+  <si>
+    <t>Changing Back</t>
   </si>
 </sst>
 </file>
@@ -4832,6 +4832,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="9" xfId="6" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -4842,20 +4845,20 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4893,6 +4896,15 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4908,18 +4920,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="9" xfId="6" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5376,40 +5376,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="5" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>582</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
     </row>
     <row r="2" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11"/>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="74" t="s">
         <v>677</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
     </row>
     <row r="3" spans="1:14" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="49" t="s">
@@ -5425,16 +5425,16 @@
         <v>678</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="G3" s="49" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="H3" s="49" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I3" s="49" t="s">
         <v>584</v>
@@ -5468,17 +5468,17 @@
       <c r="D4" s="61" t="s">
         <v>1092</v>
       </c>
-      <c r="E4" s="104" t="s">
-        <v>1100</v>
+      <c r="E4" s="73" t="s">
+        <v>1099</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>1102</v>
-      </c>
-      <c r="G4" s="104" t="s">
-        <v>1104</v>
+        <v>1101</v>
+      </c>
+      <c r="G4" s="73" t="s">
+        <v>1103</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="I4" s="52">
         <v>65501</v>
@@ -5513,16 +5513,16 @@
         <v>1093</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H5" s="42" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="I5" s="55">
         <v>65502</v>
@@ -5704,40 +5704,40 @@
       <c r="N15" s="20"/>
     </row>
     <row r="17" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="74" t="s">
+      <c r="A17" s="75" t="s">
         <v>583</v>
       </c>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="74"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="75"/>
     </row>
     <row r="18" spans="1:14" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11"/>
-      <c r="B18" s="75" t="s">
+      <c r="B18" s="76" t="s">
         <v>676</v>
       </c>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="73"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="74"/>
     </row>
     <row r="19" spans="1:14" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="49" t="s">
@@ -5931,7 +5931,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:U61"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -5963,52 +5963,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="90" t="s">
         <v>628</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
     </row>
     <row r="2" spans="1:21" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10"/>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="89" t="s">
         <v>669</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
       <c r="U2"/>
     </row>
     <row r="3" spans="1:21" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6087,7 +6087,7 @@
         <v>294</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>1099</v>
+        <v>1108</v>
       </c>
       <c r="F4" s="31" t="s">
         <v>471</v>
@@ -8583,7 +8583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AG141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
@@ -8624,25 +8624,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="90" t="s">
         <v>498</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
       <c r="R1" s="46"/>
       <c r="S1" s="46"/>
       <c r="T1" s="46"/>
@@ -8661,27 +8661,27 @@
     </row>
     <row r="2" spans="1:33" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10"/>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="76" t="s">
         <v>669</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="76"/>
+      <c r="T2" s="76"/>
     </row>
     <row r="3" spans="1:33" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="7"/>
@@ -8800,25 +8800,25 @@
       <c r="T6" s="20"/>
     </row>
     <row r="8" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="90" t="s">
         <v>416</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="78"/>
-      <c r="N8" s="78"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="79"/>
+      <c r="O8" s="79"/>
+      <c r="P8" s="79"/>
+      <c r="Q8" s="79"/>
       <c r="R8" s="46"/>
       <c r="S8" s="46"/>
       <c r="T8" s="46"/>
@@ -8838,27 +8838,27 @@
     </row>
     <row r="9" spans="1:33" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="10"/>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="76" t="s">
         <v>669</v>
       </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="75"/>
-      <c r="R9" s="75"/>
-      <c r="S9" s="75"/>
-      <c r="T9" s="75"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="76"/>
+      <c r="S9" s="76"/>
+      <c r="T9" s="76"/>
       <c r="U9" s="10"/>
       <c r="V9" s="10"/>
       <c r="W9" s="10"/>
@@ -8874,47 +8874,47 @@
       <c r="AG9" s="10"/>
     </row>
     <row r="10" spans="1:33" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="91"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="101" t="s">
+      <c r="A10" s="92"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="95" t="s">
         <v>417</v>
       </c>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
-      <c r="O10" s="102"/>
-      <c r="P10" s="102"/>
-      <c r="Q10" s="102"/>
-      <c r="R10" s="102"/>
-      <c r="S10" s="102"/>
-      <c r="T10" s="102"/>
-      <c r="U10" s="103"/>
-      <c r="V10" s="91" t="s">
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="96"/>
+      <c r="O10" s="96"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="96"/>
+      <c r="R10" s="96"/>
+      <c r="S10" s="96"/>
+      <c r="T10" s="96"/>
+      <c r="U10" s="97"/>
+      <c r="V10" s="92" t="s">
         <v>418</v>
       </c>
-      <c r="W10" s="92"/>
-      <c r="X10" s="92"/>
-      <c r="Y10" s="92"/>
-      <c r="Z10" s="93"/>
-      <c r="AA10" s="91" t="s">
+      <c r="W10" s="93"/>
+      <c r="X10" s="93"/>
+      <c r="Y10" s="93"/>
+      <c r="Z10" s="94"/>
+      <c r="AA10" s="92" t="s">
         <v>419</v>
       </c>
-      <c r="AB10" s="92"/>
-      <c r="AC10" s="93"/>
-      <c r="AD10" s="91" t="s">
+      <c r="AB10" s="93"/>
+      <c r="AC10" s="94"/>
+      <c r="AD10" s="92" t="s">
         <v>420</v>
       </c>
-      <c r="AE10" s="92"/>
-      <c r="AF10" s="92"/>
-      <c r="AG10" s="93"/>
+      <c r="AE10" s="93"/>
+      <c r="AF10" s="93"/>
+      <c r="AG10" s="94"/>
     </row>
     <row r="11" spans="1:33" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
@@ -10221,25 +10221,25 @@
       <c r="AG26" s="20"/>
     </row>
     <row r="28" spans="1:33" s="66" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="89" t="s">
+      <c r="A28" s="90" t="s">
         <v>974</v>
       </c>
-      <c r="B28" s="78"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="78"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="78"/>
-      <c r="K28" s="78"/>
-      <c r="L28" s="78"/>
-      <c r="M28" s="78"/>
-      <c r="N28" s="78"/>
-      <c r="O28" s="78"/>
-      <c r="P28" s="78"/>
-      <c r="Q28" s="78"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="79"/>
+      <c r="O28" s="79"/>
+      <c r="P28" s="79"/>
+      <c r="Q28" s="79"/>
       <c r="R28" s="46"/>
       <c r="S28" s="46"/>
       <c r="T28" s="46"/>
@@ -10259,27 +10259,27 @@
     </row>
     <row r="29" spans="1:33" s="66" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="10"/>
-      <c r="B29" s="75" t="s">
+      <c r="B29" s="76" t="s">
         <v>669</v>
       </c>
-      <c r="C29" s="75"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="75"/>
-      <c r="M29" s="75"/>
-      <c r="N29" s="75"/>
-      <c r="O29" s="75"/>
-      <c r="P29" s="75"/>
-      <c r="Q29" s="75"/>
-      <c r="R29" s="75"/>
-      <c r="S29" s="75"/>
-      <c r="T29" s="75"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="76"/>
+      <c r="L29" s="76"/>
+      <c r="M29" s="76"/>
+      <c r="N29" s="76"/>
+      <c r="O29" s="76"/>
+      <c r="P29" s="76"/>
+      <c r="Q29" s="76"/>
+      <c r="R29" s="76"/>
+      <c r="S29" s="76"/>
+      <c r="T29" s="76"/>
       <c r="U29" s="10"/>
       <c r="V29" s="10"/>
       <c r="W29" s="10"/>
@@ -10295,47 +10295,47 @@
       <c r="AG29" s="10"/>
     </row>
     <row r="30" spans="1:33" s="66" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="91"/>
-      <c r="B30" s="93"/>
-      <c r="C30" s="101" t="s">
+      <c r="A30" s="92"/>
+      <c r="B30" s="94"/>
+      <c r="C30" s="95" t="s">
         <v>417</v>
       </c>
-      <c r="D30" s="102"/>
-      <c r="E30" s="102"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="102"/>
-      <c r="I30" s="102"/>
-      <c r="J30" s="102"/>
-      <c r="K30" s="102"/>
-      <c r="L30" s="102"/>
-      <c r="M30" s="102"/>
-      <c r="N30" s="102"/>
-      <c r="O30" s="102"/>
-      <c r="P30" s="102"/>
-      <c r="Q30" s="102"/>
-      <c r="R30" s="102"/>
-      <c r="S30" s="102"/>
-      <c r="T30" s="102"/>
-      <c r="U30" s="103"/>
-      <c r="V30" s="91" t="s">
+      <c r="D30" s="96"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="96"/>
+      <c r="I30" s="96"/>
+      <c r="J30" s="96"/>
+      <c r="K30" s="96"/>
+      <c r="L30" s="96"/>
+      <c r="M30" s="96"/>
+      <c r="N30" s="96"/>
+      <c r="O30" s="96"/>
+      <c r="P30" s="96"/>
+      <c r="Q30" s="96"/>
+      <c r="R30" s="96"/>
+      <c r="S30" s="96"/>
+      <c r="T30" s="96"/>
+      <c r="U30" s="97"/>
+      <c r="V30" s="92" t="s">
         <v>418</v>
       </c>
-      <c r="W30" s="92"/>
-      <c r="X30" s="92"/>
-      <c r="Y30" s="92"/>
-      <c r="Z30" s="93"/>
-      <c r="AA30" s="91" t="s">
+      <c r="W30" s="93"/>
+      <c r="X30" s="93"/>
+      <c r="Y30" s="93"/>
+      <c r="Z30" s="94"/>
+      <c r="AA30" s="92" t="s">
         <v>419</v>
       </c>
-      <c r="AB30" s="92"/>
-      <c r="AC30" s="93"/>
-      <c r="AD30" s="91" t="s">
+      <c r="AB30" s="93"/>
+      <c r="AC30" s="94"/>
+      <c r="AD30" s="92" t="s">
         <v>420</v>
       </c>
-      <c r="AE30" s="92"/>
-      <c r="AF30" s="92"/>
-      <c r="AG30" s="93"/>
+      <c r="AE30" s="93"/>
+      <c r="AF30" s="93"/>
+      <c r="AG30" s="94"/>
     </row>
     <row r="31" spans="1:33" s="66" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="7"/>
@@ -10885,25 +10885,25 @@
     </row>
     <row r="37" spans="1:33" s="66" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="38" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="89" t="s">
+      <c r="A38" s="90" t="s">
         <v>504</v>
       </c>
-      <c r="B38" s="78"/>
-      <c r="C38" s="78"/>
-      <c r="D38" s="78"/>
-      <c r="E38" s="78"/>
-      <c r="F38" s="78"/>
-      <c r="G38" s="78"/>
-      <c r="H38" s="78"/>
-      <c r="I38" s="78"/>
-      <c r="J38" s="78"/>
-      <c r="K38" s="78"/>
-      <c r="L38" s="78"/>
-      <c r="M38" s="78"/>
-      <c r="N38" s="78"/>
-      <c r="O38" s="78"/>
-      <c r="P38" s="78"/>
-      <c r="Q38" s="78"/>
+      <c r="B38" s="79"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="79"/>
+      <c r="I38" s="79"/>
+      <c r="J38" s="79"/>
+      <c r="K38" s="79"/>
+      <c r="L38" s="79"/>
+      <c r="M38" s="79"/>
+      <c r="N38" s="79"/>
+      <c r="O38" s="79"/>
+      <c r="P38" s="79"/>
+      <c r="Q38" s="79"/>
       <c r="R38" s="46"/>
       <c r="S38" s="46"/>
       <c r="T38" s="46"/>
@@ -10923,27 +10923,27 @@
     </row>
     <row r="39" spans="1:33" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="10"/>
-      <c r="B39" s="75" t="s">
+      <c r="B39" s="76" t="s">
         <v>669</v>
       </c>
-      <c r="C39" s="75"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="75"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="75"/>
-      <c r="J39" s="75"/>
-      <c r="K39" s="75"/>
-      <c r="L39" s="75"/>
-      <c r="M39" s="75"/>
-      <c r="N39" s="75"/>
-      <c r="O39" s="75"/>
-      <c r="P39" s="75"/>
-      <c r="Q39" s="75"/>
-      <c r="R39" s="75"/>
-      <c r="S39" s="75"/>
-      <c r="T39" s="75"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="76"/>
+      <c r="J39" s="76"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="76"/>
+      <c r="M39" s="76"/>
+      <c r="N39" s="76"/>
+      <c r="O39" s="76"/>
+      <c r="P39" s="76"/>
+      <c r="Q39" s="76"/>
+      <c r="R39" s="76"/>
+      <c r="S39" s="76"/>
+      <c r="T39" s="76"/>
       <c r="U39" s="10"/>
       <c r="V39" s="10"/>
       <c r="W39" s="10"/>
@@ -11146,7 +11146,7 @@
       <c r="C42" s="31"/>
       <c r="D42" s="31"/>
       <c r="E42" s="31" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F42" s="33"/>
       <c r="G42" s="33"/>
@@ -11207,7 +11207,7 @@
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
       <c r="E43" s="20" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
@@ -11609,52 +11609,52 @@
       <c r="AG53" s="20"/>
     </row>
     <row r="55" spans="1:33" s="65" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A55" s="89" t="s">
+      <c r="A55" s="90" t="s">
         <v>683</v>
       </c>
-      <c r="B55" s="78"/>
-      <c r="C55" s="78"/>
-      <c r="D55" s="78"/>
-      <c r="E55" s="78"/>
-      <c r="F55" s="78"/>
-      <c r="G55" s="78"/>
-      <c r="H55" s="78"/>
-      <c r="I55" s="78"/>
-      <c r="J55" s="78"/>
-      <c r="K55" s="78"/>
-      <c r="L55" s="78"/>
-      <c r="M55" s="78"/>
-      <c r="N55" s="78"/>
-      <c r="O55" s="78"/>
-      <c r="P55" s="78"/>
-      <c r="Q55" s="78"/>
+      <c r="B55" s="79"/>
+      <c r="C55" s="79"/>
+      <c r="D55" s="79"/>
+      <c r="E55" s="79"/>
+      <c r="F55" s="79"/>
+      <c r="G55" s="79"/>
+      <c r="H55" s="79"/>
+      <c r="I55" s="79"/>
+      <c r="J55" s="79"/>
+      <c r="K55" s="79"/>
+      <c r="L55" s="79"/>
+      <c r="M55" s="79"/>
+      <c r="N55" s="79"/>
+      <c r="O55" s="79"/>
+      <c r="P55" s="79"/>
+      <c r="Q55" s="79"/>
       <c r="R55" s="46"/>
       <c r="S55" s="46"/>
       <c r="T55" s="46"/>
     </row>
     <row r="56" spans="1:33" s="65" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A56" s="10"/>
-      <c r="B56" s="75" t="s">
+      <c r="B56" s="76" t="s">
         <v>669</v>
       </c>
-      <c r="C56" s="75"/>
-      <c r="D56" s="75"/>
-      <c r="E56" s="75"/>
-      <c r="F56" s="75"/>
-      <c r="G56" s="75"/>
-      <c r="H56" s="75"/>
-      <c r="I56" s="75"/>
-      <c r="J56" s="75"/>
-      <c r="K56" s="75"/>
-      <c r="L56" s="75"/>
-      <c r="M56" s="75"/>
-      <c r="N56" s="75"/>
-      <c r="O56" s="75"/>
-      <c r="P56" s="75"/>
-      <c r="Q56" s="75"/>
-      <c r="R56" s="75"/>
-      <c r="S56" s="75"/>
-      <c r="T56" s="75"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="76"/>
+      <c r="E56" s="76"/>
+      <c r="F56" s="76"/>
+      <c r="G56" s="76"/>
+      <c r="H56" s="76"/>
+      <c r="I56" s="76"/>
+      <c r="J56" s="76"/>
+      <c r="K56" s="76"/>
+      <c r="L56" s="76"/>
+      <c r="M56" s="76"/>
+      <c r="N56" s="76"/>
+      <c r="O56" s="76"/>
+      <c r="P56" s="76"/>
+      <c r="Q56" s="76"/>
+      <c r="R56" s="76"/>
+      <c r="S56" s="76"/>
+      <c r="T56" s="76"/>
     </row>
     <row r="57" spans="1:33" s="65" customFormat="1" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="7"/>
@@ -12054,52 +12054,52 @@
     </row>
     <row r="71" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="72" spans="1:20" s="65" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A72" s="89" t="s">
+      <c r="A72" s="90" t="s">
         <v>695</v>
       </c>
-      <c r="B72" s="78"/>
-      <c r="C72" s="78"/>
-      <c r="D72" s="78"/>
-      <c r="E72" s="78"/>
-      <c r="F72" s="78"/>
-      <c r="G72" s="78"/>
-      <c r="H72" s="78"/>
-      <c r="I72" s="78"/>
-      <c r="J72" s="78"/>
-      <c r="K72" s="78"/>
-      <c r="L72" s="78"/>
-      <c r="M72" s="78"/>
-      <c r="N72" s="78"/>
-      <c r="O72" s="78"/>
-      <c r="P72" s="78"/>
-      <c r="Q72" s="78"/>
+      <c r="B72" s="79"/>
+      <c r="C72" s="79"/>
+      <c r="D72" s="79"/>
+      <c r="E72" s="79"/>
+      <c r="F72" s="79"/>
+      <c r="G72" s="79"/>
+      <c r="H72" s="79"/>
+      <c r="I72" s="79"/>
+      <c r="J72" s="79"/>
+      <c r="K72" s="79"/>
+      <c r="L72" s="79"/>
+      <c r="M72" s="79"/>
+      <c r="N72" s="79"/>
+      <c r="O72" s="79"/>
+      <c r="P72" s="79"/>
+      <c r="Q72" s="79"/>
       <c r="R72" s="46"/>
       <c r="S72" s="46"/>
       <c r="T72" s="46"/>
     </row>
     <row r="73" spans="1:20" s="65" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A73" s="10"/>
-      <c r="B73" s="75" t="s">
+      <c r="B73" s="76" t="s">
         <v>669</v>
       </c>
-      <c r="C73" s="75"/>
-      <c r="D73" s="75"/>
-      <c r="E73" s="75"/>
-      <c r="F73" s="75"/>
-      <c r="G73" s="75"/>
-      <c r="H73" s="75"/>
-      <c r="I73" s="75"/>
-      <c r="J73" s="75"/>
-      <c r="K73" s="75"/>
-      <c r="L73" s="75"/>
-      <c r="M73" s="75"/>
-      <c r="N73" s="75"/>
-      <c r="O73" s="75"/>
-      <c r="P73" s="75"/>
-      <c r="Q73" s="75"/>
-      <c r="R73" s="75"/>
-      <c r="S73" s="75"/>
-      <c r="T73" s="75"/>
+      <c r="C73" s="76"/>
+      <c r="D73" s="76"/>
+      <c r="E73" s="76"/>
+      <c r="F73" s="76"/>
+      <c r="G73" s="76"/>
+      <c r="H73" s="76"/>
+      <c r="I73" s="76"/>
+      <c r="J73" s="76"/>
+      <c r="K73" s="76"/>
+      <c r="L73" s="76"/>
+      <c r="M73" s="76"/>
+      <c r="N73" s="76"/>
+      <c r="O73" s="76"/>
+      <c r="P73" s="76"/>
+      <c r="Q73" s="76"/>
+      <c r="R73" s="76"/>
+      <c r="S73" s="76"/>
+      <c r="T73" s="76"/>
     </row>
     <row r="74" spans="1:20" s="65" customFormat="1" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="7"/>
@@ -12274,52 +12274,52 @@
       <c r="T79" s="20"/>
     </row>
     <row r="81" spans="1:20" s="65" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A81" s="89" t="s">
+      <c r="A81" s="90" t="s">
         <v>877</v>
       </c>
-      <c r="B81" s="78"/>
-      <c r="C81" s="78"/>
-      <c r="D81" s="78"/>
-      <c r="E81" s="78"/>
-      <c r="F81" s="78"/>
-      <c r="G81" s="78"/>
-      <c r="H81" s="78"/>
-      <c r="I81" s="78"/>
-      <c r="J81" s="78"/>
-      <c r="K81" s="78"/>
-      <c r="L81" s="78"/>
-      <c r="M81" s="78"/>
-      <c r="N81" s="78"/>
-      <c r="O81" s="78"/>
-      <c r="P81" s="78"/>
-      <c r="Q81" s="78"/>
+      <c r="B81" s="79"/>
+      <c r="C81" s="79"/>
+      <c r="D81" s="79"/>
+      <c r="E81" s="79"/>
+      <c r="F81" s="79"/>
+      <c r="G81" s="79"/>
+      <c r="H81" s="79"/>
+      <c r="I81" s="79"/>
+      <c r="J81" s="79"/>
+      <c r="K81" s="79"/>
+      <c r="L81" s="79"/>
+      <c r="M81" s="79"/>
+      <c r="N81" s="79"/>
+      <c r="O81" s="79"/>
+      <c r="P81" s="79"/>
+      <c r="Q81" s="79"/>
       <c r="R81" s="46"/>
       <c r="S81" s="46"/>
       <c r="T81" s="46"/>
     </row>
     <row r="82" spans="1:20" s="65" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A82" s="10"/>
-      <c r="B82" s="75" t="s">
+      <c r="B82" s="76" t="s">
         <v>669</v>
       </c>
-      <c r="C82" s="75"/>
-      <c r="D82" s="75"/>
-      <c r="E82" s="75"/>
-      <c r="F82" s="75"/>
-      <c r="G82" s="75"/>
-      <c r="H82" s="75"/>
-      <c r="I82" s="75"/>
-      <c r="J82" s="75"/>
-      <c r="K82" s="75"/>
-      <c r="L82" s="75"/>
-      <c r="M82" s="75"/>
-      <c r="N82" s="75"/>
-      <c r="O82" s="75"/>
-      <c r="P82" s="75"/>
-      <c r="Q82" s="75"/>
-      <c r="R82" s="75"/>
-      <c r="S82" s="75"/>
-      <c r="T82" s="75"/>
+      <c r="C82" s="76"/>
+      <c r="D82" s="76"/>
+      <c r="E82" s="76"/>
+      <c r="F82" s="76"/>
+      <c r="G82" s="76"/>
+      <c r="H82" s="76"/>
+      <c r="I82" s="76"/>
+      <c r="J82" s="76"/>
+      <c r="K82" s="76"/>
+      <c r="L82" s="76"/>
+      <c r="M82" s="76"/>
+      <c r="N82" s="76"/>
+      <c r="O82" s="76"/>
+      <c r="P82" s="76"/>
+      <c r="Q82" s="76"/>
+      <c r="R82" s="76"/>
+      <c r="S82" s="76"/>
+      <c r="T82" s="76"/>
     </row>
     <row r="83" spans="1:20" s="65" customFormat="1" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="7"/>
@@ -12489,52 +12489,52 @@
     </row>
     <row r="89" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="90" spans="1:20" s="66" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A90" s="89" t="s">
+      <c r="A90" s="90" t="s">
         <v>983</v>
       </c>
-      <c r="B90" s="78"/>
-      <c r="C90" s="78"/>
-      <c r="D90" s="78"/>
-      <c r="E90" s="78"/>
-      <c r="F90" s="78"/>
-      <c r="G90" s="78"/>
-      <c r="H90" s="78"/>
-      <c r="I90" s="78"/>
-      <c r="J90" s="78"/>
-      <c r="K90" s="78"/>
-      <c r="L90" s="78"/>
-      <c r="M90" s="78"/>
-      <c r="N90" s="78"/>
-      <c r="O90" s="78"/>
-      <c r="P90" s="78"/>
-      <c r="Q90" s="78"/>
+      <c r="B90" s="79"/>
+      <c r="C90" s="79"/>
+      <c r="D90" s="79"/>
+      <c r="E90" s="79"/>
+      <c r="F90" s="79"/>
+      <c r="G90" s="79"/>
+      <c r="H90" s="79"/>
+      <c r="I90" s="79"/>
+      <c r="J90" s="79"/>
+      <c r="K90" s="79"/>
+      <c r="L90" s="79"/>
+      <c r="M90" s="79"/>
+      <c r="N90" s="79"/>
+      <c r="O90" s="79"/>
+      <c r="P90" s="79"/>
+      <c r="Q90" s="79"/>
       <c r="R90" s="46"/>
       <c r="S90" s="46"/>
       <c r="T90" s="46"/>
     </row>
     <row r="91" spans="1:20" s="66" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A91" s="10"/>
-      <c r="B91" s="75" t="s">
+      <c r="B91" s="76" t="s">
         <v>669</v>
       </c>
-      <c r="C91" s="75"/>
-      <c r="D91" s="75"/>
-      <c r="E91" s="75"/>
-      <c r="F91" s="75"/>
-      <c r="G91" s="75"/>
-      <c r="H91" s="75"/>
-      <c r="I91" s="75"/>
-      <c r="J91" s="75"/>
-      <c r="K91" s="75"/>
-      <c r="L91" s="75"/>
-      <c r="M91" s="75"/>
-      <c r="N91" s="75"/>
-      <c r="O91" s="75"/>
-      <c r="P91" s="75"/>
-      <c r="Q91" s="75"/>
-      <c r="R91" s="75"/>
-      <c r="S91" s="75"/>
-      <c r="T91" s="75"/>
+      <c r="C91" s="76"/>
+      <c r="D91" s="76"/>
+      <c r="E91" s="76"/>
+      <c r="F91" s="76"/>
+      <c r="G91" s="76"/>
+      <c r="H91" s="76"/>
+      <c r="I91" s="76"/>
+      <c r="J91" s="76"/>
+      <c r="K91" s="76"/>
+      <c r="L91" s="76"/>
+      <c r="M91" s="76"/>
+      <c r="N91" s="76"/>
+      <c r="O91" s="76"/>
+      <c r="P91" s="76"/>
+      <c r="Q91" s="76"/>
+      <c r="R91" s="76"/>
+      <c r="S91" s="76"/>
+      <c r="T91" s="76"/>
     </row>
     <row r="92" spans="1:20" s="66" customFormat="1" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="7"/>
@@ -12738,52 +12738,52 @@
     </row>
     <row r="98" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="99" spans="1:20" s="66" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A99" s="89" t="s">
+      <c r="A99" s="90" t="s">
         <v>975</v>
       </c>
-      <c r="B99" s="78"/>
-      <c r="C99" s="78"/>
-      <c r="D99" s="78"/>
-      <c r="E99" s="78"/>
-      <c r="F99" s="78"/>
-      <c r="G99" s="78"/>
-      <c r="H99" s="78"/>
-      <c r="I99" s="78"/>
-      <c r="J99" s="78"/>
-      <c r="K99" s="78"/>
-      <c r="L99" s="78"/>
-      <c r="M99" s="78"/>
-      <c r="N99" s="78"/>
-      <c r="O99" s="78"/>
-      <c r="P99" s="78"/>
-      <c r="Q99" s="78"/>
+      <c r="B99" s="79"/>
+      <c r="C99" s="79"/>
+      <c r="D99" s="79"/>
+      <c r="E99" s="79"/>
+      <c r="F99" s="79"/>
+      <c r="G99" s="79"/>
+      <c r="H99" s="79"/>
+      <c r="I99" s="79"/>
+      <c r="J99" s="79"/>
+      <c r="K99" s="79"/>
+      <c r="L99" s="79"/>
+      <c r="M99" s="79"/>
+      <c r="N99" s="79"/>
+      <c r="O99" s="79"/>
+      <c r="P99" s="79"/>
+      <c r="Q99" s="79"/>
       <c r="R99" s="46"/>
       <c r="S99" s="46"/>
       <c r="T99" s="46"/>
     </row>
     <row r="100" spans="1:20" s="66" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A100" s="10"/>
-      <c r="B100" s="75" t="s">
+      <c r="B100" s="76" t="s">
         <v>669</v>
       </c>
-      <c r="C100" s="75"/>
-      <c r="D100" s="75"/>
-      <c r="E100" s="75"/>
-      <c r="F100" s="75"/>
-      <c r="G100" s="75"/>
-      <c r="H100" s="75"/>
-      <c r="I100" s="75"/>
-      <c r="J100" s="75"/>
-      <c r="K100" s="75"/>
-      <c r="L100" s="75"/>
-      <c r="M100" s="75"/>
-      <c r="N100" s="75"/>
-      <c r="O100" s="75"/>
-      <c r="P100" s="75"/>
-      <c r="Q100" s="75"/>
-      <c r="R100" s="75"/>
-      <c r="S100" s="75"/>
-      <c r="T100" s="75"/>
+      <c r="C100" s="76"/>
+      <c r="D100" s="76"/>
+      <c r="E100" s="76"/>
+      <c r="F100" s="76"/>
+      <c r="G100" s="76"/>
+      <c r="H100" s="76"/>
+      <c r="I100" s="76"/>
+      <c r="J100" s="76"/>
+      <c r="K100" s="76"/>
+      <c r="L100" s="76"/>
+      <c r="M100" s="76"/>
+      <c r="N100" s="76"/>
+      <c r="O100" s="76"/>
+      <c r="P100" s="76"/>
+      <c r="Q100" s="76"/>
+      <c r="R100" s="76"/>
+      <c r="S100" s="76"/>
+      <c r="T100" s="76"/>
     </row>
     <row r="101" spans="1:20" s="66" customFormat="1" ht="66.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="7"/>
@@ -12794,17 +12794,17 @@
       <c r="D101" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="E101" s="91" t="s">
+      <c r="E101" s="92" t="s">
         <v>1025</v>
       </c>
-      <c r="F101" s="92"/>
-      <c r="G101" s="92"/>
-      <c r="H101" s="98" t="s">
+      <c r="F101" s="93"/>
+      <c r="G101" s="93"/>
+      <c r="H101" s="102" t="s">
         <v>1027</v>
       </c>
-      <c r="I101" s="99"/>
-      <c r="J101" s="99"/>
-      <c r="K101" s="100"/>
+      <c r="I101" s="103"/>
+      <c r="J101" s="103"/>
+      <c r="K101" s="104"/>
       <c r="L101" s="7" t="s">
         <v>1011</v>
       </c>
@@ -13009,52 +13009,52 @@
     </row>
     <row r="107" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="108" spans="1:20" s="66" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A108" s="89" t="s">
+      <c r="A108" s="90" t="s">
         <v>482</v>
       </c>
-      <c r="B108" s="89"/>
-      <c r="C108" s="89"/>
-      <c r="D108" s="89"/>
-      <c r="E108" s="89"/>
-      <c r="F108" s="89"/>
-      <c r="G108" s="89"/>
-      <c r="H108" s="89"/>
-      <c r="I108" s="89"/>
-      <c r="J108" s="89"/>
-      <c r="K108" s="89"/>
-      <c r="L108" s="89"/>
-      <c r="M108" s="89"/>
-      <c r="N108" s="89"/>
-      <c r="O108" s="89"/>
-      <c r="P108" s="89"/>
-      <c r="Q108" s="89"/>
+      <c r="B108" s="90"/>
+      <c r="C108" s="90"/>
+      <c r="D108" s="90"/>
+      <c r="E108" s="90"/>
+      <c r="F108" s="90"/>
+      <c r="G108" s="90"/>
+      <c r="H108" s="90"/>
+      <c r="I108" s="90"/>
+      <c r="J108" s="90"/>
+      <c r="K108" s="90"/>
+      <c r="L108" s="90"/>
+      <c r="M108" s="90"/>
+      <c r="N108" s="90"/>
+      <c r="O108" s="90"/>
+      <c r="P108" s="90"/>
+      <c r="Q108" s="90"/>
       <c r="R108" s="46"/>
       <c r="S108" s="46"/>
       <c r="T108" s="46"/>
     </row>
     <row r="109" spans="1:20" s="66" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A109" s="10"/>
-      <c r="B109" s="88" t="s">
+      <c r="B109" s="89" t="s">
         <v>669</v>
       </c>
-      <c r="C109" s="88"/>
-      <c r="D109" s="88"/>
-      <c r="E109" s="88"/>
-      <c r="F109" s="88"/>
-      <c r="G109" s="88"/>
-      <c r="H109" s="88"/>
-      <c r="I109" s="88"/>
-      <c r="J109" s="88"/>
-      <c r="K109" s="88"/>
-      <c r="L109" s="88"/>
-      <c r="M109" s="88"/>
-      <c r="N109" s="88"/>
-      <c r="O109" s="88"/>
-      <c r="P109" s="88"/>
-      <c r="Q109" s="88"/>
-      <c r="R109" s="88"/>
-      <c r="S109" s="88"/>
-      <c r="T109" s="88"/>
+      <c r="C109" s="89"/>
+      <c r="D109" s="89"/>
+      <c r="E109" s="89"/>
+      <c r="F109" s="89"/>
+      <c r="G109" s="89"/>
+      <c r="H109" s="89"/>
+      <c r="I109" s="89"/>
+      <c r="J109" s="89"/>
+      <c r="K109" s="89"/>
+      <c r="L109" s="89"/>
+      <c r="M109" s="89"/>
+      <c r="N109" s="89"/>
+      <c r="O109" s="89"/>
+      <c r="P109" s="89"/>
+      <c r="Q109" s="89"/>
+      <c r="R109" s="89"/>
+      <c r="S109" s="89"/>
+      <c r="T109" s="89"/>
     </row>
     <row r="110" spans="1:20" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="7"/>
@@ -13065,11 +13065,11 @@
       <c r="D110" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="E110" s="95" t="s">
+      <c r="E110" s="99" t="s">
         <v>483</v>
       </c>
-      <c r="F110" s="96"/>
-      <c r="G110" s="97"/>
+      <c r="F110" s="100"/>
+      <c r="G110" s="101"/>
       <c r="H110" s="7" t="s">
         <v>484</v>
       </c>
@@ -13381,52 +13381,52 @@
       <c r="T119" s="20"/>
     </row>
     <row r="121" spans="1:20" s="65" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A121" s="89" t="s">
+      <c r="A121" s="90" t="s">
         <v>703</v>
       </c>
-      <c r="B121" s="78"/>
-      <c r="C121" s="78"/>
-      <c r="D121" s="78"/>
-      <c r="E121" s="78"/>
-      <c r="F121" s="78"/>
-      <c r="G121" s="78"/>
-      <c r="H121" s="78"/>
-      <c r="I121" s="78"/>
-      <c r="J121" s="78"/>
-      <c r="K121" s="78"/>
-      <c r="L121" s="78"/>
-      <c r="M121" s="78"/>
-      <c r="N121" s="78"/>
-      <c r="O121" s="78"/>
-      <c r="P121" s="78"/>
-      <c r="Q121" s="78"/>
+      <c r="B121" s="79"/>
+      <c r="C121" s="79"/>
+      <c r="D121" s="79"/>
+      <c r="E121" s="79"/>
+      <c r="F121" s="79"/>
+      <c r="G121" s="79"/>
+      <c r="H121" s="79"/>
+      <c r="I121" s="79"/>
+      <c r="J121" s="79"/>
+      <c r="K121" s="79"/>
+      <c r="L121" s="79"/>
+      <c r="M121" s="79"/>
+      <c r="N121" s="79"/>
+      <c r="O121" s="79"/>
+      <c r="P121" s="79"/>
+      <c r="Q121" s="79"/>
       <c r="R121" s="46"/>
       <c r="S121" s="46"/>
       <c r="T121" s="46"/>
     </row>
     <row r="122" spans="1:20" s="65" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A122" s="10"/>
-      <c r="B122" s="75" t="s">
+      <c r="B122" s="76" t="s">
         <v>669</v>
       </c>
-      <c r="C122" s="75"/>
-      <c r="D122" s="75"/>
-      <c r="E122" s="75"/>
-      <c r="F122" s="75"/>
-      <c r="G122" s="75"/>
-      <c r="H122" s="75"/>
-      <c r="I122" s="75"/>
-      <c r="J122" s="75"/>
-      <c r="K122" s="75"/>
-      <c r="L122" s="75"/>
-      <c r="M122" s="75"/>
-      <c r="N122" s="75"/>
-      <c r="O122" s="75"/>
-      <c r="P122" s="75"/>
-      <c r="Q122" s="75"/>
-      <c r="R122" s="75"/>
-      <c r="S122" s="75"/>
-      <c r="T122" s="75"/>
+      <c r="C122" s="76"/>
+      <c r="D122" s="76"/>
+      <c r="E122" s="76"/>
+      <c r="F122" s="76"/>
+      <c r="G122" s="76"/>
+      <c r="H122" s="76"/>
+      <c r="I122" s="76"/>
+      <c r="J122" s="76"/>
+      <c r="K122" s="76"/>
+      <c r="L122" s="76"/>
+      <c r="M122" s="76"/>
+      <c r="N122" s="76"/>
+      <c r="O122" s="76"/>
+      <c r="P122" s="76"/>
+      <c r="Q122" s="76"/>
+      <c r="R122" s="76"/>
+      <c r="S122" s="76"/>
+      <c r="T122" s="76"/>
     </row>
     <row r="123" spans="1:20" s="65" customFormat="1" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A123" s="7"/>
@@ -13437,18 +13437,18 @@
       <c r="D123" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="E123" s="91" t="s">
+      <c r="E123" s="92" t="s">
         <v>709</v>
       </c>
-      <c r="F123" s="92"/>
-      <c r="G123" s="92"/>
-      <c r="H123" s="92"/>
-      <c r="I123" s="92"/>
-      <c r="J123" s="91" t="s">
+      <c r="F123" s="93"/>
+      <c r="G123" s="93"/>
+      <c r="H123" s="93"/>
+      <c r="I123" s="93"/>
+      <c r="J123" s="92" t="s">
         <v>713</v>
       </c>
-      <c r="K123" s="92"/>
-      <c r="L123" s="93"/>
+      <c r="K123" s="93"/>
+      <c r="L123" s="94"/>
       <c r="M123" s="7" t="s">
         <v>712</v>
       </c>
@@ -13710,25 +13710,25 @@
     </row>
     <row r="133" spans="1:22" s="65" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="134" spans="1:22" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A134" s="94" t="s">
+      <c r="A134" s="98" t="s">
         <v>374</v>
       </c>
-      <c r="B134" s="78"/>
-      <c r="C134" s="78"/>
-      <c r="D134" s="78"/>
-      <c r="E134" s="78"/>
-      <c r="F134" s="78"/>
-      <c r="G134" s="78"/>
-      <c r="H134" s="78"/>
-      <c r="I134" s="78"/>
-      <c r="J134" s="78"/>
-      <c r="K134" s="78"/>
-      <c r="L134" s="78"/>
-      <c r="M134" s="78"/>
-      <c r="N134" s="78"/>
-      <c r="O134" s="78"/>
-      <c r="P134" s="78"/>
-      <c r="Q134" s="78"/>
+      <c r="B134" s="79"/>
+      <c r="C134" s="79"/>
+      <c r="D134" s="79"/>
+      <c r="E134" s="79"/>
+      <c r="F134" s="79"/>
+      <c r="G134" s="79"/>
+      <c r="H134" s="79"/>
+      <c r="I134" s="79"/>
+      <c r="J134" s="79"/>
+      <c r="K134" s="79"/>
+      <c r="L134" s="79"/>
+      <c r="M134" s="79"/>
+      <c r="N134" s="79"/>
+      <c r="O134" s="79"/>
+      <c r="P134" s="79"/>
+      <c r="Q134" s="79"/>
       <c r="R134" s="45"/>
       <c r="S134" s="45"/>
       <c r="T134" s="45"/>
@@ -13737,29 +13737,29 @@
     </row>
     <row r="135" spans="1:22" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A135" s="10"/>
-      <c r="B135" s="73" t="s">
+      <c r="B135" s="74" t="s">
         <v>691</v>
       </c>
-      <c r="C135" s="73"/>
-      <c r="D135" s="73"/>
-      <c r="E135" s="73"/>
-      <c r="F135" s="73"/>
-      <c r="G135" s="73"/>
-      <c r="H135" s="73"/>
-      <c r="I135" s="73"/>
-      <c r="J135" s="73"/>
-      <c r="K135" s="73"/>
-      <c r="L135" s="73"/>
-      <c r="M135" s="73"/>
-      <c r="N135" s="73"/>
-      <c r="O135" s="73"/>
-      <c r="P135" s="73"/>
-      <c r="Q135" s="73"/>
-      <c r="R135" s="73"/>
-      <c r="S135" s="73"/>
-      <c r="T135" s="73"/>
-      <c r="U135" s="73"/>
-      <c r="V135" s="73"/>
+      <c r="C135" s="74"/>
+      <c r="D135" s="74"/>
+      <c r="E135" s="74"/>
+      <c r="F135" s="74"/>
+      <c r="G135" s="74"/>
+      <c r="H135" s="74"/>
+      <c r="I135" s="74"/>
+      <c r="J135" s="74"/>
+      <c r="K135" s="74"/>
+      <c r="L135" s="74"/>
+      <c r="M135" s="74"/>
+      <c r="N135" s="74"/>
+      <c r="O135" s="74"/>
+      <c r="P135" s="74"/>
+      <c r="Q135" s="74"/>
+      <c r="R135" s="74"/>
+      <c r="S135" s="74"/>
+      <c r="T135" s="74"/>
+      <c r="U135" s="74"/>
+      <c r="V135" s="74"/>
     </row>
     <row r="136" spans="1:22" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A136" s="7"/>
@@ -14079,13 +14079,22 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AA10:AC10"/>
-    <mergeCell ref="V10:Z10"/>
-    <mergeCell ref="B39:T39"/>
-    <mergeCell ref="V30:Z30"/>
-    <mergeCell ref="AA30:AC30"/>
-    <mergeCell ref="AD30:AG30"/>
+    <mergeCell ref="B135:V135"/>
+    <mergeCell ref="A121:Q121"/>
+    <mergeCell ref="B122:T122"/>
+    <mergeCell ref="A72:Q72"/>
+    <mergeCell ref="B73:T73"/>
+    <mergeCell ref="E123:I123"/>
+    <mergeCell ref="J123:L123"/>
+    <mergeCell ref="A81:Q81"/>
+    <mergeCell ref="B82:T82"/>
+    <mergeCell ref="A134:Q134"/>
+    <mergeCell ref="E110:G110"/>
+    <mergeCell ref="B109:T109"/>
+    <mergeCell ref="A90:Q90"/>
+    <mergeCell ref="B91:T91"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="H101:K101"/>
     <mergeCell ref="A8:Q8"/>
     <mergeCell ref="A108:Q108"/>
     <mergeCell ref="A1:Q1"/>
@@ -14102,22 +14111,13 @@
     <mergeCell ref="C30:U30"/>
     <mergeCell ref="A99:Q99"/>
     <mergeCell ref="B100:T100"/>
-    <mergeCell ref="B135:V135"/>
-    <mergeCell ref="A121:Q121"/>
-    <mergeCell ref="B122:T122"/>
-    <mergeCell ref="A72:Q72"/>
-    <mergeCell ref="B73:T73"/>
-    <mergeCell ref="E123:I123"/>
-    <mergeCell ref="J123:L123"/>
-    <mergeCell ref="A81:Q81"/>
-    <mergeCell ref="B82:T82"/>
-    <mergeCell ref="A134:Q134"/>
-    <mergeCell ref="E110:G110"/>
-    <mergeCell ref="B109:T109"/>
-    <mergeCell ref="A90:Q90"/>
-    <mergeCell ref="B91:T91"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AA10:AC10"/>
+    <mergeCell ref="V10:Z10"/>
+    <mergeCell ref="B39:T39"/>
+    <mergeCell ref="V30:Z30"/>
+    <mergeCell ref="AA30:AC30"/>
+    <mergeCell ref="AD30:AG30"/>
   </mergeCells>
   <dataValidations count="38">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Extend Outside ACI" error="Valid answers are no or yes" sqref="F103:K106 N42:N53 J112:J119 AA13:AC26 AG13:AG26 Q13:R26 N13:O26 V13:V26 Z42:AA53 G13:H26 E112:H119 AA33:AC36 AG33:AG36 Q33:R36 N33:O36 V33:V36 G33:H36 E125:L132" xr:uid="{00000000-0002-0000-0900-000000000000}">
@@ -15226,38 +15226,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11"/>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="77" t="s">
         <v>670</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="49" t="s">
@@ -15347,38 +15347,38 @@
       <c r="M7" s="20"/>
     </row>
     <row r="9" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
     </row>
     <row r="10" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11"/>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="77" t="s">
         <v>670</v>
       </c>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="79"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
     </row>
     <row r="11" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="49" t="s">
@@ -15423,38 +15423,38 @@
       <c r="M12" s="31"/>
     </row>
     <row r="14" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="77" t="s">
+      <c r="A14" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="78"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="79"/>
     </row>
     <row r="15" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11"/>
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="77" t="s">
         <v>670</v>
       </c>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="79"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="79"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="77"/>
     </row>
     <row r="16" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="49" t="s">
@@ -15526,38 +15526,38 @@
       <c r="M18" s="20"/>
     </row>
     <row r="20" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
     </row>
     <row r="21" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="11"/>
-      <c r="B21" s="79" t="s">
+      <c r="B21" s="77" t="s">
         <v>670</v>
       </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="79"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="77"/>
     </row>
     <row r="22" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="49" t="s">
@@ -15629,38 +15629,38 @@
       <c r="M24" s="20"/>
     </row>
     <row r="26" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="77" t="s">
+      <c r="A26" s="78" t="s">
         <v>653</v>
       </c>
-      <c r="B26" s="78"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="78"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="79"/>
     </row>
     <row r="27" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="11"/>
-      <c r="B27" s="79" t="s">
+      <c r="B27" s="77" t="s">
         <v>670</v>
       </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="79"/>
-      <c r="M27" s="79"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="77"/>
     </row>
     <row r="28" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="49" t="s">
@@ -15756,20 +15756,20 @@
     </row>
     <row r="33" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="40"/>
-      <c r="B33" s="79" t="s">
+      <c r="B33" s="77" t="s">
         <v>670</v>
       </c>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="79"/>
-      <c r="M33" s="79"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="77"/>
+      <c r="J33" s="77"/>
+      <c r="K33" s="77"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="77"/>
     </row>
     <row r="34" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="49" t="s">
@@ -15843,38 +15843,38 @@
     </row>
     <row r="36" spans="1:13" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="37" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="77" t="s">
+      <c r="A37" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="78"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="78"/>
-      <c r="G37" s="78"/>
-      <c r="H37" s="78"/>
-      <c r="I37" s="78"/>
-      <c r="J37" s="78"/>
-      <c r="K37" s="78"/>
-      <c r="L37" s="78"/>
-      <c r="M37" s="78"/>
+      <c r="B37" s="79"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="79"/>
+      <c r="J37" s="79"/>
+      <c r="K37" s="79"/>
+      <c r="L37" s="79"/>
+      <c r="M37" s="79"/>
     </row>
     <row r="38" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="11"/>
-      <c r="B38" s="79" t="s">
+      <c r="B38" s="77" t="s">
         <v>670</v>
       </c>
-      <c r="C38" s="79"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="79"/>
-      <c r="I38" s="79"/>
-      <c r="J38" s="79"/>
-      <c r="K38" s="79"/>
-      <c r="L38" s="79"/>
-      <c r="M38" s="79"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="77"/>
+      <c r="I38" s="77"/>
+      <c r="J38" s="77"/>
+      <c r="K38" s="77"/>
+      <c r="L38" s="77"/>
+      <c r="M38" s="77"/>
     </row>
     <row r="39" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="49" t="s">
@@ -15952,38 +15952,38 @@
       <c r="M41" s="20"/>
     </row>
     <row r="43" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="77" t="s">
+      <c r="A43" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="78"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="78"/>
-      <c r="I43" s="78"/>
-      <c r="J43" s="78"/>
-      <c r="K43" s="78"/>
-      <c r="L43" s="78"/>
-      <c r="M43" s="78"/>
+      <c r="B43" s="79"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="79"/>
+      <c r="H43" s="79"/>
+      <c r="I43" s="79"/>
+      <c r="J43" s="79"/>
+      <c r="K43" s="79"/>
+      <c r="L43" s="79"/>
+      <c r="M43" s="79"/>
     </row>
     <row r="44" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="11"/>
-      <c r="B44" s="79" t="s">
+      <c r="B44" s="77" t="s">
         <v>670</v>
       </c>
-      <c r="C44" s="79"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="79"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="79"/>
-      <c r="H44" s="79"/>
-      <c r="I44" s="79"/>
-      <c r="J44" s="79"/>
-      <c r="K44" s="79"/>
-      <c r="L44" s="79"/>
-      <c r="M44" s="79"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="77"/>
+      <c r="H44" s="77"/>
+      <c r="I44" s="77"/>
+      <c r="J44" s="77"/>
+      <c r="K44" s="77"/>
+      <c r="L44" s="77"/>
+      <c r="M44" s="77"/>
     </row>
     <row r="45" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="7" t="s">
@@ -16056,38 +16056,38 @@
     </row>
     <row r="48" spans="1:13" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="77" t="s">
+      <c r="A50" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="78"/>
-      <c r="C50" s="78"/>
-      <c r="D50" s="78"/>
-      <c r="E50" s="78"/>
-      <c r="F50" s="78"/>
-      <c r="G50" s="78"/>
-      <c r="H50" s="78"/>
-      <c r="I50" s="78"/>
-      <c r="J50" s="78"/>
-      <c r="K50" s="78"/>
-      <c r="L50" s="78"/>
-      <c r="M50" s="78"/>
+      <c r="B50" s="79"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="79"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="79"/>
+      <c r="G50" s="79"/>
+      <c r="H50" s="79"/>
+      <c r="I50" s="79"/>
+      <c r="J50" s="79"/>
+      <c r="K50" s="79"/>
+      <c r="L50" s="79"/>
+      <c r="M50" s="79"/>
     </row>
     <row r="51" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="11"/>
-      <c r="B51" s="76" t="s">
+      <c r="B51" s="82" t="s">
         <v>660</v>
       </c>
-      <c r="C51" s="76"/>
-      <c r="D51" s="76"/>
-      <c r="E51" s="76"/>
-      <c r="F51" s="76"/>
-      <c r="G51" s="76"/>
-      <c r="H51" s="76"/>
-      <c r="I51" s="76"/>
-      <c r="J51" s="76"/>
-      <c r="K51" s="76"/>
-      <c r="L51" s="76"/>
-      <c r="M51" s="76"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="82"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="82"/>
+      <c r="H51" s="82"/>
+      <c r="I51" s="82"/>
+      <c r="J51" s="82"/>
+      <c r="K51" s="82"/>
+      <c r="L51" s="82"/>
+      <c r="M51" s="82"/>
     </row>
     <row r="52" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="49" t="s">
@@ -16153,20 +16153,20 @@
     </row>
     <row r="56" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="11"/>
-      <c r="B56" s="79" t="s">
+      <c r="B56" s="77" t="s">
         <v>670</v>
       </c>
-      <c r="C56" s="79"/>
-      <c r="D56" s="79"/>
-      <c r="E56" s="79"/>
-      <c r="F56" s="79"/>
-      <c r="G56" s="79"/>
-      <c r="H56" s="79"/>
-      <c r="I56" s="79"/>
-      <c r="J56" s="79"/>
-      <c r="K56" s="79"/>
-      <c r="L56" s="79"/>
-      <c r="M56" s="79"/>
+      <c r="C56" s="77"/>
+      <c r="D56" s="77"/>
+      <c r="E56" s="77"/>
+      <c r="F56" s="77"/>
+      <c r="G56" s="77"/>
+      <c r="H56" s="77"/>
+      <c r="I56" s="77"/>
+      <c r="J56" s="77"/>
+      <c r="K56" s="77"/>
+      <c r="L56" s="77"/>
+      <c r="M56" s="77"/>
     </row>
     <row r="57" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="49" t="s">
@@ -16263,38 +16263,38 @@
     </row>
     <row r="60" spans="1:13" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="61" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="77" t="s">
+      <c r="A61" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="B61" s="78"/>
-      <c r="C61" s="78"/>
-      <c r="D61" s="78"/>
-      <c r="E61" s="78"/>
-      <c r="F61" s="78"/>
-      <c r="G61" s="78"/>
-      <c r="H61" s="78"/>
-      <c r="I61" s="78"/>
-      <c r="J61" s="78"/>
-      <c r="K61" s="78"/>
-      <c r="L61" s="78"/>
-      <c r="M61" s="78"/>
+      <c r="B61" s="79"/>
+      <c r="C61" s="79"/>
+      <c r="D61" s="79"/>
+      <c r="E61" s="79"/>
+      <c r="F61" s="79"/>
+      <c r="G61" s="79"/>
+      <c r="H61" s="79"/>
+      <c r="I61" s="79"/>
+      <c r="J61" s="79"/>
+      <c r="K61" s="79"/>
+      <c r="L61" s="79"/>
+      <c r="M61" s="79"/>
     </row>
     <row r="62" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="39"/>
-      <c r="B62" s="79" t="s">
+      <c r="B62" s="77" t="s">
         <v>670</v>
       </c>
-      <c r="C62" s="79"/>
-      <c r="D62" s="79"/>
-      <c r="E62" s="79"/>
-      <c r="F62" s="79"/>
-      <c r="G62" s="79"/>
-      <c r="H62" s="79"/>
-      <c r="I62" s="79"/>
-      <c r="J62" s="79"/>
-      <c r="K62" s="79"/>
-      <c r="L62" s="79"/>
-      <c r="M62" s="79"/>
+      <c r="C62" s="77"/>
+      <c r="D62" s="77"/>
+      <c r="E62" s="77"/>
+      <c r="F62" s="77"/>
+      <c r="G62" s="77"/>
+      <c r="H62" s="77"/>
+      <c r="I62" s="77"/>
+      <c r="J62" s="77"/>
+      <c r="K62" s="77"/>
+      <c r="L62" s="77"/>
+      <c r="M62" s="77"/>
     </row>
     <row r="63" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="49" t="s">
@@ -16412,21 +16412,21 @@
     </row>
     <row r="67" spans="1:26" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="68" spans="1:26" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="77" t="s">
+      <c r="A68" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="B68" s="78"/>
-      <c r="C68" s="78"/>
-      <c r="D68" s="78"/>
-      <c r="E68" s="78"/>
-      <c r="F68" s="78"/>
-      <c r="G68" s="78"/>
-      <c r="H68" s="78"/>
-      <c r="I68" s="78"/>
-      <c r="J68" s="78"/>
-      <c r="K68" s="78"/>
-      <c r="L68" s="78"/>
-      <c r="M68" s="78"/>
+      <c r="B68" s="79"/>
+      <c r="C68" s="79"/>
+      <c r="D68" s="79"/>
+      <c r="E68" s="79"/>
+      <c r="F68" s="79"/>
+      <c r="G68" s="79"/>
+      <c r="H68" s="79"/>
+      <c r="I68" s="79"/>
+      <c r="J68" s="79"/>
+      <c r="K68" s="79"/>
+      <c r="L68" s="79"/>
+      <c r="M68" s="79"/>
       <c r="N68" s="32"/>
       <c r="O68" s="32"/>
       <c r="P68" s="3"/>
@@ -16443,22 +16443,22 @@
     </row>
     <row r="69" spans="1:26" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="11"/>
-      <c r="B69" s="79" t="s">
+      <c r="B69" s="77" t="s">
         <v>670</v>
       </c>
-      <c r="C69" s="79"/>
-      <c r="D69" s="79"/>
-      <c r="E69" s="79"/>
-      <c r="F69" s="79"/>
-      <c r="G69" s="79"/>
-      <c r="H69" s="79"/>
-      <c r="I69" s="79"/>
-      <c r="J69" s="79"/>
-      <c r="K69" s="79"/>
-      <c r="L69" s="79"/>
-      <c r="M69" s="79"/>
-      <c r="N69" s="79"/>
-      <c r="O69" s="79"/>
+      <c r="C69" s="77"/>
+      <c r="D69" s="77"/>
+      <c r="E69" s="77"/>
+      <c r="F69" s="77"/>
+      <c r="G69" s="77"/>
+      <c r="H69" s="77"/>
+      <c r="I69" s="77"/>
+      <c r="J69" s="77"/>
+      <c r="K69" s="77"/>
+      <c r="L69" s="77"/>
+      <c r="M69" s="77"/>
+      <c r="N69" s="77"/>
+      <c r="O69" s="77"/>
       <c r="P69" s="4"/>
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
@@ -16565,38 +16565,38 @@
       </c>
     </row>
     <row r="73" spans="1:26" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="77" t="s">
+      <c r="A73" s="78" t="s">
         <v>661</v>
       </c>
-      <c r="B73" s="78"/>
-      <c r="C73" s="78"/>
-      <c r="D73" s="78"/>
-      <c r="E73" s="78"/>
-      <c r="F73" s="78"/>
-      <c r="G73" s="78"/>
-      <c r="H73" s="78"/>
-      <c r="I73" s="78"/>
-      <c r="J73" s="78"/>
-      <c r="K73" s="78"/>
-      <c r="L73" s="78"/>
-      <c r="M73" s="78"/>
+      <c r="B73" s="79"/>
+      <c r="C73" s="79"/>
+      <c r="D73" s="79"/>
+      <c r="E73" s="79"/>
+      <c r="F73" s="79"/>
+      <c r="G73" s="79"/>
+      <c r="H73" s="79"/>
+      <c r="I73" s="79"/>
+      <c r="J73" s="79"/>
+      <c r="K73" s="79"/>
+      <c r="L73" s="79"/>
+      <c r="M73" s="79"/>
     </row>
     <row r="74" spans="1:26" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="11"/>
-      <c r="B74" s="79" t="s">
+      <c r="B74" s="77" t="s">
         <v>670</v>
       </c>
-      <c r="C74" s="79"/>
-      <c r="D74" s="79"/>
-      <c r="E74" s="79"/>
-      <c r="F74" s="79"/>
-      <c r="G74" s="79"/>
-      <c r="H74" s="79"/>
-      <c r="I74" s="79"/>
-      <c r="J74" s="79"/>
-      <c r="K74" s="79"/>
-      <c r="L74" s="79"/>
-      <c r="M74" s="79"/>
+      <c r="C74" s="77"/>
+      <c r="D74" s="77"/>
+      <c r="E74" s="77"/>
+      <c r="F74" s="77"/>
+      <c r="G74" s="77"/>
+      <c r="H74" s="77"/>
+      <c r="I74" s="77"/>
+      <c r="J74" s="77"/>
+      <c r="K74" s="77"/>
+      <c r="L74" s="77"/>
+      <c r="M74" s="77"/>
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
       <c r="P74" s="4"/>
@@ -16674,6 +16674,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B51:M51"/>
+    <mergeCell ref="A9:M9"/>
+    <mergeCell ref="A14:M14"/>
+    <mergeCell ref="B15:M15"/>
+    <mergeCell ref="A32:M32"/>
+    <mergeCell ref="B33:M33"/>
+    <mergeCell ref="A26:M26"/>
+    <mergeCell ref="A20:M20"/>
+    <mergeCell ref="B21:M21"/>
+    <mergeCell ref="B27:M27"/>
     <mergeCell ref="B74:M74"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="B2:M2"/>
@@ -16690,16 +16700,6 @@
     <mergeCell ref="B69:O69"/>
     <mergeCell ref="B62:M62"/>
     <mergeCell ref="B38:M38"/>
-    <mergeCell ref="B51:M51"/>
-    <mergeCell ref="A9:M9"/>
-    <mergeCell ref="A14:M14"/>
-    <mergeCell ref="B15:M15"/>
-    <mergeCell ref="A32:M32"/>
-    <mergeCell ref="B33:M33"/>
-    <mergeCell ref="A26:M26"/>
-    <mergeCell ref="A20:M20"/>
-    <mergeCell ref="B21:M21"/>
-    <mergeCell ref="B27:M27"/>
   </mergeCells>
   <dataValidations count="30">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E35 C12 H58:H59 E29:E30 E40:E41 F76" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -16836,38 +16836,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="5" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11"/>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="77" t="s">
         <v>670</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="49" t="s">
@@ -17182,7 +17182,7 @@
       <c r="M14" s="31"/>
     </row>
     <row r="16" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="82" t="s">
+      <c r="A16" s="83" t="s">
         <v>123</v>
       </c>
       <c r="B16" s="81"/>
@@ -17200,20 +17200,20 @@
     </row>
     <row r="17" spans="1:13" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="10"/>
-      <c r="B17" s="83" t="s">
+      <c r="B17" s="84" t="s">
         <v>670</v>
       </c>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="83"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="84"/>
     </row>
     <row r="18" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
@@ -17588,38 +17588,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="5" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="78" t="s">
         <v>624</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11"/>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="77" t="s">
         <v>670</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
     </row>
     <row r="3" spans="1:13" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="58" t="s">
@@ -17691,38 +17691,38 @@
       <c r="M5" s="20"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="78" t="s">
         <v>137</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11"/>
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="77" t="s">
         <v>670</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="79"/>
-      <c r="M8" s="79"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
     </row>
     <row r="9" spans="1:13" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="58" t="s">
@@ -17887,38 +17887,38 @@
       <c r="M16" s="31"/>
     </row>
     <row r="18" spans="1:13" s="5" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="77" t="s">
+      <c r="A18" s="78" t="s">
         <v>625</v>
       </c>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="78"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
     </row>
     <row r="19" spans="1:13" s="5" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="10"/>
-      <c r="B19" s="79" t="s">
+      <c r="B19" s="77" t="s">
         <v>670</v>
       </c>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="79"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="77"/>
     </row>
     <row r="20" spans="1:13" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="58" t="s">
@@ -18331,18 +18331,18 @@
       <c r="A36" s="80" t="s">
         <v>162</v>
       </c>
-      <c r="B36" s="84"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="84"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="84"/>
-      <c r="H36" s="84"/>
-      <c r="I36" s="84"/>
-      <c r="J36" s="84"/>
-      <c r="K36" s="84"/>
-      <c r="L36" s="84"/>
-      <c r="M36" s="84"/>
+      <c r="B36" s="85"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="85"/>
+      <c r="I36" s="85"/>
+      <c r="J36" s="85"/>
+      <c r="K36" s="85"/>
+      <c r="L36" s="85"/>
+      <c r="M36" s="85"/>
       <c r="N36" s="64"/>
       <c r="O36" s="64"/>
       <c r="P36" s="64"/>
@@ -18351,20 +18351,20 @@
     </row>
     <row r="37" spans="1:18" s="5" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="10"/>
-      <c r="B37" s="79" t="s">
+      <c r="B37" s="77" t="s">
         <v>670</v>
       </c>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="79"/>
-      <c r="J37" s="79"/>
-      <c r="K37" s="79"/>
-      <c r="L37" s="79"/>
-      <c r="M37" s="79"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="77"/>
+      <c r="I37" s="77"/>
+      <c r="J37" s="77"/>
+      <c r="K37" s="77"/>
+      <c r="L37" s="77"/>
+      <c r="M37" s="77"/>
       <c r="N37" s="63"/>
       <c r="O37" s="63"/>
       <c r="P37" s="63"/>
@@ -18570,38 +18570,38 @@
       <c r="R44" s="20"/>
     </row>
     <row r="46" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="77" t="s">
+      <c r="A46" s="78" t="s">
         <v>181</v>
       </c>
-      <c r="B46" s="78"/>
-      <c r="C46" s="78"/>
-      <c r="D46" s="78"/>
-      <c r="E46" s="78"/>
-      <c r="F46" s="78"/>
-      <c r="G46" s="78"/>
-      <c r="H46" s="78"/>
-      <c r="I46" s="78"/>
-      <c r="J46" s="78"/>
-      <c r="K46" s="78"/>
-      <c r="L46" s="78"/>
-      <c r="M46" s="78"/>
+      <c r="B46" s="79"/>
+      <c r="C46" s="79"/>
+      <c r="D46" s="79"/>
+      <c r="E46" s="79"/>
+      <c r="F46" s="79"/>
+      <c r="G46" s="79"/>
+      <c r="H46" s="79"/>
+      <c r="I46" s="79"/>
+      <c r="J46" s="79"/>
+      <c r="K46" s="79"/>
+      <c r="L46" s="79"/>
+      <c r="M46" s="79"/>
     </row>
     <row r="47" spans="1:18" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="10"/>
-      <c r="B47" s="79" t="s">
+      <c r="B47" s="77" t="s">
         <v>670</v>
       </c>
-      <c r="C47" s="79"/>
-      <c r="D47" s="79"/>
-      <c r="E47" s="79"/>
-      <c r="F47" s="79"/>
-      <c r="G47" s="79"/>
-      <c r="H47" s="79"/>
-      <c r="I47" s="79"/>
-      <c r="J47" s="79"/>
-      <c r="K47" s="79"/>
-      <c r="L47" s="79"/>
-      <c r="M47" s="79"/>
+      <c r="C47" s="77"/>
+      <c r="D47" s="77"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="77"/>
+      <c r="H47" s="77"/>
+      <c r="I47" s="77"/>
+      <c r="J47" s="77"/>
+      <c r="K47" s="77"/>
+      <c r="L47" s="77"/>
+      <c r="M47" s="77"/>
     </row>
     <row r="48" spans="1:18" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="7" t="s">
@@ -18775,7 +18775,7 @@
       <c r="M56" s="20"/>
     </row>
     <row r="58" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A58" s="82" t="s">
+      <c r="A58" s="83" t="s">
         <v>186</v>
       </c>
       <c r="B58" s="81"/>
@@ -18793,20 +18793,20 @@
     </row>
     <row r="59" spans="1:13" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A59" s="10"/>
-      <c r="B59" s="79" t="s">
+      <c r="B59" s="77" t="s">
         <v>671</v>
       </c>
-      <c r="C59" s="79"/>
-      <c r="D59" s="79"/>
-      <c r="E59" s="79"/>
-      <c r="F59" s="79"/>
-      <c r="G59" s="79"/>
-      <c r="H59" s="79"/>
-      <c r="I59" s="79"/>
-      <c r="J59" s="79"/>
-      <c r="K59" s="79"/>
-      <c r="L59" s="79"/>
-      <c r="M59" s="79"/>
+      <c r="C59" s="77"/>
+      <c r="D59" s="77"/>
+      <c r="E59" s="77"/>
+      <c r="F59" s="77"/>
+      <c r="G59" s="77"/>
+      <c r="H59" s="77"/>
+      <c r="I59" s="77"/>
+      <c r="J59" s="77"/>
+      <c r="K59" s="77"/>
+      <c r="L59" s="77"/>
+      <c r="M59" s="77"/>
     </row>
     <row r="60" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="7" t="s">
@@ -18952,7 +18952,7 @@
       <c r="M66" s="20"/>
     </row>
     <row r="68" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A68" s="82" t="s">
+      <c r="A68" s="83" t="s">
         <v>189</v>
       </c>
       <c r="B68" s="81"/>
@@ -18970,20 +18970,20 @@
     </row>
     <row r="69" spans="1:13" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A69" s="10"/>
-      <c r="B69" s="79" t="s">
+      <c r="B69" s="77" t="s">
         <v>672</v>
       </c>
-      <c r="C69" s="79"/>
-      <c r="D69" s="79"/>
-      <c r="E69" s="79"/>
-      <c r="F69" s="79"/>
-      <c r="G69" s="79"/>
-      <c r="H69" s="79"/>
-      <c r="I69" s="79"/>
-      <c r="J69" s="79"/>
-      <c r="K69" s="79"/>
-      <c r="L69" s="79"/>
-      <c r="M69" s="79"/>
+      <c r="C69" s="77"/>
+      <c r="D69" s="77"/>
+      <c r="E69" s="77"/>
+      <c r="F69" s="77"/>
+      <c r="G69" s="77"/>
+      <c r="H69" s="77"/>
+      <c r="I69" s="77"/>
+      <c r="J69" s="77"/>
+      <c r="K69" s="77"/>
+      <c r="L69" s="77"/>
+      <c r="M69" s="77"/>
     </row>
     <row r="70" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="7" t="s">
@@ -19284,40 +19284,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
       <c r="N1" s="59"/>
       <c r="O1" s="59"/>
     </row>
     <row r="2" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="9"/>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="77" t="s">
         <v>670</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
     </row>
@@ -19413,38 +19413,38 @@
     </row>
     <row r="6" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:15" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="78" t="s">
         <v>211</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
     </row>
     <row r="8" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="12"/>
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="77" t="s">
         <v>670</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="79"/>
-      <c r="M8" s="79"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
     </row>
     <row r="9" spans="1:15" s="3" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
@@ -19559,38 +19559,38 @@
     </row>
     <row r="12" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="1:15" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="78" t="s">
         <v>223</v>
       </c>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="78"/>
-      <c r="M13" s="78"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="79"/>
     </row>
     <row r="14" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="12"/>
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="77" t="s">
         <v>670</v>
       </c>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="79"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
     </row>
     <row r="15" spans="1:15" s="3" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="8" t="s">
@@ -19704,38 +19704,38 @@
       <c r="M17" s="20"/>
     </row>
     <row r="19" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="87" t="s">
+      <c r="A19" s="88" t="s">
         <v>227</v>
       </c>
-      <c r="B19" s="78"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="78"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="79"/>
     </row>
     <row r="20" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="39"/>
-      <c r="B20" s="79" t="s">
+      <c r="B20" s="77" t="s">
         <v>670</v>
       </c>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
     </row>
     <row r="21" spans="1:14" s="3" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
@@ -19811,40 +19811,40 @@
       <c r="M23" s="20"/>
     </row>
     <row r="25" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="77" t="s">
+      <c r="A25" s="78" t="s">
         <v>233</v>
       </c>
-      <c r="B25" s="78"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="78"/>
-      <c r="L25" s="78"/>
-      <c r="M25" s="78"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="79"/>
       <c r="N25" s="59"/>
     </row>
     <row r="26" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="11"/>
-      <c r="B26" s="85" t="s">
+      <c r="B26" s="86" t="s">
         <v>673</v>
       </c>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="86"/>
-      <c r="M26" s="86"/>
-      <c r="N26" s="86"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="87"/>
+      <c r="K26" s="87"/>
+      <c r="L26" s="87"/>
+      <c r="M26" s="87"/>
+      <c r="N26" s="87"/>
     </row>
     <row r="27" spans="1:14" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="49" t="s">
@@ -20102,38 +20102,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="71" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11"/>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="77" t="s">
         <v>670</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="49" t="s">
@@ -20448,7 +20448,7 @@
       <c r="M14" s="31"/>
     </row>
     <row r="16" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="82" t="s">
+      <c r="A16" s="83" t="s">
         <v>123</v>
       </c>
       <c r="B16" s="81"/>
@@ -20466,20 +20466,20 @@
     </row>
     <row r="17" spans="1:13" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="10"/>
-      <c r="B17" s="83" t="s">
+      <c r="B17" s="84" t="s">
         <v>670</v>
       </c>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="83"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="84"/>
     </row>
     <row r="18" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
@@ -20852,38 +20852,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="5" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="90" t="s">
         <v>248</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
     </row>
     <row r="2" spans="1:13" s="5" customFormat="1" ht="74.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="60"/>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="89" t="s">
         <v>630</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="49" t="s">
@@ -21300,38 +21300,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="5" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="90" t="s">
         <v>255</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
     </row>
     <row r="2" spans="1:13" s="5" customFormat="1" ht="165.65" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10"/>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="89" t="s">
         <v>631</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="49" t="s">
@@ -21565,38 +21565,38 @@
       <c r="M15" s="20"/>
     </row>
     <row r="17" spans="1:13" s="5" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="89" t="s">
+      <c r="A17" s="90" t="s">
         <v>264</v>
       </c>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="78"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="78"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="79"/>
     </row>
     <row r="18" spans="1:13" s="5" customFormat="1" ht="241.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="10"/>
-      <c r="B18" s="90" t="s">
+      <c r="B18" s="91" t="s">
         <v>629</v>
       </c>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="90"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="91"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="91"/>
     </row>
     <row r="19" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="49" t="s">
@@ -21903,39 +21903,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="90" t="s">
         <v>281</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
       <c r="N1" s="44"/>
     </row>
     <row r="2" spans="1:21" ht="53.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10"/>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="89" t="s">
         <v>916</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
       <c r="N2" s="10"/>
       <c r="O2"/>
       <c r="P2"/>
@@ -22246,41 +22246,41 @@
       <c r="N11" s="20"/>
     </row>
     <row r="13" spans="1:21" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="89" t="s">
+      <c r="A13" s="90" t="s">
         <v>910</v>
       </c>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="78"/>
-      <c r="M13" s="78"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="79"/>
       <c r="N13" s="44"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
     </row>
     <row r="14" spans="1:21" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="10"/>
-      <c r="B14" s="88" t="s">
+      <c r="B14" s="89" t="s">
         <v>669</v>
       </c>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="89"/>
       <c r="N14" s="10"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
@@ -22764,21 +22764,21 @@
     </row>
     <row r="28" spans="1:17" s="66" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="29" spans="1:17" s="66" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="89" t="s">
+      <c r="A29" s="90" t="s">
         <v>911</v>
       </c>
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="78"/>
-      <c r="M29" s="78"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="79"/>
       <c r="N29" s="44"/>
       <c r="O29" s="44"/>
       <c r="P29" s="44"/>
@@ -22786,20 +22786,20 @@
     </row>
     <row r="30" spans="1:17" s="66" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="10"/>
-      <c r="B30" s="88" t="s">
+      <c r="B30" s="89" t="s">
         <v>669</v>
       </c>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="88"/>
-      <c r="K30" s="88"/>
-      <c r="L30" s="88"/>
-      <c r="M30" s="88"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="89"/>
+      <c r="I30" s="89"/>
+      <c r="J30" s="89"/>
+      <c r="K30" s="89"/>
+      <c r="L30" s="89"/>
+      <c r="M30" s="89"/>
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
@@ -23487,39 +23487,39 @@
       <c r="Q47" s="69"/>
     </row>
     <row r="49" spans="1:14" s="66" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A49" s="89" t="s">
+      <c r="A49" s="90" t="s">
         <v>971</v>
       </c>
-      <c r="B49" s="78"/>
-      <c r="C49" s="78"/>
-      <c r="D49" s="78"/>
-      <c r="E49" s="78"/>
-      <c r="F49" s="78"/>
-      <c r="G49" s="78"/>
-      <c r="H49" s="78"/>
-      <c r="I49" s="78"/>
-      <c r="J49" s="78"/>
-      <c r="K49" s="78"/>
-      <c r="L49" s="78"/>
-      <c r="M49" s="78"/>
+      <c r="B49" s="79"/>
+      <c r="C49" s="79"/>
+      <c r="D49" s="79"/>
+      <c r="E49" s="79"/>
+      <c r="F49" s="79"/>
+      <c r="G49" s="79"/>
+      <c r="H49" s="79"/>
+      <c r="I49" s="79"/>
+      <c r="J49" s="79"/>
+      <c r="K49" s="79"/>
+      <c r="L49" s="79"/>
+      <c r="M49" s="79"/>
       <c r="N49" s="44"/>
     </row>
     <row r="50" spans="1:14" s="66" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A50" s="10"/>
-      <c r="B50" s="88" t="s">
+      <c r="B50" s="89" t="s">
         <v>669</v>
       </c>
-      <c r="C50" s="88"/>
-      <c r="D50" s="88"/>
-      <c r="E50" s="88"/>
-      <c r="F50" s="88"/>
-      <c r="G50" s="88"/>
-      <c r="H50" s="88"/>
-      <c r="I50" s="88"/>
-      <c r="J50" s="88"/>
-      <c r="K50" s="88"/>
-      <c r="L50" s="88"/>
-      <c r="M50" s="88"/>
+      <c r="C50" s="89"/>
+      <c r="D50" s="89"/>
+      <c r="E50" s="89"/>
+      <c r="F50" s="89"/>
+      <c r="G50" s="89"/>
+      <c r="H50" s="89"/>
+      <c r="I50" s="89"/>
+      <c r="J50" s="89"/>
+      <c r="K50" s="89"/>
+      <c r="L50" s="89"/>
+      <c r="M50" s="89"/>
       <c r="N50" s="10"/>
     </row>
     <row r="51" spans="1:14" s="70" customFormat="1" ht="47.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -23679,39 +23679,39 @@
       <c r="N56" s="20"/>
     </row>
     <row r="58" spans="1:14" s="66" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A58" s="89" t="s">
+      <c r="A58" s="90" t="s">
         <v>972</v>
       </c>
-      <c r="B58" s="78"/>
-      <c r="C58" s="78"/>
-      <c r="D58" s="78"/>
-      <c r="E58" s="78"/>
-      <c r="F58" s="78"/>
-      <c r="G58" s="78"/>
-      <c r="H58" s="78"/>
-      <c r="I58" s="78"/>
-      <c r="J58" s="78"/>
-      <c r="K58" s="78"/>
-      <c r="L58" s="78"/>
-      <c r="M58" s="78"/>
+      <c r="B58" s="79"/>
+      <c r="C58" s="79"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="79"/>
+      <c r="F58" s="79"/>
+      <c r="G58" s="79"/>
+      <c r="H58" s="79"/>
+      <c r="I58" s="79"/>
+      <c r="J58" s="79"/>
+      <c r="K58" s="79"/>
+      <c r="L58" s="79"/>
+      <c r="M58" s="79"/>
       <c r="N58" s="44"/>
     </row>
     <row r="59" spans="1:14" s="66" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A59" s="10"/>
-      <c r="B59" s="88" t="s">
+      <c r="B59" s="89" t="s">
         <v>669</v>
       </c>
-      <c r="C59" s="88"/>
-      <c r="D59" s="88"/>
-      <c r="E59" s="88"/>
-      <c r="F59" s="88"/>
-      <c r="G59" s="88"/>
-      <c r="H59" s="88"/>
-      <c r="I59" s="88"/>
-      <c r="J59" s="88"/>
-      <c r="K59" s="88"/>
-      <c r="L59" s="88"/>
-      <c r="M59" s="88"/>
+      <c r="C59" s="89"/>
+      <c r="D59" s="89"/>
+      <c r="E59" s="89"/>
+      <c r="F59" s="89"/>
+      <c r="G59" s="89"/>
+      <c r="H59" s="89"/>
+      <c r="I59" s="89"/>
+      <c r="J59" s="89"/>
+      <c r="K59" s="89"/>
+      <c r="L59" s="89"/>
+      <c r="M59" s="89"/>
       <c r="N59" s="10"/>
     </row>
     <row r="60" spans="1:14" s="70" customFormat="1" ht="47.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -23876,39 +23876,39 @@
     </row>
     <row r="66" spans="1:14" s="66" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="67" spans="1:14" s="66" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A67" s="89" t="s">
+      <c r="A67" s="90" t="s">
         <v>973</v>
       </c>
-      <c r="B67" s="78"/>
-      <c r="C67" s="78"/>
-      <c r="D67" s="78"/>
-      <c r="E67" s="78"/>
-      <c r="F67" s="78"/>
-      <c r="G67" s="78"/>
-      <c r="H67" s="78"/>
-      <c r="I67" s="78"/>
-      <c r="J67" s="78"/>
-      <c r="K67" s="78"/>
-      <c r="L67" s="78"/>
-      <c r="M67" s="78"/>
+      <c r="B67" s="79"/>
+      <c r="C67" s="79"/>
+      <c r="D67" s="79"/>
+      <c r="E67" s="79"/>
+      <c r="F67" s="79"/>
+      <c r="G67" s="79"/>
+      <c r="H67" s="79"/>
+      <c r="I67" s="79"/>
+      <c r="J67" s="79"/>
+      <c r="K67" s="79"/>
+      <c r="L67" s="79"/>
+      <c r="M67" s="79"/>
       <c r="N67" s="44"/>
     </row>
     <row r="68" spans="1:14" s="66" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A68" s="10"/>
-      <c r="B68" s="88" t="s">
+      <c r="B68" s="89" t="s">
         <v>669</v>
       </c>
-      <c r="C68" s="88"/>
-      <c r="D68" s="88"/>
-      <c r="E68" s="88"/>
-      <c r="F68" s="88"/>
-      <c r="G68" s="88"/>
-      <c r="H68" s="88"/>
-      <c r="I68" s="88"/>
-      <c r="J68" s="88"/>
-      <c r="K68" s="88"/>
-      <c r="L68" s="88"/>
-      <c r="M68" s="88"/>
+      <c r="C68" s="89"/>
+      <c r="D68" s="89"/>
+      <c r="E68" s="89"/>
+      <c r="F68" s="89"/>
+      <c r="G68" s="89"/>
+      <c r="H68" s="89"/>
+      <c r="I68" s="89"/>
+      <c r="J68" s="89"/>
+      <c r="K68" s="89"/>
+      <c r="L68" s="89"/>
+      <c r="M68" s="89"/>
       <c r="N68" s="10"/>
     </row>
     <row r="69" spans="1:14" s="66" customFormat="1" ht="47.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -24074,6 +24074,11 @@
     <row r="75" spans="1:14" s="66" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="A13:M13"/>
+    <mergeCell ref="B14:M14"/>
+    <mergeCell ref="A29:M29"/>
     <mergeCell ref="A67:M67"/>
     <mergeCell ref="B68:M68"/>
     <mergeCell ref="B30:M30"/>
@@ -24081,11 +24086,6 @@
     <mergeCell ref="B50:M50"/>
     <mergeCell ref="A58:M58"/>
     <mergeCell ref="B59:M59"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="A13:M13"/>
-    <mergeCell ref="B14:M14"/>
-    <mergeCell ref="A29:M29"/>
   </mergeCells>
   <dataValidations count="14">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E32:E45" xr:uid="{00000000-0002-0000-0700-000000000000}">

--- a/Spreadsheet-ACI.xlsx
+++ b/Spreadsheet-ACI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\tyscott\iac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33573975-5915-4496-85D4-A87CFE13C9D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61C3416-2AB4-4B64-989B-F4D3A633F9B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="803" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="803" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sites" sheetId="15" r:id="rId1"/>
@@ -4845,20 +4845,20 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4896,15 +4896,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4920,6 +4911,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5351,8 +5351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BFD7935-0F0A-46EB-9824-225EC9CADD69}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5477,7 +5477,7 @@
       <c r="G4" s="73" t="s">
         <v>1103</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="18" t="s">
         <v>1105</v>
       </c>
       <c r="I4" s="52">
@@ -5521,7 +5521,7 @@
       <c r="G5" s="42" t="s">
         <v>1103</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="H5" s="19" t="s">
         <v>1105</v>
       </c>
       <c r="I5" s="55">
@@ -5551,7 +5551,7 @@
       <c r="E6" s="34"/>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
+      <c r="H6" s="18"/>
       <c r="I6" s="34"/>
       <c r="J6" s="34"/>
       <c r="K6" s="34"/>
@@ -5567,7 +5567,7 @@
       <c r="E7" s="42"/>
       <c r="F7" s="42"/>
       <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
+      <c r="H7" s="19"/>
       <c r="I7" s="42"/>
       <c r="J7" s="42"/>
       <c r="K7" s="42"/>
@@ -5583,7 +5583,7 @@
       <c r="E8" s="34"/>
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
+      <c r="H8" s="18"/>
       <c r="I8" s="34"/>
       <c r="J8" s="34"/>
       <c r="K8" s="34"/>
@@ -5599,7 +5599,7 @@
       <c r="E9" s="42"/>
       <c r="F9" s="42"/>
       <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
+      <c r="H9" s="19"/>
       <c r="I9" s="42"/>
       <c r="J9" s="42"/>
       <c r="K9" s="42"/>
@@ -5615,7 +5615,7 @@
       <c r="E10" s="34"/>
       <c r="F10" s="34"/>
       <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="34"/>
       <c r="J10" s="34"/>
       <c r="K10" s="34"/>
@@ -5631,7 +5631,7 @@
       <c r="E11" s="42"/>
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
+      <c r="H11" s="19"/>
       <c r="I11" s="42"/>
       <c r="J11" s="42"/>
       <c r="K11" s="42"/>
@@ -5647,7 +5647,7 @@
       <c r="E12" s="34"/>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
+      <c r="H12" s="18"/>
       <c r="I12" s="34"/>
       <c r="J12" s="34"/>
       <c r="K12" s="34"/>
@@ -5663,7 +5663,7 @@
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
+      <c r="H13" s="19"/>
       <c r="I13" s="42"/>
       <c r="J13" s="42"/>
       <c r="K13" s="42"/>
@@ -5679,7 +5679,7 @@
       <c r="E14" s="34"/>
       <c r="F14" s="34"/>
       <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
+      <c r="H14" s="18"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
       <c r="K14" s="34"/>
@@ -5695,7 +5695,7 @@
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
       <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
+      <c r="H15" s="19"/>
       <c r="I15" s="42"/>
       <c r="J15" s="42"/>
       <c r="K15" s="42"/>
@@ -5931,7 +5931,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:U61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -8876,27 +8876,27 @@
     <row r="10" spans="1:33" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="92"/>
       <c r="B10" s="94"/>
-      <c r="C10" s="95" t="s">
+      <c r="C10" s="102" t="s">
         <v>417</v>
       </c>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="96"/>
-      <c r="P10" s="96"/>
-      <c r="Q10" s="96"/>
-      <c r="R10" s="96"/>
-      <c r="S10" s="96"/>
-      <c r="T10" s="96"/>
-      <c r="U10" s="97"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="103"/>
+      <c r="L10" s="103"/>
+      <c r="M10" s="103"/>
+      <c r="N10" s="103"/>
+      <c r="O10" s="103"/>
+      <c r="P10" s="103"/>
+      <c r="Q10" s="103"/>
+      <c r="R10" s="103"/>
+      <c r="S10" s="103"/>
+      <c r="T10" s="103"/>
+      <c r="U10" s="104"/>
       <c r="V10" s="92" t="s">
         <v>418</v>
       </c>
@@ -10297,27 +10297,27 @@
     <row r="30" spans="1:33" s="66" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="92"/>
       <c r="B30" s="94"/>
-      <c r="C30" s="95" t="s">
+      <c r="C30" s="102" t="s">
         <v>417</v>
       </c>
-      <c r="D30" s="96"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="96"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="96"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="96"/>
-      <c r="M30" s="96"/>
-      <c r="N30" s="96"/>
-      <c r="O30" s="96"/>
-      <c r="P30" s="96"/>
-      <c r="Q30" s="96"/>
-      <c r="R30" s="96"/>
-      <c r="S30" s="96"/>
-      <c r="T30" s="96"/>
-      <c r="U30" s="97"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="103"/>
+      <c r="J30" s="103"/>
+      <c r="K30" s="103"/>
+      <c r="L30" s="103"/>
+      <c r="M30" s="103"/>
+      <c r="N30" s="103"/>
+      <c r="O30" s="103"/>
+      <c r="P30" s="103"/>
+      <c r="Q30" s="103"/>
+      <c r="R30" s="103"/>
+      <c r="S30" s="103"/>
+      <c r="T30" s="103"/>
+      <c r="U30" s="104"/>
       <c r="V30" s="92" t="s">
         <v>418</v>
       </c>
@@ -12799,12 +12799,12 @@
       </c>
       <c r="F101" s="93"/>
       <c r="G101" s="93"/>
-      <c r="H101" s="102" t="s">
+      <c r="H101" s="99" t="s">
         <v>1027</v>
       </c>
-      <c r="I101" s="103"/>
-      <c r="J101" s="103"/>
-      <c r="K101" s="104"/>
+      <c r="I101" s="100"/>
+      <c r="J101" s="100"/>
+      <c r="K101" s="101"/>
       <c r="L101" s="7" t="s">
         <v>1011</v>
       </c>
@@ -13065,11 +13065,11 @@
       <c r="D110" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="E110" s="99" t="s">
+      <c r="E110" s="96" t="s">
         <v>483</v>
       </c>
-      <c r="F110" s="100"/>
-      <c r="G110" s="101"/>
+      <c r="F110" s="97"/>
+      <c r="G110" s="98"/>
       <c r="H110" s="7" t="s">
         <v>484</v>
       </c>
@@ -13710,7 +13710,7 @@
     </row>
     <row r="133" spans="1:22" s="65" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="134" spans="1:22" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A134" s="98" t="s">
+      <c r="A134" s="95" t="s">
         <v>374</v>
       </c>
       <c r="B134" s="79"/>
@@ -14079,6 +14079,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AA10:AC10"/>
+    <mergeCell ref="V10:Z10"/>
+    <mergeCell ref="B39:T39"/>
+    <mergeCell ref="V30:Z30"/>
+    <mergeCell ref="AA30:AC30"/>
+    <mergeCell ref="AD30:AG30"/>
+    <mergeCell ref="A8:Q8"/>
+    <mergeCell ref="A108:Q108"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A38:Q38"/>
+    <mergeCell ref="B9:T9"/>
+    <mergeCell ref="C10:U10"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="B2:T2"/>
+    <mergeCell ref="A55:Q55"/>
+    <mergeCell ref="B56:T56"/>
+    <mergeCell ref="A28:Q28"/>
+    <mergeCell ref="B29:T29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:U30"/>
+    <mergeCell ref="A99:Q99"/>
+    <mergeCell ref="B100:T100"/>
     <mergeCell ref="B135:V135"/>
     <mergeCell ref="A121:Q121"/>
     <mergeCell ref="B122:T122"/>
@@ -14095,29 +14118,6 @@
     <mergeCell ref="B91:T91"/>
     <mergeCell ref="E101:G101"/>
     <mergeCell ref="H101:K101"/>
-    <mergeCell ref="A8:Q8"/>
-    <mergeCell ref="A108:Q108"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A38:Q38"/>
-    <mergeCell ref="B9:T9"/>
-    <mergeCell ref="C10:U10"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="B2:T2"/>
-    <mergeCell ref="A55:Q55"/>
-    <mergeCell ref="B56:T56"/>
-    <mergeCell ref="A28:Q28"/>
-    <mergeCell ref="B29:T29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:U30"/>
-    <mergeCell ref="A99:Q99"/>
-    <mergeCell ref="B100:T100"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AA10:AC10"/>
-    <mergeCell ref="V10:Z10"/>
-    <mergeCell ref="B39:T39"/>
-    <mergeCell ref="V30:Z30"/>
-    <mergeCell ref="AA30:AC30"/>
-    <mergeCell ref="AD30:AG30"/>
   </mergeCells>
   <dataValidations count="38">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Extend Outside ACI" error="Valid answers are no or yes" sqref="F103:K106 N42:N53 J112:J119 AA13:AC26 AG13:AG26 Q13:R26 N13:O26 V13:V26 Z42:AA53 G13:H26 E112:H119 AA33:AC36 AG33:AG36 Q33:R36 N33:O36 V33:V36 G33:H36 E125:L132" xr:uid="{00000000-0002-0000-0900-000000000000}">
@@ -15203,7 +15203,7 @@
   <dimension ref="A1:Z76"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+      <selection activeCell="C46" sqref="C46:C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15244,20 +15244,20 @@
     </row>
     <row r="2" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11"/>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="80" t="s">
         <v>670</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="49" t="s">
@@ -15365,20 +15365,20 @@
     </row>
     <row r="10" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11"/>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="80" t="s">
         <v>670</v>
       </c>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="77"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="80"/>
     </row>
     <row r="11" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="49" t="s">
@@ -15441,20 +15441,20 @@
     </row>
     <row r="15" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11"/>
-      <c r="B15" s="77" t="s">
+      <c r="B15" s="80" t="s">
         <v>670</v>
       </c>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="77"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="80"/>
     </row>
     <row r="16" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="49" t="s">
@@ -15544,20 +15544,20 @@
     </row>
     <row r="21" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="11"/>
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="80" t="s">
         <v>670</v>
       </c>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="77"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="80"/>
     </row>
     <row r="22" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="49" t="s">
@@ -15647,20 +15647,20 @@
     </row>
     <row r="27" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="11"/>
-      <c r="B27" s="77" t="s">
+      <c r="B27" s="80" t="s">
         <v>670</v>
       </c>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="77"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="80"/>
+      <c r="M27" s="80"/>
     </row>
     <row r="28" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="49" t="s">
@@ -15738,38 +15738,38 @@
       <c r="M30" s="20"/>
     </row>
     <row r="32" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="80" t="s">
+      <c r="A32" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="81"/>
-      <c r="C32" s="81"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="81"/>
-      <c r="G32" s="81"/>
-      <c r="H32" s="81"/>
-      <c r="I32" s="81"/>
-      <c r="J32" s="81"/>
-      <c r="K32" s="81"/>
-      <c r="L32" s="81"/>
-      <c r="M32" s="81"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="82"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="82"/>
     </row>
     <row r="33" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="40"/>
-      <c r="B33" s="77" t="s">
+      <c r="B33" s="80" t="s">
         <v>670</v>
       </c>
-      <c r="C33" s="77"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="77"/>
-      <c r="J33" s="77"/>
-      <c r="K33" s="77"/>
-      <c r="L33" s="77"/>
-      <c r="M33" s="77"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="80"/>
+      <c r="M33" s="80"/>
     </row>
     <row r="34" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="49" t="s">
@@ -15861,20 +15861,20 @@
     </row>
     <row r="38" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="11"/>
-      <c r="B38" s="77" t="s">
+      <c r="B38" s="80" t="s">
         <v>670</v>
       </c>
-      <c r="C38" s="77"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="77"/>
-      <c r="H38" s="77"/>
-      <c r="I38" s="77"/>
-      <c r="J38" s="77"/>
-      <c r="K38" s="77"/>
-      <c r="L38" s="77"/>
-      <c r="M38" s="77"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="80"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="80"/>
+      <c r="H38" s="80"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="80"/>
+      <c r="K38" s="80"/>
+      <c r="L38" s="80"/>
+      <c r="M38" s="80"/>
     </row>
     <row r="39" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="49" t="s">
@@ -15970,20 +15970,20 @@
     </row>
     <row r="44" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="11"/>
-      <c r="B44" s="77" t="s">
+      <c r="B44" s="80" t="s">
         <v>670</v>
       </c>
-      <c r="C44" s="77"/>
-      <c r="D44" s="77"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="77"/>
-      <c r="G44" s="77"/>
-      <c r="H44" s="77"/>
-      <c r="I44" s="77"/>
-      <c r="J44" s="77"/>
-      <c r="K44" s="77"/>
-      <c r="L44" s="77"/>
-      <c r="M44" s="77"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="80"/>
+      <c r="G44" s="80"/>
+      <c r="H44" s="80"/>
+      <c r="I44" s="80"/>
+      <c r="J44" s="80"/>
+      <c r="K44" s="80"/>
+      <c r="L44" s="80"/>
+      <c r="M44" s="80"/>
     </row>
     <row r="45" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="7" t="s">
@@ -16074,20 +16074,20 @@
     </row>
     <row r="51" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="11"/>
-      <c r="B51" s="82" t="s">
+      <c r="B51" s="77" t="s">
         <v>660</v>
       </c>
-      <c r="C51" s="82"/>
-      <c r="D51" s="82"/>
-      <c r="E51" s="82"/>
-      <c r="F51" s="82"/>
-      <c r="G51" s="82"/>
-      <c r="H51" s="82"/>
-      <c r="I51" s="82"/>
-      <c r="J51" s="82"/>
-      <c r="K51" s="82"/>
-      <c r="L51" s="82"/>
-      <c r="M51" s="82"/>
+      <c r="C51" s="77"/>
+      <c r="D51" s="77"/>
+      <c r="E51" s="77"/>
+      <c r="F51" s="77"/>
+      <c r="G51" s="77"/>
+      <c r="H51" s="77"/>
+      <c r="I51" s="77"/>
+      <c r="J51" s="77"/>
+      <c r="K51" s="77"/>
+      <c r="L51" s="77"/>
+      <c r="M51" s="77"/>
     </row>
     <row r="52" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="49" t="s">
@@ -16135,38 +16135,38 @@
       <c r="B54" s="6"/>
     </row>
     <row r="55" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="80" t="s">
+      <c r="A55" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="81"/>
-      <c r="C55" s="81"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="81"/>
-      <c r="F55" s="81"/>
-      <c r="G55" s="81"/>
-      <c r="H55" s="81"/>
-      <c r="I55" s="81"/>
-      <c r="J55" s="81"/>
-      <c r="K55" s="81"/>
-      <c r="L55" s="81"/>
-      <c r="M55" s="81"/>
+      <c r="B55" s="82"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="82"/>
+      <c r="E55" s="82"/>
+      <c r="F55" s="82"/>
+      <c r="G55" s="82"/>
+      <c r="H55" s="82"/>
+      <c r="I55" s="82"/>
+      <c r="J55" s="82"/>
+      <c r="K55" s="82"/>
+      <c r="L55" s="82"/>
+      <c r="M55" s="82"/>
     </row>
     <row r="56" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="11"/>
-      <c r="B56" s="77" t="s">
+      <c r="B56" s="80" t="s">
         <v>670</v>
       </c>
-      <c r="C56" s="77"/>
-      <c r="D56" s="77"/>
-      <c r="E56" s="77"/>
-      <c r="F56" s="77"/>
-      <c r="G56" s="77"/>
-      <c r="H56" s="77"/>
-      <c r="I56" s="77"/>
-      <c r="J56" s="77"/>
-      <c r="K56" s="77"/>
-      <c r="L56" s="77"/>
-      <c r="M56" s="77"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="80"/>
+      <c r="E56" s="80"/>
+      <c r="F56" s="80"/>
+      <c r="G56" s="80"/>
+      <c r="H56" s="80"/>
+      <c r="I56" s="80"/>
+      <c r="J56" s="80"/>
+      <c r="K56" s="80"/>
+      <c r="L56" s="80"/>
+      <c r="M56" s="80"/>
     </row>
     <row r="57" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="49" t="s">
@@ -16281,20 +16281,20 @@
     </row>
     <row r="62" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="39"/>
-      <c r="B62" s="77" t="s">
+      <c r="B62" s="80" t="s">
         <v>670</v>
       </c>
-      <c r="C62" s="77"/>
-      <c r="D62" s="77"/>
-      <c r="E62" s="77"/>
-      <c r="F62" s="77"/>
-      <c r="G62" s="77"/>
-      <c r="H62" s="77"/>
-      <c r="I62" s="77"/>
-      <c r="J62" s="77"/>
-      <c r="K62" s="77"/>
-      <c r="L62" s="77"/>
-      <c r="M62" s="77"/>
+      <c r="C62" s="80"/>
+      <c r="D62" s="80"/>
+      <c r="E62" s="80"/>
+      <c r="F62" s="80"/>
+      <c r="G62" s="80"/>
+      <c r="H62" s="80"/>
+      <c r="I62" s="80"/>
+      <c r="J62" s="80"/>
+      <c r="K62" s="80"/>
+      <c r="L62" s="80"/>
+      <c r="M62" s="80"/>
     </row>
     <row r="63" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="49" t="s">
@@ -16443,22 +16443,22 @@
     </row>
     <row r="69" spans="1:26" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="11"/>
-      <c r="B69" s="77" t="s">
+      <c r="B69" s="80" t="s">
         <v>670</v>
       </c>
-      <c r="C69" s="77"/>
-      <c r="D69" s="77"/>
-      <c r="E69" s="77"/>
-      <c r="F69" s="77"/>
-      <c r="G69" s="77"/>
-      <c r="H69" s="77"/>
-      <c r="I69" s="77"/>
-      <c r="J69" s="77"/>
-      <c r="K69" s="77"/>
-      <c r="L69" s="77"/>
-      <c r="M69" s="77"/>
-      <c r="N69" s="77"/>
-      <c r="O69" s="77"/>
+      <c r="C69" s="80"/>
+      <c r="D69" s="80"/>
+      <c r="E69" s="80"/>
+      <c r="F69" s="80"/>
+      <c r="G69" s="80"/>
+      <c r="H69" s="80"/>
+      <c r="I69" s="80"/>
+      <c r="J69" s="80"/>
+      <c r="K69" s="80"/>
+      <c r="L69" s="80"/>
+      <c r="M69" s="80"/>
+      <c r="N69" s="80"/>
+      <c r="O69" s="80"/>
       <c r="P69" s="4"/>
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
@@ -16583,20 +16583,20 @@
     </row>
     <row r="74" spans="1:26" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="11"/>
-      <c r="B74" s="77" t="s">
+      <c r="B74" s="80" t="s">
         <v>670</v>
       </c>
-      <c r="C74" s="77"/>
-      <c r="D74" s="77"/>
-      <c r="E74" s="77"/>
-      <c r="F74" s="77"/>
-      <c r="G74" s="77"/>
-      <c r="H74" s="77"/>
-      <c r="I74" s="77"/>
-      <c r="J74" s="77"/>
-      <c r="K74" s="77"/>
-      <c r="L74" s="77"/>
-      <c r="M74" s="77"/>
+      <c r="C74" s="80"/>
+      <c r="D74" s="80"/>
+      <c r="E74" s="80"/>
+      <c r="F74" s="80"/>
+      <c r="G74" s="80"/>
+      <c r="H74" s="80"/>
+      <c r="I74" s="80"/>
+      <c r="J74" s="80"/>
+      <c r="K74" s="80"/>
+      <c r="L74" s="80"/>
+      <c r="M74" s="80"/>
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
       <c r="P74" s="4"/>
@@ -16674,16 +16674,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B51:M51"/>
-    <mergeCell ref="A9:M9"/>
-    <mergeCell ref="A14:M14"/>
-    <mergeCell ref="B15:M15"/>
-    <mergeCell ref="A32:M32"/>
-    <mergeCell ref="B33:M33"/>
-    <mergeCell ref="A26:M26"/>
-    <mergeCell ref="A20:M20"/>
-    <mergeCell ref="B21:M21"/>
-    <mergeCell ref="B27:M27"/>
     <mergeCell ref="B74:M74"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="B2:M2"/>
@@ -16700,6 +16690,16 @@
     <mergeCell ref="B69:O69"/>
     <mergeCell ref="B62:M62"/>
     <mergeCell ref="B38:M38"/>
+    <mergeCell ref="B51:M51"/>
+    <mergeCell ref="A9:M9"/>
+    <mergeCell ref="A14:M14"/>
+    <mergeCell ref="B15:M15"/>
+    <mergeCell ref="A32:M32"/>
+    <mergeCell ref="B33:M33"/>
+    <mergeCell ref="A26:M26"/>
+    <mergeCell ref="A20:M20"/>
+    <mergeCell ref="B21:M21"/>
+    <mergeCell ref="B27:M27"/>
   </mergeCells>
   <dataValidations count="30">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E35 C12 H58:H59 E29:E30 E40:E41 F76" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -16854,20 +16854,20 @@
     </row>
     <row r="2" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11"/>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="80" t="s">
         <v>670</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="49" t="s">
@@ -17185,18 +17185,18 @@
       <c r="A16" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
     </row>
     <row r="17" spans="1:13" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="10"/>
@@ -17606,20 +17606,20 @@
     </row>
     <row r="2" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11"/>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="80" t="s">
         <v>670</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
     </row>
     <row r="3" spans="1:13" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="58" t="s">
@@ -17709,20 +17709,20 @@
     </row>
     <row r="8" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11"/>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="80" t="s">
         <v>670</v>
       </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="77"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="80"/>
     </row>
     <row r="9" spans="1:13" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="58" t="s">
@@ -17905,20 +17905,20 @@
     </row>
     <row r="19" spans="1:13" s="5" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="10"/>
-      <c r="B19" s="77" t="s">
+      <c r="B19" s="80" t="s">
         <v>670</v>
       </c>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="80"/>
     </row>
     <row r="20" spans="1:13" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="58" t="s">
@@ -18328,7 +18328,7 @@
       <c r="M34" s="20"/>
     </row>
     <row r="36" spans="1:18" s="5" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="80" t="s">
+      <c r="A36" s="81" t="s">
         <v>162</v>
       </c>
       <c r="B36" s="85"/>
@@ -18351,20 +18351,20 @@
     </row>
     <row r="37" spans="1:18" s="5" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="10"/>
-      <c r="B37" s="77" t="s">
+      <c r="B37" s="80" t="s">
         <v>670</v>
       </c>
-      <c r="C37" s="77"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="77"/>
-      <c r="F37" s="77"/>
-      <c r="G37" s="77"/>
-      <c r="H37" s="77"/>
-      <c r="I37" s="77"/>
-      <c r="J37" s="77"/>
-      <c r="K37" s="77"/>
-      <c r="L37" s="77"/>
-      <c r="M37" s="77"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="80"/>
+      <c r="J37" s="80"/>
+      <c r="K37" s="80"/>
+      <c r="L37" s="80"/>
+      <c r="M37" s="80"/>
       <c r="N37" s="63"/>
       <c r="O37" s="63"/>
       <c r="P37" s="63"/>
@@ -18588,20 +18588,20 @@
     </row>
     <row r="47" spans="1:18" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="10"/>
-      <c r="B47" s="77" t="s">
+      <c r="B47" s="80" t="s">
         <v>670</v>
       </c>
-      <c r="C47" s="77"/>
-      <c r="D47" s="77"/>
-      <c r="E47" s="77"/>
-      <c r="F47" s="77"/>
-      <c r="G47" s="77"/>
-      <c r="H47" s="77"/>
-      <c r="I47" s="77"/>
-      <c r="J47" s="77"/>
-      <c r="K47" s="77"/>
-      <c r="L47" s="77"/>
-      <c r="M47" s="77"/>
+      <c r="C47" s="80"/>
+      <c r="D47" s="80"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="80"/>
+      <c r="G47" s="80"/>
+      <c r="H47" s="80"/>
+      <c r="I47" s="80"/>
+      <c r="J47" s="80"/>
+      <c r="K47" s="80"/>
+      <c r="L47" s="80"/>
+      <c r="M47" s="80"/>
     </row>
     <row r="48" spans="1:18" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="7" t="s">
@@ -18778,35 +18778,35 @@
       <c r="A58" s="83" t="s">
         <v>186</v>
       </c>
-      <c r="B58" s="81"/>
-      <c r="C58" s="81"/>
-      <c r="D58" s="81"/>
-      <c r="E58" s="81"/>
-      <c r="F58" s="81"/>
-      <c r="G58" s="81"/>
-      <c r="H58" s="81"/>
-      <c r="I58" s="81"/>
-      <c r="J58" s="81"/>
-      <c r="K58" s="81"/>
-      <c r="L58" s="81"/>
-      <c r="M58" s="81"/>
+      <c r="B58" s="82"/>
+      <c r="C58" s="82"/>
+      <c r="D58" s="82"/>
+      <c r="E58" s="82"/>
+      <c r="F58" s="82"/>
+      <c r="G58" s="82"/>
+      <c r="H58" s="82"/>
+      <c r="I58" s="82"/>
+      <c r="J58" s="82"/>
+      <c r="K58" s="82"/>
+      <c r="L58" s="82"/>
+      <c r="M58" s="82"/>
     </row>
     <row r="59" spans="1:13" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A59" s="10"/>
-      <c r="B59" s="77" t="s">
+      <c r="B59" s="80" t="s">
         <v>671</v>
       </c>
-      <c r="C59" s="77"/>
-      <c r="D59" s="77"/>
-      <c r="E59" s="77"/>
-      <c r="F59" s="77"/>
-      <c r="G59" s="77"/>
-      <c r="H59" s="77"/>
-      <c r="I59" s="77"/>
-      <c r="J59" s="77"/>
-      <c r="K59" s="77"/>
-      <c r="L59" s="77"/>
-      <c r="M59" s="77"/>
+      <c r="C59" s="80"/>
+      <c r="D59" s="80"/>
+      <c r="E59" s="80"/>
+      <c r="F59" s="80"/>
+      <c r="G59" s="80"/>
+      <c r="H59" s="80"/>
+      <c r="I59" s="80"/>
+      <c r="J59" s="80"/>
+      <c r="K59" s="80"/>
+      <c r="L59" s="80"/>
+      <c r="M59" s="80"/>
     </row>
     <row r="60" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="7" t="s">
@@ -18955,35 +18955,35 @@
       <c r="A68" s="83" t="s">
         <v>189</v>
       </c>
-      <c r="B68" s="81"/>
-      <c r="C68" s="81"/>
-      <c r="D68" s="81"/>
-      <c r="E68" s="81"/>
-      <c r="F68" s="81"/>
-      <c r="G68" s="81"/>
-      <c r="H68" s="81"/>
-      <c r="I68" s="81"/>
-      <c r="J68" s="81"/>
-      <c r="K68" s="81"/>
-      <c r="L68" s="81"/>
-      <c r="M68" s="81"/>
+      <c r="B68" s="82"/>
+      <c r="C68" s="82"/>
+      <c r="D68" s="82"/>
+      <c r="E68" s="82"/>
+      <c r="F68" s="82"/>
+      <c r="G68" s="82"/>
+      <c r="H68" s="82"/>
+      <c r="I68" s="82"/>
+      <c r="J68" s="82"/>
+      <c r="K68" s="82"/>
+      <c r="L68" s="82"/>
+      <c r="M68" s="82"/>
     </row>
     <row r="69" spans="1:13" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A69" s="10"/>
-      <c r="B69" s="77" t="s">
+      <c r="B69" s="80" t="s">
         <v>672</v>
       </c>
-      <c r="C69" s="77"/>
-      <c r="D69" s="77"/>
-      <c r="E69" s="77"/>
-      <c r="F69" s="77"/>
-      <c r="G69" s="77"/>
-      <c r="H69" s="77"/>
-      <c r="I69" s="77"/>
-      <c r="J69" s="77"/>
-      <c r="K69" s="77"/>
-      <c r="L69" s="77"/>
-      <c r="M69" s="77"/>
+      <c r="C69" s="80"/>
+      <c r="D69" s="80"/>
+      <c r="E69" s="80"/>
+      <c r="F69" s="80"/>
+      <c r="G69" s="80"/>
+      <c r="H69" s="80"/>
+      <c r="I69" s="80"/>
+      <c r="J69" s="80"/>
+      <c r="K69" s="80"/>
+      <c r="L69" s="80"/>
+      <c r="M69" s="80"/>
     </row>
     <row r="70" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="7" t="s">
@@ -19258,7 +19258,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19304,20 +19304,20 @@
     </row>
     <row r="2" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="9"/>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="80" t="s">
         <v>670</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
     </row>
@@ -19431,20 +19431,20 @@
     </row>
     <row r="8" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="12"/>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="80" t="s">
         <v>670</v>
       </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="77"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="80"/>
     </row>
     <row r="9" spans="1:15" s="3" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
@@ -19577,20 +19577,20 @@
     </row>
     <row r="14" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="12"/>
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="80" t="s">
         <v>670</v>
       </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="80"/>
     </row>
     <row r="15" spans="1:15" s="3" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="8" t="s">
@@ -19722,20 +19722,20 @@
     </row>
     <row r="20" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="39"/>
-      <c r="B20" s="77" t="s">
+      <c r="B20" s="80" t="s">
         <v>670</v>
       </c>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="80"/>
     </row>
     <row r="21" spans="1:14" s="3" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
@@ -20120,20 +20120,20 @@
     </row>
     <row r="2" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11"/>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="80" t="s">
         <v>670</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="49" t="s">
@@ -20451,18 +20451,18 @@
       <c r="A16" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
     </row>
     <row r="17" spans="1:13" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="10"/>
@@ -24074,11 +24074,6 @@
     <row r="75" spans="1:14" s="66" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="A13:M13"/>
-    <mergeCell ref="B14:M14"/>
-    <mergeCell ref="A29:M29"/>
     <mergeCell ref="A67:M67"/>
     <mergeCell ref="B68:M68"/>
     <mergeCell ref="B30:M30"/>
@@ -24086,6 +24081,11 @@
     <mergeCell ref="B50:M50"/>
     <mergeCell ref="A58:M58"/>
     <mergeCell ref="B59:M59"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="A13:M13"/>
+    <mergeCell ref="B14:M14"/>
+    <mergeCell ref="A29:M29"/>
   </mergeCells>
   <dataValidations count="14">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E32:E45" xr:uid="{00000000-0002-0000-0700-000000000000}">

--- a/Spreadsheet-ACI.xlsx
+++ b/Spreadsheet-ACI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\tyscott\iac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61C3416-2AB4-4B64-989B-F4D3A633F9B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A57577-1968-43BC-A5D6-DCBDFB64F44A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="803" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="803" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sites" sheetId="15" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3131" uniqueCount="1109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3159" uniqueCount="1111">
   <si>
     <t>Type</t>
   </si>
@@ -3572,9 +3572,6 @@
     <t>MultiSite External EPG</t>
   </si>
   <si>
-    <t>ct_default</t>
-  </si>
-  <si>
     <t>dc1-spine102</t>
   </si>
   <si>
@@ -3988,9 +3985,6 @@
     <t>private-shared</t>
   </si>
   <si>
-    <t>prod_L3</t>
-  </si>
-  <si>
     <t>2001:db8::/64</t>
   </si>
   <si>
@@ -4081,9 +4075,6 @@
     <t>agg-shared</t>
   </si>
   <si>
-    <t>node_prof</t>
-  </si>
-  <si>
     <t>ext_subnet</t>
   </si>
   <si>
@@ -4145,6 +4136,21 @@
   </si>
   <si>
     <t>Changing Back</t>
+  </si>
+  <si>
+    <t>eigrp</t>
+  </si>
+  <si>
+    <t>inband_L3</t>
+  </si>
+  <si>
+    <t>Inband L3Out</t>
+  </si>
+  <si>
+    <t>inb_Ext</t>
+  </si>
+  <si>
+    <t>Inband External EPG</t>
   </si>
 </sst>
 </file>
@@ -5351,7 +5357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BFD7935-0F0A-46EB-9824-225EC9CADD69}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -5425,16 +5431,16 @@
         <v>678</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="G3" s="49" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="H3" s="49" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="I3" s="49" t="s">
         <v>584</v>
@@ -5466,19 +5472,19 @@
         <v>590</v>
       </c>
       <c r="D4" s="61" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="E4" s="73" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="G4" s="73" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="I4" s="52">
         <v>65501</v>
@@ -5510,19 +5516,19 @@
         <v>591</v>
       </c>
       <c r="D5" s="62" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="I5" s="55">
         <v>65502</v>
@@ -5931,8 +5937,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:U61"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6034,7 +6040,7 @@
         <v>256</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>679</v>
@@ -6049,7 +6055,7 @@
         <v>897</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>287</v>
@@ -6087,7 +6093,7 @@
         <v>294</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="F4" s="31" t="s">
         <v>471</v>
@@ -7862,7 +7868,7 @@
         <v>293</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C40" s="31" t="s">
         <v>251</v>
@@ -7883,16 +7889,16 @@
         <v>259</v>
       </c>
       <c r="I40" s="31" t="s">
+        <v>1050</v>
+      </c>
+      <c r="J40" s="31" t="s">
         <v>1051</v>
-      </c>
-      <c r="J40" s="31" t="s">
-        <v>1052</v>
       </c>
       <c r="K40" s="31" t="s">
         <v>497</v>
       </c>
       <c r="L40" s="31" t="s">
-        <v>1056</v>
+        <v>901</v>
       </c>
       <c r="M40" s="31" t="s">
         <v>259</v>
@@ -7922,7 +7928,7 @@
         <v>293</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C41" s="20" t="s">
         <v>251</v>
@@ -7943,16 +7949,16 @@
         <v>259</v>
       </c>
       <c r="I41" s="20" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="J41" s="20" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="K41" s="20" t="s">
         <v>497</v>
       </c>
       <c r="L41" s="20" t="s">
-        <v>1056</v>
+        <v>901</v>
       </c>
       <c r="M41" s="20" t="s">
         <v>259</v>
@@ -7982,16 +7988,16 @@
         <v>293</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C42" s="31" t="s">
         <v>251</v>
       </c>
       <c r="D42" s="31" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F42" s="31" t="s">
         <v>578</v>
@@ -8002,28 +8008,38 @@
       <c r="H42" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
+      <c r="I42" s="31" t="s">
+        <v>1050</v>
+      </c>
+      <c r="J42" s="31" t="s">
+        <v>1051</v>
+      </c>
+      <c r="K42" s="31" t="s">
+        <v>497</v>
+      </c>
+      <c r="L42" s="31" t="s">
+        <v>902</v>
+      </c>
+      <c r="M42" s="31" t="s">
+        <v>259</v>
+      </c>
       <c r="N42" s="31" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="O42" s="31" t="s">
         <v>102</v>
       </c>
       <c r="P42" s="31" t="s">
-        <v>1060</v>
+        <v>360</v>
       </c>
       <c r="Q42" s="34" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="R42" s="31" t="s">
         <v>305</v>
       </c>
       <c r="S42" s="33">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="T42" s="33"/>
     </row>
@@ -8032,15 +8048,17 @@
         <v>293</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C43" s="20" t="s">
         <v>251</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>366</v>
-      </c>
-      <c r="E43" s="20"/>
+        <v>363</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>364</v>
+      </c>
       <c r="F43" s="20" t="s">
         <v>578</v>
       </c>
@@ -8050,28 +8068,38 @@
       <c r="H43" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
+      <c r="I43" s="20" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J43" s="20" t="s">
+        <v>1056</v>
+      </c>
+      <c r="K43" s="20" t="s">
+        <v>497</v>
+      </c>
+      <c r="L43" s="20" t="s">
+        <v>902</v>
+      </c>
+      <c r="M43" s="20" t="s">
+        <v>259</v>
+      </c>
       <c r="N43" s="20" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="O43" s="20" t="s">
         <v>102</v>
       </c>
       <c r="P43" s="20" t="s">
-        <v>1061</v>
+        <v>363</v>
       </c>
       <c r="Q43" s="42" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="R43" s="20" t="s">
         <v>305</v>
       </c>
       <c r="S43" s="17">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="T43" s="17"/>
     </row>
@@ -8088,7 +8116,9 @@
       <c r="D44" s="31" t="s">
         <v>366</v>
       </c>
-      <c r="E44" s="31"/>
+      <c r="E44" s="31" t="s">
+        <v>367</v>
+      </c>
       <c r="F44" s="31" t="s">
         <v>578</v>
       </c>
@@ -8110,20 +8140,20 @@
         <v>102</v>
       </c>
       <c r="P44" s="31" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="Q44" s="34" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="R44" s="31" t="s">
         <v>305</v>
       </c>
       <c r="S44" s="33">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="T44" s="33"/>
     </row>
-    <row r="45" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:20" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="20" t="s">
         <v>293</v>
       </c>
@@ -8158,16 +8188,16 @@
         <v>102</v>
       </c>
       <c r="P45" s="20" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="Q45" s="42" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="R45" s="20" t="s">
         <v>305</v>
       </c>
       <c r="S45" s="17">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="T45" s="17"/>
     </row>
@@ -8206,61 +8236,113 @@
         <v>102</v>
       </c>
       <c r="P46" s="31" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="Q46" s="34" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="R46" s="31" t="s">
         <v>305</v>
       </c>
       <c r="S46" s="33">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="T46" s="33"/>
     </row>
     <row r="47" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
+      <c r="A47" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>592</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>366</v>
+      </c>
       <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
+      <c r="F47" s="20" t="s">
+        <v>578</v>
+      </c>
+      <c r="G47" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="H47" s="20" t="s">
+        <v>259</v>
+      </c>
       <c r="I47" s="20"/>
       <c r="J47" s="20"/>
       <c r="K47" s="20"/>
       <c r="L47" s="20"/>
       <c r="M47" s="20"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="20"/>
-      <c r="P47" s="20"/>
-      <c r="Q47" s="20"/>
-      <c r="R47" s="20"/>
-      <c r="S47" s="17"/>
+      <c r="N47" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="O47" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="P47" s="20" t="s">
+        <v>1061</v>
+      </c>
+      <c r="Q47" s="42" t="s">
+        <v>372</v>
+      </c>
+      <c r="R47" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="S47" s="17">
+        <v>206</v>
+      </c>
       <c r="T47" s="17"/>
     </row>
     <row r="48" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="31"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
+      <c r="A48" s="31" t="s">
+        <v>293</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>366</v>
+      </c>
       <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
+      <c r="F48" s="31" t="s">
+        <v>578</v>
+      </c>
+      <c r="G48" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="H48" s="31" t="s">
+        <v>259</v>
+      </c>
       <c r="I48" s="31"/>
       <c r="J48" s="31"/>
       <c r="K48" s="31"/>
       <c r="L48" s="31"/>
       <c r="M48" s="31"/>
-      <c r="N48" s="31"/>
-      <c r="O48" s="31"/>
-      <c r="P48" s="31"/>
-      <c r="Q48" s="34"/>
-      <c r="R48" s="31"/>
-      <c r="S48" s="33"/>
+      <c r="N48" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="O48" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="P48" s="31" t="s">
+        <v>1062</v>
+      </c>
+      <c r="Q48" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="R48" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="S48" s="33">
+        <v>207</v>
+      </c>
       <c r="T48" s="33"/>
     </row>
     <row r="49" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -8558,19 +8640,19 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Please Select from the drop down" sqref="A4:A61" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>"add_net"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="VPC ID" error="The VPC ID must be a number between 1 and 1000" sqref="C4:C46" xr:uid="{BDDEF785-0F33-4FAB-8E11-61FF490465EB}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Node ID" error="Valid Node ID is between 101 and 4000" sqref="D40:D58 E58:F58 P40:P41 E43:E46 Q40:Q42 Q11 Q8 Q51:Q54 Q27:Q29 Q58 E51:F54 G47:G58 I47:M58 H48:H58" xr:uid="{D65A8653-4D3D-4610-B0D9-F40A61B18BFD}"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Please Select from the drop down" sqref="C47:C58" xr:uid="{62A2CBCC-8030-489E-B252-C008736F1692}">
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="VPC ID" error="The VPC ID must be a number between 1 and 1000" sqref="C4:C48" xr:uid="{BDDEF785-0F33-4FAB-8E11-61FF490465EB}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Node ID" error="Valid Node ID is between 101 and 4000" sqref="E58:F58 P40:P43 Q11 Q8 Q51:Q54 Q27:Q29 Q58 E51:F54 G49:M58 Q40:Q44 E45:E48 D40:D58" xr:uid="{D65A8653-4D3D-4610-B0D9-F40A61B18BFD}"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Please Select from the drop down" sqref="C49:C58" xr:uid="{62A2CBCC-8030-489E-B252-C008736F1692}">
       <formula1>"add_app,add_epg,add_both"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Please Select from the drop down" sqref="B47:B61" xr:uid="{00000000-0002-0000-0800-000004000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Please Select from the drop down" sqref="B49:B61" xr:uid="{00000000-0002-0000-0800-000004000000}">
       <formula1>"APIC,MSO"</formula1>
     </dataValidation>
     <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" errorTitle="VLAN" error="VLAN should be between 1 and 4094" sqref="S4:T58" xr:uid="{00000000-0002-0000-0800-000005000000}">
       <formula1>1</formula1>
       <formula2>4094</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B46" xr:uid="{C6F15339-3B65-406E-908A-B74B6E69151A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B48" xr:uid="{C6F15339-3B65-406E-908A-B74B6E69151A}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,Grp_A,Grp_B,Grp_C,Grp_D,Grp_E,Grp_F"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8583,8 +8665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AG141"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10222,7 +10304,7 @@
     </row>
     <row r="28" spans="1:33" s="66" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="90" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B28" s="79"/>
       <c r="C28" s="79"/>
@@ -10537,7 +10619,7 @@
     </row>
     <row r="33" spans="1:33" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="31" t="s">
-        <v>470</v>
+        <v>1106</v>
       </c>
       <c r="B33" s="31" t="s">
         <v>471</v>
@@ -10624,7 +10706,7 @@
     </row>
     <row r="34" spans="1:33" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="20" t="s">
-        <v>470</v>
+        <v>1106</v>
       </c>
       <c r="B34" s="20" t="s">
         <v>476</v>
@@ -10711,7 +10793,7 @@
     </row>
     <row r="35" spans="1:33" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="31" t="s">
-        <v>470</v>
+        <v>1106</v>
       </c>
       <c r="B35" s="31" t="s">
         <v>477</v>
@@ -10798,7 +10880,7 @@
     </row>
     <row r="36" spans="1:33" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="20" t="s">
-        <v>470</v>
+        <v>1106</v>
       </c>
       <c r="B36" s="20" t="s">
         <v>478</v>
@@ -11059,10 +11141,10 @@
         <v>394</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>522</v>
@@ -11146,7 +11228,7 @@
       <c r="C42" s="31"/>
       <c r="D42" s="31"/>
       <c r="E42" s="31" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="F42" s="33"/>
       <c r="G42" s="33"/>
@@ -11207,7 +11289,7 @@
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
       <c r="E43" s="20" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
@@ -11233,7 +11315,7 @@
         <v>87</v>
       </c>
       <c r="U43" s="20" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="V43" s="20" t="s">
         <v>540</v>
@@ -11714,10 +11796,10 @@
         <v>392</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>522</v>
@@ -11741,7 +11823,7 @@
         <v>501</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="M58" s="7" t="s">
         <v>534</v>
@@ -12123,7 +12205,7 @@
         <v>701</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
@@ -12163,7 +12245,7 @@
         <v>702</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="J75" s="7"/>
       <c r="K75" s="7"/>
@@ -12179,7 +12261,7 @@
     </row>
     <row r="76" spans="1:20" s="65" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="31" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B76" s="31" t="s">
         <v>102</v>
@@ -12331,13 +12413,13 @@
         <v>376</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
@@ -12367,13 +12449,13 @@
         <v>394</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H84" s="7"/>
       <c r="I84" s="7"/>
@@ -12391,7 +12473,7 @@
     </row>
     <row r="85" spans="1:20" s="65" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="31" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B85" s="31" t="s">
         <v>102</v>
@@ -12490,7 +12572,7 @@
     <row r="89" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="90" spans="1:20" s="66" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A90" s="90" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B90" s="79"/>
       <c r="C90" s="79"/>
@@ -12549,28 +12631,28 @@
         <v>125</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="I92" s="7" t="s">
+        <v>988</v>
+      </c>
+      <c r="J92" s="7" t="s">
         <v>989</v>
       </c>
-      <c r="J92" s="7" t="s">
+      <c r="K92" s="7" t="s">
         <v>990</v>
       </c>
-      <c r="K92" s="7" t="s">
+      <c r="L92" s="7" t="s">
         <v>991</v>
       </c>
-      <c r="L92" s="7" t="s">
+      <c r="M92" s="7" t="s">
         <v>992</v>
-      </c>
-      <c r="M92" s="7" t="s">
-        <v>993</v>
       </c>
       <c r="N92" s="7"/>
       <c r="O92" s="7"/>
@@ -12594,22 +12676,22 @@
         <v>394</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F93" s="7" t="s">
         <v>501</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="I93" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="J93" s="7" t="s">
         <v>987</v>
-      </c>
-      <c r="J93" s="7" t="s">
-        <v>988</v>
       </c>
       <c r="K93" s="7" t="s">
         <v>530</v>
@@ -12630,7 +12712,7 @@
     </row>
     <row r="94" spans="1:20" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="31" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B94" s="31" t="s">
         <v>102</v>
@@ -12638,7 +12720,7 @@
       <c r="C94" s="31"/>
       <c r="D94" s="31"/>
       <c r="E94" s="31" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F94" s="31" t="s">
         <v>147</v>
@@ -12662,7 +12744,7 @@
     </row>
     <row r="95" spans="1:20" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="20" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B95" s="20" t="s">
         <v>651</v>
@@ -12670,7 +12752,7 @@
       <c r="C95" s="20"/>
       <c r="D95" s="20"/>
       <c r="E95" s="20" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F95" s="20" t="s">
         <v>147</v>
@@ -12739,7 +12821,7 @@
     <row r="98" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="99" spans="1:20" s="66" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A99" s="90" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B99" s="79"/>
       <c r="C99" s="79"/>
@@ -12795,36 +12877,36 @@
         <v>376</v>
       </c>
       <c r="E101" s="92" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F101" s="93"/>
       <c r="G101" s="93"/>
       <c r="H101" s="99" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="I101" s="100"/>
       <c r="J101" s="100"/>
       <c r="K101" s="101"/>
       <c r="L101" s="7" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="M101" s="7" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="N101" s="7" t="s">
+        <v>1034</v>
+      </c>
+      <c r="O101" s="7" t="s">
         <v>1035</v>
       </c>
-      <c r="O101" s="7" t="s">
+      <c r="P101" s="7" t="s">
         <v>1036</v>
       </c>
-      <c r="P101" s="7" t="s">
+      <c r="Q101" s="7" t="s">
         <v>1037</v>
       </c>
-      <c r="Q101" s="7" t="s">
-        <v>1038</v>
-      </c>
       <c r="R101" s="7" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="S101" s="7"/>
       <c r="T101" s="7"/>
@@ -12843,53 +12925,53 @@
         <v>394</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F102" s="7" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G102" s="7" t="s">
         <v>1007</v>
       </c>
-      <c r="G102" s="7" t="s">
-        <v>1008</v>
-      </c>
       <c r="H102" s="7" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="I102" s="7" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="J102" s="7" t="s">
+        <v>1030</v>
+      </c>
+      <c r="K102" s="7" t="s">
         <v>1031</v>
       </c>
-      <c r="K102" s="7" t="s">
+      <c r="L102" s="7" t="s">
+        <v>1014</v>
+      </c>
+      <c r="M102" s="7" t="s">
         <v>1032</v>
       </c>
-      <c r="L102" s="7" t="s">
-        <v>1015</v>
-      </c>
-      <c r="M102" s="7" t="s">
-        <v>1033</v>
-      </c>
       <c r="N102" s="7" t="s">
+        <v>1038</v>
+      </c>
+      <c r="O102" s="7" t="s">
         <v>1039</v>
       </c>
-      <c r="O102" s="7" t="s">
+      <c r="P102" s="7" t="s">
         <v>1040</v>
       </c>
-      <c r="P102" s="7" t="s">
+      <c r="Q102" s="7" t="s">
         <v>1041</v>
       </c>
-      <c r="Q102" s="7" t="s">
-        <v>1042</v>
-      </c>
       <c r="R102" s="7" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="S102" s="7"/>
       <c r="T102" s="7"/>
     </row>
     <row r="103" spans="1:20" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="31" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B103" s="31" t="s">
         <v>102</v>
@@ -12918,25 +13000,25 @@
         <v>12</v>
       </c>
       <c r="L103" s="31" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="M103" s="31" t="s">
         <v>588</v>
       </c>
       <c r="N103" s="31" t="s">
+        <v>1044</v>
+      </c>
+      <c r="O103" s="31" t="s">
         <v>1045</v>
       </c>
-      <c r="O103" s="31" t="s">
+      <c r="P103" s="31" t="s">
         <v>1046</v>
-      </c>
-      <c r="P103" s="31" t="s">
-        <v>1047</v>
       </c>
       <c r="Q103" s="31" t="s">
         <v>588</v>
       </c>
       <c r="R103" s="31" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="S103" s="31"/>
       <c r="T103" s="31"/>
@@ -13145,7 +13227,7 @@
         <v>496</v>
       </c>
       <c r="B112" s="31" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C112" s="31"/>
       <c r="D112" s="31"/>
@@ -13162,7 +13244,7 @@
         <v>12</v>
       </c>
       <c r="I112" s="31" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="J112" s="31" t="s">
         <v>12</v>
@@ -13221,7 +13303,7 @@
         <v>496</v>
       </c>
       <c r="B114" s="31" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C114" s="31"/>
       <c r="D114" s="31"/>
@@ -13238,7 +13320,7 @@
         <v>12</v>
       </c>
       <c r="I114" s="31" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="J114" s="31" t="s">
         <v>12</v>
@@ -13259,7 +13341,7 @@
         <v>496</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C115" s="20"/>
       <c r="D115" s="20"/>
@@ -13276,7 +13358,7 @@
         <v>12</v>
       </c>
       <c r="I115" s="20" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="J115" s="20" t="s">
         <v>12</v>
@@ -13470,10 +13552,10 @@
         <v>392</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="E124" s="7" t="s">
         <v>705</v>
@@ -13491,16 +13573,16 @@
         <v>706</v>
       </c>
       <c r="J124" s="7" t="s">
+        <v>1082</v>
+      </c>
+      <c r="K124" s="7" t="s">
+        <v>1083</v>
+      </c>
+      <c r="L124" s="7" t="s">
         <v>1084</v>
       </c>
-      <c r="K124" s="7" t="s">
-        <v>1085</v>
-      </c>
-      <c r="L124" s="7" t="s">
-        <v>1086</v>
-      </c>
       <c r="M124" s="7" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="N124" s="7" t="s">
         <v>710</v>
@@ -13514,7 +13596,7 @@
     </row>
     <row r="125" spans="1:20" s="65" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A125" s="31" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="B125" s="31" t="s">
         <v>102</v>
@@ -13887,7 +13969,7 @@
         <v>407</v>
       </c>
       <c r="U137" s="43" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="V137" s="7" t="s">
         <v>408</v>
@@ -14119,7 +14201,7 @@
     <mergeCell ref="E101:G101"/>
     <mergeCell ref="H101:K101"/>
   </mergeCells>
-  <dataValidations count="38">
+  <dataValidations count="39">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Extend Outside ACI" error="Valid answers are no or yes" sqref="F103:K106 N42:N53 J112:J119 AA13:AC26 AG13:AG26 Q13:R26 N13:O26 V13:V26 Z42:AA53 G13:H26 E112:H119 AA33:AC36 AG33:AG36 Q33:R36 N33:O36 V33:V36 G33:H36 E125:L132" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>"no,yes"</formula1>
     </dataValidation>
@@ -14139,7 +14221,7 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="VPC ID" error="The VPC ID must be a number between 1 and 1000" sqref="A112:A119" xr:uid="{00000000-0002-0000-0900-000006000000}">
       <formula1>"subnet"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="VPC ID" error="The VPC ID must be a number between 1 and 1000" sqref="A13:A26 A33:A36" xr:uid="{00000000-0002-0000-0900-000007000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="VPC ID" error="The VPC ID must be a number between 1 and 1000" sqref="A13:A26" xr:uid="{00000000-0002-0000-0900-000007000000}">
       <formula1>"bd"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="VPC ID" error="The VPC ID must be a number between 1 and 1000" sqref="A5:A6" xr:uid="{00000000-0002-0000-0900-000008000000}">
@@ -14233,6 +14315,9 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="VPC ID" error="The VPC ID must be a number between 1 and 1000" sqref="A125:A132" xr:uid="{AF01401A-2C8E-42D9-991E-71BA7EE0C729}">
       <formula1>"ext_subnet"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="VPC ID" error="The VPC ID must be a number between 1 and 1000" sqref="A33:A36" xr:uid="{AECF15CA-4517-4272-BD40-F054D27BFB1A}">
+      <formula1>"eigrp"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -14293,7 +14378,7 @@
         <v>545</v>
       </c>
       <c r="I1" s="44" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J1" s="44" t="s">
         <v>876</v>
@@ -16993,7 +17078,7 @@
         <v>588</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>121</v>
@@ -17132,7 +17217,7 @@
         <v>589</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="D12" s="31" t="s">
         <v>121</v>
@@ -17254,7 +17339,7 @@
     </row>
     <row r="19" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="31" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>592</v>
@@ -17291,7 +17376,7 @@
     </row>
     <row r="20" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="20" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>592</v>
@@ -17328,7 +17413,7 @@
     </row>
     <row r="21" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="31" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>592</v>
@@ -17365,7 +17450,7 @@
     </row>
     <row r="22" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="20" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>592</v>
@@ -19637,7 +19722,7 @@
         <v>592</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>219</v>
@@ -19674,7 +19759,7 @@
         <v>592</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>222</v>
@@ -19773,7 +19858,7 @@
         <v>231</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="E22" s="31" t="s">
         <v>225</v>
@@ -19901,7 +19986,7 @@
         <v>14</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="E28" s="33">
         <v>48</v>
@@ -20174,7 +20259,7 @@
         <v>588</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="D4" s="31" t="s">
         <v>121</v>
@@ -20205,7 +20290,7 @@
         <v>588</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>122</v>
@@ -20232,7 +20317,7 @@
         <v>588</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="D6" s="31" t="s">
         <v>121</v>
@@ -20313,7 +20398,7 @@
         <v>589</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>121</v>
@@ -20344,7 +20429,7 @@
         <v>589</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="D10" s="31" t="s">
         <v>122</v>
@@ -20371,7 +20456,7 @@
         <v>589</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>121</v>
@@ -20520,7 +20605,7 @@
     </row>
     <row r="19" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="31" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>592</v>
@@ -20557,7 +20642,7 @@
     </row>
     <row r="20" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="20" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>592</v>
@@ -20594,7 +20679,7 @@
     </row>
     <row r="21" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="31" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>592</v>
@@ -20631,7 +20716,7 @@
     </row>
     <row r="22" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="20" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>592</v>
@@ -21280,7 +21365,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21415,12 +21500,24 @@
       <c r="M5" s="20"/>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="31"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
+      <c r="A6" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>409</v>
+      </c>
       <c r="G6" s="31"/>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -21838,11 +21935,11 @@
     <mergeCell ref="B18:M18"/>
     <mergeCell ref="A17:M17"/>
   </mergeCells>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G6:H15" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"contract,preferred_group,vzAny"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F6:F15" xr:uid="{00000000-0002-0000-0600-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F7:F15" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>"enforced,unenforced"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Type Error" error="Please Select a valid value from the drop down" sqref="A4:A15" xr:uid="{00000000-0002-0000-0600-000002000000}">
@@ -21851,18 +21948,19 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Type Error" error="Please Select a valid value from the drop down" sqref="A20:A29" xr:uid="{00000000-0002-0000-0600-000003000000}">
       <formula1>"ctx_comm"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D6:D15" xr:uid="{E6AA4911-4048-404D-B219-EC9D547ACA5B}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D7:D15" xr:uid="{E6AA4911-4048-404D-B219-EC9D547ACA5B}">
       <formula1>"no,yes"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E6:E15" xr:uid="{E7467A16-5826-4238-BAD9-52BB9EAB33DF}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E7:E15" xr:uid="{E7467A16-5826-4238-BAD9-52BB9EAB33DF}">
       <formula1>"enabled,disabled"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I6:I15" xr:uid="{00000000-0002-0000-0600-000006000000}">
       <formula1>"egress,ingress"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B15 B20:B29" xr:uid="{D088E2B7-17E4-410B-BB37-C13FC59432C3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20:B29 B4:B15" xr:uid="{D088E2B7-17E4-410B-BB37-C13FC59432C3}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,Grp_A,Grp_B,Grp_C,Grp_D,Grp_E,Grp_F"</formula1>
     </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="VPC ID" error="The VPC ID must be a number between 1 and 1000" sqref="F6" xr:uid="{B75A7B3A-9DC2-4C70-A4D1-ED1F4C7C3D42}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360"/>
@@ -21875,7 +21973,7 @@
   <dimension ref="A1:U75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21959,7 +22057,7 @@
         <v>256</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>114</v>
+        <v>887</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>51</v>
@@ -21983,7 +22081,7 @@
         <v>679</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="N3" s="7"/>
       <c r="P3"/>
@@ -21991,22 +22089,22 @@
     </row>
     <row r="4" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="31" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>914</v>
+        <v>251</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>915</v>
+        <v>901</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>917</v>
+        <v>889</v>
       </c>
       <c r="G4" s="31" t="s">
         <v>102</v>
@@ -22015,26 +22113,28 @@
         <v>897</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>651</v>
+        <v>1070</v>
       </c>
       <c r="J4" s="31" t="s">
-        <v>918</v>
+        <v>898</v>
       </c>
       <c r="K4" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="L4" s="31"/>
+      <c r="L4" s="31" t="s">
+        <v>899</v>
+      </c>
       <c r="M4" s="31" t="s">
-        <v>919</v>
+        <v>102</v>
       </c>
       <c r="N4" s="31"/>
     </row>
     <row r="5" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="20" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>259</v>
@@ -22043,10 +22143,10 @@
         <v>251</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="G5" s="20" t="s">
         <v>102</v>
@@ -22055,7 +22155,7 @@
         <v>897</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="J5" s="20" t="s">
         <v>898</v>
@@ -22067,28 +22167,28 @@
         <v>899</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>414</v>
+        <v>102</v>
       </c>
       <c r="N5" s="20"/>
     </row>
     <row r="6" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="31" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C6" s="31" t="s">
         <v>259</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>890</v>
+        <v>904</v>
       </c>
       <c r="G6" s="31" t="s">
         <v>102</v>
@@ -22097,28 +22197,28 @@
         <v>897</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="J6" s="31" t="s">
-        <v>898</v>
+        <v>906</v>
       </c>
       <c r="K6" s="31" t="s">
         <v>102</v>
       </c>
       <c r="L6" s="31" t="s">
-        <v>899</v>
+        <v>907</v>
       </c>
       <c r="M6" s="31" t="s">
-        <v>414</v>
+        <v>102</v>
       </c>
       <c r="N6" s="31"/>
     </row>
     <row r="7" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="20" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>259</v>
@@ -22127,10 +22227,10 @@
         <v>253</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="G7" s="20" t="s">
         <v>102</v>
@@ -22139,7 +22239,7 @@
         <v>897</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="J7" s="20" t="s">
         <v>906</v>
@@ -22151,28 +22251,28 @@
         <v>907</v>
       </c>
       <c r="M7" s="20" t="s">
-        <v>415</v>
+        <v>102</v>
       </c>
       <c r="N7" s="20"/>
     </row>
     <row r="8" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="31" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>900</v>
+        <v>1107</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>905</v>
+        <v>1108</v>
       </c>
       <c r="G8" s="31" t="s">
         <v>102</v>
@@ -22181,10 +22281,10 @@
         <v>897</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>1071</v>
+        <v>1109</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>906</v>
+        <v>1110</v>
       </c>
       <c r="K8" s="31" t="s">
         <v>102</v>
@@ -22193,24 +22293,48 @@
         <v>907</v>
       </c>
       <c r="M8" s="31" t="s">
-        <v>415</v>
+        <v>102</v>
       </c>
       <c r="N8" s="31"/>
     </row>
     <row r="9" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="20"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
+      <c r="B9" s="15" t="s">
+        <v>592</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>914</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>915</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>917</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>897</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>651</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>918</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>907</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="N9" s="20"/>
     </row>
     <row r="10" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -22308,13 +22432,13 @@
         <v>887</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>183</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>886</v>
@@ -22323,7 +22447,7 @@
         <v>184</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="N15" s="7" t="s">
         <v>882</v>
@@ -22331,9 +22455,7 @@
       <c r="Q15" s="4"/>
     </row>
     <row r="16" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="31" t="s">
-        <v>1087</v>
-      </c>
+      <c r="A16" s="31"/>
       <c r="B16" s="13" t="s">
         <v>588</v>
       </c>
@@ -22347,7 +22469,7 @@
         <v>593</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="G16" s="31" t="s">
         <v>915</v>
@@ -22359,7 +22481,7 @@
         <v>101</v>
       </c>
       <c r="J16" s="31" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="K16" s="31" t="s">
         <v>14</v>
@@ -22370,9 +22492,7 @@
       <c r="Q16" s="4"/>
     </row>
     <row r="17" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="20" t="s">
-        <v>1087</v>
-      </c>
+      <c r="A17" s="20"/>
       <c r="B17" s="15" t="s">
         <v>588</v>
       </c>
@@ -22383,10 +22503,10 @@
         <v>273</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="G17" s="20" t="s">
         <v>915</v>
@@ -22398,7 +22518,7 @@
         <v>102</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="K17" s="20" t="s">
         <v>14</v>
@@ -22409,9 +22529,7 @@
       <c r="Q17" s="4"/>
     </row>
     <row r="18" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="31" t="s">
-        <v>1087</v>
-      </c>
+      <c r="A18" s="31"/>
       <c r="B18" s="31" t="s">
         <v>589</v>
       </c>
@@ -22425,7 +22543,7 @@
         <v>594</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="G18" s="31" t="s">
         <v>915</v>
@@ -22437,7 +22555,7 @@
         <v>101</v>
       </c>
       <c r="J18" s="31" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K18" s="31" t="s">
         <v>14</v>
@@ -22448,9 +22566,7 @@
       <c r="Q18" s="4"/>
     </row>
     <row r="19" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="20" t="s">
-        <v>1087</v>
-      </c>
+      <c r="A19" s="20"/>
       <c r="B19" s="20" t="s">
         <v>589</v>
       </c>
@@ -22461,10 +22577,10 @@
         <v>273</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="G19" s="20" t="s">
         <v>915</v>
@@ -22476,7 +22592,7 @@
         <v>102</v>
       </c>
       <c r="J19" s="20" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K19" s="20" t="s">
         <v>14</v>
@@ -22487,9 +22603,7 @@
       <c r="Q19" s="4"/>
     </row>
     <row r="20" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="31" t="s">
-        <v>1087</v>
-      </c>
+      <c r="A20" s="31"/>
       <c r="B20" s="31" t="s">
         <v>588</v>
       </c>
@@ -22515,7 +22629,7 @@
         <v>201</v>
       </c>
       <c r="J20" s="31" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="K20" s="31" t="s">
         <v>14</v>
@@ -22532,9 +22646,7 @@
       <c r="Q20" s="4"/>
     </row>
     <row r="21" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="20" t="s">
-        <v>1087</v>
-      </c>
+      <c r="A21" s="20"/>
       <c r="B21" s="20" t="s">
         <v>589</v>
       </c>
@@ -22560,7 +22672,7 @@
         <v>201</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="K21" s="20" t="s">
         <v>14</v>
@@ -22577,9 +22689,7 @@
       <c r="Q21" s="4"/>
     </row>
     <row r="22" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="31" t="s">
-        <v>1087</v>
-      </c>
+      <c r="A22" s="31"/>
       <c r="B22" s="31" t="s">
         <v>588</v>
       </c>
@@ -22605,7 +22715,7 @@
         <v>201</v>
       </c>
       <c r="J22" s="31" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="K22" s="31" t="s">
         <v>14</v>
@@ -22616,9 +22726,7 @@
       <c r="Q22" s="4"/>
     </row>
     <row r="23" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="20" t="s">
-        <v>1087</v>
-      </c>
+      <c r="A23" s="20"/>
       <c r="B23" s="20" t="s">
         <v>588</v>
       </c>
@@ -22644,7 +22752,7 @@
         <v>202</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="K23" s="20" t="s">
         <v>14</v>
@@ -22655,9 +22763,7 @@
       <c r="Q23" s="4"/>
     </row>
     <row r="24" spans="1:17" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="31" t="s">
-        <v>1087</v>
-      </c>
+      <c r="A24" s="31"/>
       <c r="B24" s="31" t="s">
         <v>589</v>
       </c>
@@ -22683,7 +22789,7 @@
         <v>201</v>
       </c>
       <c r="J24" s="31" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="K24" s="31" t="s">
         <v>14</v>
@@ -22693,9 +22799,7 @@
       <c r="N24" s="31"/>
     </row>
     <row r="25" spans="1:17" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="20" t="s">
-        <v>1087</v>
-      </c>
+      <c r="A25" s="20"/>
       <c r="B25" s="20" t="s">
         <v>589</v>
       </c>
@@ -22721,7 +22825,7 @@
         <v>202</v>
       </c>
       <c r="J25" s="20" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="K25" s="20" t="s">
         <v>14</v>
@@ -22825,7 +22929,7 @@
         <v>51</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>183</v>
@@ -22834,7 +22938,7 @@
         <v>184</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>880</v>
@@ -22843,25 +22947,23 @@
         <v>278</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="N31" s="7" t="s">
         <v>883</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="P31" s="7" t="s">
+        <v>998</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>999</v>
       </c>
-      <c r="Q31" s="7" t="s">
-        <v>1000</v>
-      </c>
     </row>
     <row r="32" spans="1:17" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="31" t="s">
-        <v>997</v>
-      </c>
+      <c r="A32" s="31"/>
       <c r="B32" s="13" t="s">
         <v>588</v>
       </c>
@@ -22872,10 +22974,10 @@
         <v>593</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F32" s="31" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="G32" s="31" t="s">
         <v>651</v>
@@ -22892,19 +22994,17 @@
         <v>4</v>
       </c>
       <c r="M32" s="31" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="N32" s="31"/>
       <c r="O32" s="68"/>
       <c r="P32" s="68"/>
       <c r="Q32" s="68" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="33" spans="1:17" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="20" t="s">
-        <v>997</v>
-      </c>
+      <c r="A33" s="20"/>
       <c r="B33" s="15" t="s">
         <v>588</v>
       </c>
@@ -22915,10 +23015,10 @@
         <v>593</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="G33" s="20" t="s">
         <v>651</v>
@@ -22935,19 +23035,17 @@
         <v>4</v>
       </c>
       <c r="M33" s="20" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="N33" s="20"/>
       <c r="O33" s="69"/>
       <c r="P33" s="69"/>
       <c r="Q33" s="69" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="34" spans="1:17" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="31" t="s">
-        <v>997</v>
-      </c>
+      <c r="A34" s="31"/>
       <c r="B34" s="31" t="s">
         <v>588</v>
       </c>
@@ -22955,13 +23053,13 @@
         <v>915</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F34" s="31" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="G34" s="31" t="s">
         <v>651</v>
@@ -22978,19 +23076,17 @@
         <v>4</v>
       </c>
       <c r="M34" s="31" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="N34" s="31"/>
       <c r="O34" s="68"/>
       <c r="P34" s="68"/>
       <c r="Q34" s="68" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="35" spans="1:17" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="20" t="s">
-        <v>997</v>
-      </c>
+      <c r="A35" s="20"/>
       <c r="B35" s="20" t="s">
         <v>588</v>
       </c>
@@ -22998,13 +23094,13 @@
         <v>915</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="G35" s="20" t="s">
         <v>651</v>
@@ -23021,19 +23117,17 @@
         <v>4</v>
       </c>
       <c r="M35" s="20" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="N35" s="20"/>
       <c r="O35" s="69"/>
       <c r="P35" s="69"/>
       <c r="Q35" s="69" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="36" spans="1:17" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="31" t="s">
-        <v>997</v>
-      </c>
+      <c r="A36" s="31"/>
       <c r="B36" s="31" t="s">
         <v>589</v>
       </c>
@@ -23044,10 +23138,10 @@
         <v>594</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F36" s="31" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G36" s="31" t="s">
         <v>651</v>
@@ -23064,19 +23158,17 @@
         <v>4</v>
       </c>
       <c r="M36" s="31" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="N36" s="31"/>
       <c r="O36" s="68"/>
       <c r="P36" s="68"/>
       <c r="Q36" s="68" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="37" spans="1:17" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="20" t="s">
-        <v>997</v>
-      </c>
+      <c r="A37" s="20"/>
       <c r="B37" s="20" t="s">
         <v>589</v>
       </c>
@@ -23087,10 +23179,10 @@
         <v>594</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="G37" s="20" t="s">
         <v>651</v>
@@ -23107,19 +23199,17 @@
         <v>4</v>
       </c>
       <c r="M37" s="20" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="N37" s="20"/>
       <c r="O37" s="69"/>
       <c r="P37" s="69"/>
       <c r="Q37" s="69" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="38" spans="1:17" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="31" t="s">
-        <v>997</v>
-      </c>
+      <c r="A38" s="31"/>
       <c r="B38" s="31" t="s">
         <v>589</v>
       </c>
@@ -23127,13 +23217,13 @@
         <v>915</v>
       </c>
       <c r="D38" s="31" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F38" s="31" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="G38" s="31" t="s">
         <v>651</v>
@@ -23150,19 +23240,17 @@
         <v>4</v>
       </c>
       <c r="M38" s="31" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="N38" s="31"/>
       <c r="O38" s="68"/>
       <c r="P38" s="68"/>
       <c r="Q38" s="68" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="39" spans="1:17" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="20" t="s">
-        <v>997</v>
-      </c>
+      <c r="A39" s="20"/>
       <c r="B39" s="20" t="s">
         <v>589</v>
       </c>
@@ -23170,13 +23258,13 @@
         <v>915</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="G39" s="20" t="s">
         <v>651</v>
@@ -23193,19 +23281,17 @@
         <v>4</v>
       </c>
       <c r="M39" s="20" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="N39" s="20"/>
       <c r="O39" s="69"/>
       <c r="P39" s="69"/>
       <c r="Q39" s="69" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="40" spans="1:17" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="31" t="s">
-        <v>997</v>
-      </c>
+      <c r="A40" s="31"/>
       <c r="B40" s="31" t="s">
         <v>588</v>
       </c>
@@ -23219,7 +23305,7 @@
         <v>891</v>
       </c>
       <c r="F40" s="31" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="G40" s="31" t="s">
         <v>102</v>
@@ -23240,19 +23326,17 @@
         <v>911</v>
       </c>
       <c r="M40" s="31" t="s">
+        <v>962</v>
+      </c>
+      <c r="N40" s="31" t="s">
         <v>963</v>
-      </c>
-      <c r="N40" s="31" t="s">
-        <v>964</v>
       </c>
       <c r="O40" s="68"/>
       <c r="P40" s="68"/>
       <c r="Q40" s="68"/>
     </row>
     <row r="41" spans="1:17" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="20" t="s">
-        <v>997</v>
-      </c>
+      <c r="A41" s="20"/>
       <c r="B41" s="20" t="s">
         <v>589</v>
       </c>
@@ -23266,7 +23350,7 @@
         <v>891</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="G41" s="20" t="s">
         <v>102</v>
@@ -23287,19 +23371,17 @@
         <v>921</v>
       </c>
       <c r="M41" s="20" t="s">
+        <v>964</v>
+      </c>
+      <c r="N41" s="20" t="s">
         <v>965</v>
-      </c>
-      <c r="N41" s="20" t="s">
-        <v>966</v>
       </c>
       <c r="O41" s="69"/>
       <c r="P41" s="69"/>
       <c r="Q41" s="69"/>
     </row>
     <row r="42" spans="1:17" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="31" t="s">
-        <v>997</v>
-      </c>
+      <c r="A42" s="31"/>
       <c r="B42" s="31" t="s">
         <v>588</v>
       </c>
@@ -23313,7 +23395,7 @@
         <v>279</v>
       </c>
       <c r="F42" s="31" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="G42" s="31" t="s">
         <v>102</v>
@@ -23323,12 +23405,12 @@
       </c>
       <c r="I42" s="33"/>
       <c r="J42" s="31" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="K42" s="31"/>
       <c r="L42" s="33"/>
       <c r="M42" s="31" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="N42" s="31"/>
       <c r="O42" s="68"/>
@@ -23336,9 +23418,7 @@
       <c r="Q42" s="68"/>
     </row>
     <row r="43" spans="1:17" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="20" t="s">
-        <v>997</v>
-      </c>
+      <c r="A43" s="20"/>
       <c r="B43" s="20" t="s">
         <v>588</v>
       </c>
@@ -23352,7 +23432,7 @@
         <v>279</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="G43" s="20" t="s">
         <v>102</v>
@@ -23362,12 +23442,12 @@
       </c>
       <c r="I43" s="17"/>
       <c r="J43" s="20" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="K43" s="20"/>
       <c r="L43" s="17"/>
       <c r="M43" s="20" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="N43" s="20"/>
       <c r="O43" s="69"/>
@@ -23375,9 +23455,7 @@
       <c r="Q43" s="69"/>
     </row>
     <row r="44" spans="1:17" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="31" t="s">
-        <v>997</v>
-      </c>
+      <c r="A44" s="31"/>
       <c r="B44" s="31" t="s">
         <v>589</v>
       </c>
@@ -23391,7 +23469,7 @@
         <v>279</v>
       </c>
       <c r="F44" s="31" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="G44" s="31" t="s">
         <v>102</v>
@@ -23399,12 +23477,12 @@
       <c r="H44" s="33"/>
       <c r="I44" s="33"/>
       <c r="J44" s="31" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="K44" s="31"/>
       <c r="L44" s="33"/>
       <c r="M44" s="31" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="N44" s="31"/>
       <c r="O44" s="68"/>
@@ -23412,9 +23490,7 @@
       <c r="Q44" s="68"/>
     </row>
     <row r="45" spans="1:17" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="20" t="s">
-        <v>997</v>
-      </c>
+      <c r="A45" s="20"/>
       <c r="B45" s="20" t="s">
         <v>589</v>
       </c>
@@ -23428,7 +23504,7 @@
         <v>279</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="G45" s="20" t="s">
         <v>102</v>
@@ -23436,12 +23512,12 @@
       <c r="H45" s="17"/>
       <c r="I45" s="17"/>
       <c r="J45" s="20" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="K45" s="20"/>
       <c r="L45" s="17"/>
       <c r="M45" s="20" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="N45" s="20"/>
       <c r="O45" s="69"/>
@@ -23488,7 +23564,7 @@
     </row>
     <row r="49" spans="1:14" s="66" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A49" s="90" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B49" s="79"/>
       <c r="C49" s="79"/>
@@ -23526,32 +23602,32 @@
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H51" s="7" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>1021</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>1020</v>
+      </c>
+      <c r="K51" s="7" t="s">
         <v>1018</v>
       </c>
-      <c r="I51" s="7" t="s">
-        <v>1022</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>1021</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>1019</v>
-      </c>
       <c r="L51" s="7" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
@@ -23570,7 +23646,7 @@
         <v>878</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>51</v>
@@ -23597,9 +23673,7 @@
       <c r="N52" s="7"/>
     </row>
     <row r="53" spans="1:14" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="31" t="s">
-        <v>1001</v>
-      </c>
+      <c r="A53" s="31"/>
       <c r="B53" s="13" t="s">
         <v>592</v>
       </c>
@@ -23613,13 +23687,13 @@
         <v>102</v>
       </c>
       <c r="F53" s="31" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="G53" s="33">
         <v>101</v>
       </c>
       <c r="H53" s="31" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="I53" s="31" t="s">
         <v>14</v>
@@ -23680,7 +23754,7 @@
     </row>
     <row r="58" spans="1:14" s="66" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="90" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B58" s="79"/>
       <c r="C58" s="79"/>
@@ -23718,32 +23792,32 @@
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="D60" s="7"/>
       <c r="E60" s="7" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H60" s="7" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>1021</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>1020</v>
+      </c>
+      <c r="K60" s="7" t="s">
         <v>1018</v>
       </c>
-      <c r="I60" s="7" t="s">
-        <v>1022</v>
-      </c>
-      <c r="J60" s="7" t="s">
-        <v>1021</v>
-      </c>
-      <c r="K60" s="7" t="s">
-        <v>1019</v>
-      </c>
       <c r="L60" s="7" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="M60" s="7"/>
       <c r="N60" s="7"/>
@@ -23762,7 +23836,7 @@
         <v>878</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>51</v>
@@ -23786,16 +23860,14 @@
         <v>882</v>
       </c>
       <c r="M61" s="7" t="s">
+        <v>998</v>
+      </c>
+      <c r="N61" s="7" t="s">
         <v>999</v>
       </c>
-      <c r="N61" s="7" t="s">
-        <v>1000</v>
-      </c>
     </row>
     <row r="62" spans="1:14" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="31" t="s">
-        <v>999</v>
-      </c>
+      <c r="A62" s="31"/>
       <c r="B62" s="13" t="s">
         <v>592</v>
       </c>
@@ -23809,13 +23881,13 @@
         <v>102</v>
       </c>
       <c r="F62" s="31" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="G62" s="33">
         <v>101</v>
       </c>
       <c r="H62" s="31" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="I62" s="31" t="s">
         <v>14</v>
@@ -23877,7 +23949,7 @@
     <row r="66" spans="1:14" s="66" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="67" spans="1:14" s="66" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A67" s="90" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B67" s="79"/>
       <c r="C67" s="79"/>
@@ -23915,32 +23987,32 @@
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="7" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H69" s="7" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>1021</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>1020</v>
+      </c>
+      <c r="K69" s="7" t="s">
         <v>1018</v>
       </c>
-      <c r="I69" s="7" t="s">
-        <v>1022</v>
-      </c>
-      <c r="J69" s="7" t="s">
-        <v>1021</v>
-      </c>
-      <c r="K69" s="7" t="s">
-        <v>1019</v>
-      </c>
       <c r="L69" s="7" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
@@ -23956,28 +24028,28 @@
         <v>249</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>51</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="L70" s="7" t="s">
         <v>501</v>
@@ -23986,9 +24058,7 @@
       <c r="N70" s="7"/>
     </row>
     <row r="71" spans="1:14" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="31" t="s">
-        <v>1000</v>
-      </c>
+      <c r="A71" s="31"/>
       <c r="B71" s="13" t="s">
         <v>592</v>
       </c>
@@ -23996,25 +24066,25 @@
         <v>259</v>
       </c>
       <c r="D71" s="31" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E71" s="31" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F71" s="31" t="s">
         <v>1023</v>
-      </c>
-      <c r="F71" s="31" t="s">
-        <v>1024</v>
       </c>
       <c r="G71" s="31" t="s">
         <v>472</v>
       </c>
       <c r="H71" s="31" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="I71" s="31" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="J71" s="31" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="K71" s="31"/>
       <c r="L71" s="31" t="s">
